--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B64CE2-7423-487F-BFA4-E901C18BA74A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1371B-BC5C-46FB-A555-C7B0104A60EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21795" windowHeight="8805" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="20" state="hidden" r:id="rId2"/>
-    <sheet name="1.1. プロジェクト登録画面表示確認" sheetId="23" r:id="rId3"/>
-    <sheet name="1.2.プロジェクト登録確認画面表示確認" sheetId="24" r:id="rId4"/>
-    <sheet name="1.3. プロジェクト登録完了画面表示確認" sheetId="25" r:id="rId5"/>
-    <sheet name="1.4. 取引単体" sheetId="27" r:id="rId6"/>
+    <sheet name="1.1 Confirmation of screen" sheetId="23" r:id="rId3"/>
+    <sheet name="Confirmation of project display" sheetId="24" r:id="rId4"/>
+    <sheet name="1.3 Confirmation of Completion" sheetId="25" r:id="rId5"/>
+    <sheet name="1.4. Subfunction unit" sheetId="27" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1. プロジェクト登録画面表示確認'!$A$10:$R$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.2.プロジェクト登録確認画面表示確認'!$A$10:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.3. プロジェクト登録完了画面表示確認'!$A$10:$R$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1.4. 取引単体'!$A$10:$R$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.1. プロジェクト登録画面表示確認'!$A$1:$R$111</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.2.プロジェクト登録確認画面表示確認'!$A$1:$R$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'1.3. プロジェクト登録完了画面表示確認'!$A$1:$R$103</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'1.4. 取引単体'!$A$1:$R$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1 Confirmation of screen'!$A$10:$R$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.3 Confirmation of Completion'!$A$10:$R$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1.4. Subfunction unit'!$A$10:$R$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Confirmation of project display'!$A$10:$R$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.1 Confirmation of screen'!$A$1:$R$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1.3 Confirmation of Completion'!$A$1:$R$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'1.4. Subfunction unit'!$A$1:$R$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Confirmation of project display'!$A$1:$R$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.1. プロジェクト登録画面表示確認'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2.プロジェクト登録確認画面表示確認'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.3. プロジェクト登録完了画面表示確認'!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'1.4. 取引単体'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.1 Confirmation of screen'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.3 Confirmation of Completion'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'1.4. Subfunction unit'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Confirmation of project display'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -9910,6 +9912,114 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9946,9 +10056,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9988,112 +10095,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10224,8 +10226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -11525,57 +11527,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="1116" t="s">
+      <c r="A1" s="1090" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="1117"/>
-      <c r="C1" s="1117"/>
-      <c r="D1" s="1118"/>
-      <c r="E1" s="1119" t="s">
+      <c r="B1" s="1091"/>
+      <c r="C1" s="1091"/>
+      <c r="D1" s="1092"/>
+      <c r="E1" s="1093" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="1120"/>
-      <c r="G1" s="1120"/>
-      <c r="H1" s="1120"/>
-      <c r="I1" s="1120"/>
-      <c r="J1" s="1120"/>
-      <c r="K1" s="1120"/>
-      <c r="L1" s="1120"/>
-      <c r="M1" s="1120"/>
-      <c r="N1" s="1121"/>
-      <c r="O1" s="1125" t="s">
+      <c r="F1" s="1094"/>
+      <c r="G1" s="1094"/>
+      <c r="H1" s="1094"/>
+      <c r="I1" s="1094"/>
+      <c r="J1" s="1094"/>
+      <c r="K1" s="1094"/>
+      <c r="L1" s="1094"/>
+      <c r="M1" s="1094"/>
+      <c r="N1" s="1095"/>
+      <c r="O1" s="1099" t="s">
         <v>284</v>
       </c>
-      <c r="P1" s="1126"/>
-      <c r="Q1" s="1126"/>
-      <c r="R1" s="1127"/>
-      <c r="S1" s="1134" t="s">
+      <c r="P1" s="1100"/>
+      <c r="Q1" s="1100"/>
+      <c r="R1" s="1101"/>
+      <c r="S1" s="1108" t="s">
         <v>285</v>
       </c>
-      <c r="T1" s="1135"/>
-      <c r="U1" s="1135"/>
-      <c r="V1" s="1135"/>
-      <c r="W1" s="1135"/>
-      <c r="X1" s="1135"/>
-      <c r="Y1" s="1135"/>
-      <c r="Z1" s="1136"/>
-      <c r="AA1" s="1116" t="s">
+      <c r="T1" s="1109"/>
+      <c r="U1" s="1109"/>
+      <c r="V1" s="1109"/>
+      <c r="W1" s="1109"/>
+      <c r="X1" s="1109"/>
+      <c r="Y1" s="1109"/>
+      <c r="Z1" s="1110"/>
+      <c r="AA1" s="1090" t="s">
         <v>286</v>
       </c>
-      <c r="AB1" s="1118"/>
-      <c r="AC1" s="1143" t="str">
+      <c r="AB1" s="1092"/>
+      <c r="AC1" s="1117" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="1144"/>
-      <c r="AE1" s="1144"/>
-      <c r="AF1" s="1145"/>
-      <c r="AG1" s="1110">
+      <c r="AD1" s="1118"/>
+      <c r="AE1" s="1118"/>
+      <c r="AF1" s="1119"/>
+      <c r="AG1" s="1084">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="1111"/>
-      <c r="AI1" s="1112"/>
+      <c r="AH1" s="1085"/>
+      <c r="AI1" s="1086"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -11583,53 +11585,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="1116" t="s">
+      <c r="A2" s="1090" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="1117"/>
-      <c r="C2" s="1117"/>
-      <c r="D2" s="1118"/>
-      <c r="E2" s="1119" t="s">
+      <c r="B2" s="1091"/>
+      <c r="C2" s="1091"/>
+      <c r="D2" s="1092"/>
+      <c r="E2" s="1093" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="1120"/>
-      <c r="G2" s="1120"/>
-      <c r="H2" s="1120"/>
-      <c r="I2" s="1120"/>
-      <c r="J2" s="1120"/>
-      <c r="K2" s="1120"/>
-      <c r="L2" s="1120"/>
-      <c r="M2" s="1120"/>
-      <c r="N2" s="1121"/>
-      <c r="O2" s="1128"/>
-      <c r="P2" s="1129"/>
-      <c r="Q2" s="1129"/>
-      <c r="R2" s="1130"/>
-      <c r="S2" s="1137"/>
-      <c r="T2" s="1138"/>
-      <c r="U2" s="1138"/>
-      <c r="V2" s="1138"/>
-      <c r="W2" s="1138"/>
-      <c r="X2" s="1138"/>
-      <c r="Y2" s="1138"/>
-      <c r="Z2" s="1139"/>
-      <c r="AA2" s="1116" t="s">
+      <c r="F2" s="1094"/>
+      <c r="G2" s="1094"/>
+      <c r="H2" s="1094"/>
+      <c r="I2" s="1094"/>
+      <c r="J2" s="1094"/>
+      <c r="K2" s="1094"/>
+      <c r="L2" s="1094"/>
+      <c r="M2" s="1094"/>
+      <c r="N2" s="1095"/>
+      <c r="O2" s="1102"/>
+      <c r="P2" s="1103"/>
+      <c r="Q2" s="1103"/>
+      <c r="R2" s="1104"/>
+      <c r="S2" s="1111"/>
+      <c r="T2" s="1112"/>
+      <c r="U2" s="1112"/>
+      <c r="V2" s="1112"/>
+      <c r="W2" s="1112"/>
+      <c r="X2" s="1112"/>
+      <c r="Y2" s="1112"/>
+      <c r="Z2" s="1113"/>
+      <c r="AA2" s="1090" t="s">
         <v>289</v>
       </c>
-      <c r="AB2" s="1118"/>
-      <c r="AC2" s="1122" t="str">
+      <c r="AB2" s="1092"/>
+      <c r="AC2" s="1096" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="1123"/>
-      <c r="AE2" s="1123"/>
-      <c r="AF2" s="1124"/>
-      <c r="AG2" s="1110" t="str">
+      <c r="AD2" s="1097"/>
+      <c r="AE2" s="1097"/>
+      <c r="AF2" s="1098"/>
+      <c r="AG2" s="1084" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="1111"/>
-      <c r="AI2" s="1112"/>
+      <c r="AH2" s="1085"/>
+      <c r="AI2" s="1086"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -11637,45 +11639,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="1116" t="s">
+      <c r="A3" s="1090" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="1117"/>
-      <c r="C3" s="1117"/>
-      <c r="D3" s="1118"/>
-      <c r="E3" s="1119" t="s">
+      <c r="B3" s="1091"/>
+      <c r="C3" s="1091"/>
+      <c r="D3" s="1092"/>
+      <c r="E3" s="1093" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="1120"/>
-      <c r="G3" s="1120"/>
-      <c r="H3" s="1120"/>
-      <c r="I3" s="1120"/>
-      <c r="J3" s="1120"/>
-      <c r="K3" s="1120"/>
-      <c r="L3" s="1120"/>
-      <c r="M3" s="1120"/>
-      <c r="N3" s="1121"/>
-      <c r="O3" s="1131"/>
-      <c r="P3" s="1132"/>
-      <c r="Q3" s="1132"/>
-      <c r="R3" s="1133"/>
-      <c r="S3" s="1140"/>
-      <c r="T3" s="1141"/>
-      <c r="U3" s="1141"/>
-      <c r="V3" s="1141"/>
-      <c r="W3" s="1141"/>
-      <c r="X3" s="1141"/>
-      <c r="Y3" s="1141"/>
-      <c r="Z3" s="1142"/>
-      <c r="AA3" s="1116"/>
-      <c r="AB3" s="1118"/>
-      <c r="AC3" s="1143"/>
-      <c r="AD3" s="1144"/>
-      <c r="AE3" s="1144"/>
-      <c r="AF3" s="1145"/>
-      <c r="AG3" s="1110"/>
-      <c r="AH3" s="1111"/>
-      <c r="AI3" s="1112"/>
+      <c r="F3" s="1094"/>
+      <c r="G3" s="1094"/>
+      <c r="H3" s="1094"/>
+      <c r="I3" s="1094"/>
+      <c r="J3" s="1094"/>
+      <c r="K3" s="1094"/>
+      <c r="L3" s="1094"/>
+      <c r="M3" s="1094"/>
+      <c r="N3" s="1095"/>
+      <c r="O3" s="1105"/>
+      <c r="P3" s="1106"/>
+      <c r="Q3" s="1106"/>
+      <c r="R3" s="1107"/>
+      <c r="S3" s="1114"/>
+      <c r="T3" s="1115"/>
+      <c r="U3" s="1115"/>
+      <c r="V3" s="1115"/>
+      <c r="W3" s="1115"/>
+      <c r="X3" s="1115"/>
+      <c r="Y3" s="1115"/>
+      <c r="Z3" s="1116"/>
+      <c r="AA3" s="1090"/>
+      <c r="AB3" s="1092"/>
+      <c r="AC3" s="1117"/>
+      <c r="AD3" s="1118"/>
+      <c r="AE3" s="1118"/>
+      <c r="AF3" s="1119"/>
+      <c r="AG3" s="1084"/>
+      <c r="AH3" s="1085"/>
+      <c r="AI3" s="1086"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -11712,1034 +11714,1190 @@
       <c r="A7" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B7" s="1113" t="s">
+      <c r="B7" s="1087" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="1114"/>
-      <c r="D7" s="1113" t="s">
+      <c r="C7" s="1088"/>
+      <c r="D7" s="1087" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="1115"/>
-      <c r="F7" s="1114"/>
-      <c r="G7" s="1113" t="s">
+      <c r="E7" s="1089"/>
+      <c r="F7" s="1088"/>
+      <c r="G7" s="1087" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="1115"/>
-      <c r="I7" s="1114"/>
-      <c r="J7" s="1113" t="s">
+      <c r="H7" s="1089"/>
+      <c r="I7" s="1088"/>
+      <c r="J7" s="1087" t="s">
         <v>297</v>
       </c>
-      <c r="K7" s="1115"/>
-      <c r="L7" s="1115"/>
-      <c r="M7" s="1115"/>
-      <c r="N7" s="1115"/>
-      <c r="O7" s="1115"/>
-      <c r="P7" s="1114"/>
-      <c r="Q7" s="1113" t="s">
+      <c r="K7" s="1089"/>
+      <c r="L7" s="1089"/>
+      <c r="M7" s="1089"/>
+      <c r="N7" s="1089"/>
+      <c r="O7" s="1089"/>
+      <c r="P7" s="1088"/>
+      <c r="Q7" s="1087" t="s">
         <v>298</v>
       </c>
-      <c r="R7" s="1115"/>
-      <c r="S7" s="1115"/>
-      <c r="T7" s="1115"/>
-      <c r="U7" s="1115"/>
-      <c r="V7" s="1115"/>
-      <c r="W7" s="1115"/>
-      <c r="X7" s="1115"/>
-      <c r="Y7" s="1115"/>
-      <c r="Z7" s="1115"/>
-      <c r="AA7" s="1115"/>
-      <c r="AB7" s="1115"/>
-      <c r="AC7" s="1115"/>
-      <c r="AD7" s="1115"/>
-      <c r="AE7" s="1114"/>
-      <c r="AF7" s="1113" t="s">
+      <c r="R7" s="1089"/>
+      <c r="S7" s="1089"/>
+      <c r="T7" s="1089"/>
+      <c r="U7" s="1089"/>
+      <c r="V7" s="1089"/>
+      <c r="W7" s="1089"/>
+      <c r="X7" s="1089"/>
+      <c r="Y7" s="1089"/>
+      <c r="Z7" s="1089"/>
+      <c r="AA7" s="1089"/>
+      <c r="AB7" s="1089"/>
+      <c r="AC7" s="1089"/>
+      <c r="AD7" s="1089"/>
+      <c r="AE7" s="1088"/>
+      <c r="AF7" s="1087" t="s">
         <v>299</v>
       </c>
-      <c r="AG7" s="1115"/>
-      <c r="AH7" s="1115"/>
-      <c r="AI7" s="1114"/>
+      <c r="AG7" s="1089"/>
+      <c r="AH7" s="1089"/>
+      <c r="AI7" s="1088"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="1097" t="s">
+      <c r="B8" s="1132" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="1098"/>
-      <c r="D8" s="1099">
+      <c r="C8" s="1133"/>
+      <c r="D8" s="1134">
         <v>43657</v>
       </c>
-      <c r="E8" s="1100"/>
-      <c r="F8" s="1101"/>
-      <c r="G8" s="1102" t="s">
+      <c r="E8" s="1135"/>
+      <c r="F8" s="1136"/>
+      <c r="G8" s="1137" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="1103"/>
-      <c r="I8" s="1098"/>
-      <c r="J8" s="1104" t="s">
+      <c r="H8" s="1138"/>
+      <c r="I8" s="1133"/>
+      <c r="J8" s="1139" t="s">
         <v>302</v>
       </c>
-      <c r="K8" s="1105"/>
-      <c r="L8" s="1105"/>
-      <c r="M8" s="1105"/>
-      <c r="N8" s="1105"/>
-      <c r="O8" s="1105"/>
-      <c r="P8" s="1106"/>
-      <c r="Q8" s="1107" t="s">
+      <c r="K8" s="1140"/>
+      <c r="L8" s="1140"/>
+      <c r="M8" s="1140"/>
+      <c r="N8" s="1140"/>
+      <c r="O8" s="1140"/>
+      <c r="P8" s="1141"/>
+      <c r="Q8" s="1142" t="s">
         <v>303</v>
       </c>
-      <c r="R8" s="1108"/>
-      <c r="S8" s="1108"/>
-      <c r="T8" s="1108"/>
-      <c r="U8" s="1108"/>
-      <c r="V8" s="1108"/>
-      <c r="W8" s="1108"/>
-      <c r="X8" s="1108"/>
-      <c r="Y8" s="1108"/>
-      <c r="Z8" s="1108"/>
-      <c r="AA8" s="1108"/>
-      <c r="AB8" s="1108"/>
-      <c r="AC8" s="1108"/>
-      <c r="AD8" s="1108"/>
-      <c r="AE8" s="1109"/>
-      <c r="AF8" s="1104" t="s">
+      <c r="R8" s="1143"/>
+      <c r="S8" s="1143"/>
+      <c r="T8" s="1143"/>
+      <c r="U8" s="1143"/>
+      <c r="V8" s="1143"/>
+      <c r="W8" s="1143"/>
+      <c r="X8" s="1143"/>
+      <c r="Y8" s="1143"/>
+      <c r="Z8" s="1143"/>
+      <c r="AA8" s="1143"/>
+      <c r="AB8" s="1143"/>
+      <c r="AC8" s="1143"/>
+      <c r="AD8" s="1143"/>
+      <c r="AE8" s="1144"/>
+      <c r="AF8" s="1139" t="s">
         <v>304</v>
       </c>
-      <c r="AG8" s="1105"/>
-      <c r="AH8" s="1105"/>
-      <c r="AI8" s="1106"/>
+      <c r="AG8" s="1140"/>
+      <c r="AH8" s="1140"/>
+      <c r="AI8" s="1141"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="1084"/>
-      <c r="C9" s="1085"/>
-      <c r="D9" s="1086"/>
-      <c r="E9" s="1087"/>
-      <c r="F9" s="1088"/>
-      <c r="G9" s="1086"/>
-      <c r="H9" s="1089"/>
-      <c r="I9" s="1085"/>
-      <c r="J9" s="1090"/>
-      <c r="K9" s="1091"/>
-      <c r="L9" s="1091"/>
-      <c r="M9" s="1091"/>
-      <c r="N9" s="1091"/>
-      <c r="O9" s="1091"/>
-      <c r="P9" s="1092"/>
-      <c r="Q9" s="1093"/>
-      <c r="R9" s="1094"/>
-      <c r="S9" s="1094"/>
-      <c r="T9" s="1094"/>
-      <c r="U9" s="1094"/>
-      <c r="V9" s="1094"/>
-      <c r="W9" s="1094"/>
-      <c r="X9" s="1094"/>
-      <c r="Y9" s="1094"/>
-      <c r="Z9" s="1094"/>
-      <c r="AA9" s="1094"/>
-      <c r="AB9" s="1094"/>
-      <c r="AC9" s="1094"/>
-      <c r="AD9" s="1094"/>
-      <c r="AE9" s="1095"/>
-      <c r="AF9" s="1090"/>
-      <c r="AG9" s="1091"/>
-      <c r="AH9" s="1091"/>
-      <c r="AI9" s="1092"/>
+      <c r="B9" s="1120"/>
+      <c r="C9" s="1121"/>
+      <c r="D9" s="1122"/>
+      <c r="E9" s="1123"/>
+      <c r="F9" s="1124"/>
+      <c r="G9" s="1122"/>
+      <c r="H9" s="1125"/>
+      <c r="I9" s="1121"/>
+      <c r="J9" s="1126"/>
+      <c r="K9" s="1127"/>
+      <c r="L9" s="1127"/>
+      <c r="M9" s="1127"/>
+      <c r="N9" s="1127"/>
+      <c r="O9" s="1127"/>
+      <c r="P9" s="1128"/>
+      <c r="Q9" s="1129"/>
+      <c r="R9" s="1130"/>
+      <c r="S9" s="1130"/>
+      <c r="T9" s="1130"/>
+      <c r="U9" s="1130"/>
+      <c r="V9" s="1130"/>
+      <c r="W9" s="1130"/>
+      <c r="X9" s="1130"/>
+      <c r="Y9" s="1130"/>
+      <c r="Z9" s="1130"/>
+      <c r="AA9" s="1130"/>
+      <c r="AB9" s="1130"/>
+      <c r="AC9" s="1130"/>
+      <c r="AD9" s="1130"/>
+      <c r="AE9" s="1131"/>
+      <c r="AF9" s="1126"/>
+      <c r="AG9" s="1127"/>
+      <c r="AH9" s="1127"/>
+      <c r="AI9" s="1128"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="1084"/>
-      <c r="C10" s="1085"/>
-      <c r="D10" s="1086"/>
-      <c r="E10" s="1087"/>
-      <c r="F10" s="1088"/>
-      <c r="G10" s="1084"/>
-      <c r="H10" s="1089"/>
-      <c r="I10" s="1085"/>
-      <c r="J10" s="1090"/>
-      <c r="K10" s="1091"/>
-      <c r="L10" s="1091"/>
-      <c r="M10" s="1091"/>
-      <c r="N10" s="1091"/>
-      <c r="O10" s="1091"/>
-      <c r="P10" s="1092"/>
-      <c r="Q10" s="1093"/>
-      <c r="R10" s="1094"/>
-      <c r="S10" s="1094"/>
-      <c r="T10" s="1094"/>
-      <c r="U10" s="1094"/>
-      <c r="V10" s="1094"/>
-      <c r="W10" s="1094"/>
-      <c r="X10" s="1094"/>
-      <c r="Y10" s="1094"/>
-      <c r="Z10" s="1094"/>
-      <c r="AA10" s="1094"/>
-      <c r="AB10" s="1094"/>
-      <c r="AC10" s="1094"/>
-      <c r="AD10" s="1094"/>
-      <c r="AE10" s="1095"/>
-      <c r="AF10" s="1090"/>
-      <c r="AG10" s="1091"/>
-      <c r="AH10" s="1091"/>
-      <c r="AI10" s="1092"/>
+      <c r="B10" s="1120"/>
+      <c r="C10" s="1121"/>
+      <c r="D10" s="1122"/>
+      <c r="E10" s="1123"/>
+      <c r="F10" s="1124"/>
+      <c r="G10" s="1120"/>
+      <c r="H10" s="1125"/>
+      <c r="I10" s="1121"/>
+      <c r="J10" s="1126"/>
+      <c r="K10" s="1127"/>
+      <c r="L10" s="1127"/>
+      <c r="M10" s="1127"/>
+      <c r="N10" s="1127"/>
+      <c r="O10" s="1127"/>
+      <c r="P10" s="1128"/>
+      <c r="Q10" s="1129"/>
+      <c r="R10" s="1130"/>
+      <c r="S10" s="1130"/>
+      <c r="T10" s="1130"/>
+      <c r="U10" s="1130"/>
+      <c r="V10" s="1130"/>
+      <c r="W10" s="1130"/>
+      <c r="X10" s="1130"/>
+      <c r="Y10" s="1130"/>
+      <c r="Z10" s="1130"/>
+      <c r="AA10" s="1130"/>
+      <c r="AB10" s="1130"/>
+      <c r="AC10" s="1130"/>
+      <c r="AD10" s="1130"/>
+      <c r="AE10" s="1131"/>
+      <c r="AF10" s="1126"/>
+      <c r="AG10" s="1127"/>
+      <c r="AH10" s="1127"/>
+      <c r="AI10" s="1128"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="1084"/>
-      <c r="C11" s="1085"/>
-      <c r="D11" s="1086"/>
-      <c r="E11" s="1087"/>
-      <c r="F11" s="1088"/>
-      <c r="G11" s="1084"/>
-      <c r="H11" s="1089"/>
-      <c r="I11" s="1085"/>
-      <c r="J11" s="1090"/>
-      <c r="K11" s="1091"/>
-      <c r="L11" s="1091"/>
-      <c r="M11" s="1091"/>
-      <c r="N11" s="1091"/>
-      <c r="O11" s="1091"/>
-      <c r="P11" s="1092"/>
-      <c r="Q11" s="1093"/>
-      <c r="R11" s="1094"/>
-      <c r="S11" s="1094"/>
-      <c r="T11" s="1094"/>
-      <c r="U11" s="1094"/>
-      <c r="V11" s="1094"/>
-      <c r="W11" s="1094"/>
-      <c r="X11" s="1094"/>
-      <c r="Y11" s="1094"/>
-      <c r="Z11" s="1094"/>
-      <c r="AA11" s="1094"/>
-      <c r="AB11" s="1094"/>
-      <c r="AC11" s="1094"/>
-      <c r="AD11" s="1094"/>
-      <c r="AE11" s="1095"/>
-      <c r="AF11" s="1090"/>
-      <c r="AG11" s="1091"/>
-      <c r="AH11" s="1091"/>
-      <c r="AI11" s="1092"/>
+      <c r="B11" s="1120"/>
+      <c r="C11" s="1121"/>
+      <c r="D11" s="1122"/>
+      <c r="E11" s="1123"/>
+      <c r="F11" s="1124"/>
+      <c r="G11" s="1120"/>
+      <c r="H11" s="1125"/>
+      <c r="I11" s="1121"/>
+      <c r="J11" s="1126"/>
+      <c r="K11" s="1127"/>
+      <c r="L11" s="1127"/>
+      <c r="M11" s="1127"/>
+      <c r="N11" s="1127"/>
+      <c r="O11" s="1127"/>
+      <c r="P11" s="1128"/>
+      <c r="Q11" s="1129"/>
+      <c r="R11" s="1130"/>
+      <c r="S11" s="1130"/>
+      <c r="T11" s="1130"/>
+      <c r="U11" s="1130"/>
+      <c r="V11" s="1130"/>
+      <c r="W11" s="1130"/>
+      <c r="X11" s="1130"/>
+      <c r="Y11" s="1130"/>
+      <c r="Z11" s="1130"/>
+      <c r="AA11" s="1130"/>
+      <c r="AB11" s="1130"/>
+      <c r="AC11" s="1130"/>
+      <c r="AD11" s="1130"/>
+      <c r="AE11" s="1131"/>
+      <c r="AF11" s="1126"/>
+      <c r="AG11" s="1127"/>
+      <c r="AH11" s="1127"/>
+      <c r="AI11" s="1128"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="1084"/>
-      <c r="C12" s="1085"/>
-      <c r="D12" s="1086"/>
-      <c r="E12" s="1087"/>
-      <c r="F12" s="1088"/>
-      <c r="G12" s="1084"/>
-      <c r="H12" s="1089"/>
-      <c r="I12" s="1085"/>
-      <c r="J12" s="1090"/>
-      <c r="K12" s="1091"/>
-      <c r="L12" s="1091"/>
-      <c r="M12" s="1091"/>
-      <c r="N12" s="1091"/>
-      <c r="O12" s="1091"/>
-      <c r="P12" s="1092"/>
-      <c r="Q12" s="1093"/>
-      <c r="R12" s="1094"/>
-      <c r="S12" s="1094"/>
-      <c r="T12" s="1094"/>
-      <c r="U12" s="1094"/>
-      <c r="V12" s="1094"/>
-      <c r="W12" s="1094"/>
-      <c r="X12" s="1094"/>
-      <c r="Y12" s="1094"/>
-      <c r="Z12" s="1094"/>
-      <c r="AA12" s="1094"/>
-      <c r="AB12" s="1094"/>
-      <c r="AC12" s="1094"/>
-      <c r="AD12" s="1094"/>
-      <c r="AE12" s="1095"/>
-      <c r="AF12" s="1090"/>
-      <c r="AG12" s="1091"/>
-      <c r="AH12" s="1091"/>
-      <c r="AI12" s="1092"/>
+      <c r="B12" s="1120"/>
+      <c r="C12" s="1121"/>
+      <c r="D12" s="1122"/>
+      <c r="E12" s="1123"/>
+      <c r="F12" s="1124"/>
+      <c r="G12" s="1120"/>
+      <c r="H12" s="1125"/>
+      <c r="I12" s="1121"/>
+      <c r="J12" s="1126"/>
+      <c r="K12" s="1127"/>
+      <c r="L12" s="1127"/>
+      <c r="M12" s="1127"/>
+      <c r="N12" s="1127"/>
+      <c r="O12" s="1127"/>
+      <c r="P12" s="1128"/>
+      <c r="Q12" s="1129"/>
+      <c r="R12" s="1130"/>
+      <c r="S12" s="1130"/>
+      <c r="T12" s="1130"/>
+      <c r="U12" s="1130"/>
+      <c r="V12" s="1130"/>
+      <c r="W12" s="1130"/>
+      <c r="X12" s="1130"/>
+      <c r="Y12" s="1130"/>
+      <c r="Z12" s="1130"/>
+      <c r="AA12" s="1130"/>
+      <c r="AB12" s="1130"/>
+      <c r="AC12" s="1130"/>
+      <c r="AD12" s="1130"/>
+      <c r="AE12" s="1131"/>
+      <c r="AF12" s="1126"/>
+      <c r="AG12" s="1127"/>
+      <c r="AH12" s="1127"/>
+      <c r="AI12" s="1128"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="1084"/>
-      <c r="C13" s="1085"/>
-      <c r="D13" s="1086"/>
-      <c r="E13" s="1087"/>
-      <c r="F13" s="1088"/>
-      <c r="G13" s="1084"/>
-      <c r="H13" s="1089"/>
-      <c r="I13" s="1085"/>
-      <c r="J13" s="1090"/>
-      <c r="K13" s="1091"/>
-      <c r="L13" s="1091"/>
-      <c r="M13" s="1091"/>
-      <c r="N13" s="1091"/>
-      <c r="O13" s="1091"/>
-      <c r="P13" s="1092"/>
-      <c r="Q13" s="1093"/>
-      <c r="R13" s="1094"/>
-      <c r="S13" s="1094"/>
-      <c r="T13" s="1094"/>
-      <c r="U13" s="1094"/>
-      <c r="V13" s="1094"/>
-      <c r="W13" s="1094"/>
-      <c r="X13" s="1094"/>
-      <c r="Y13" s="1094"/>
-      <c r="Z13" s="1094"/>
-      <c r="AA13" s="1094"/>
-      <c r="AB13" s="1094"/>
-      <c r="AC13" s="1094"/>
-      <c r="AD13" s="1094"/>
-      <c r="AE13" s="1095"/>
-      <c r="AF13" s="1090"/>
-      <c r="AG13" s="1091"/>
-      <c r="AH13" s="1091"/>
-      <c r="AI13" s="1092"/>
+      <c r="B13" s="1120"/>
+      <c r="C13" s="1121"/>
+      <c r="D13" s="1122"/>
+      <c r="E13" s="1123"/>
+      <c r="F13" s="1124"/>
+      <c r="G13" s="1120"/>
+      <c r="H13" s="1125"/>
+      <c r="I13" s="1121"/>
+      <c r="J13" s="1126"/>
+      <c r="K13" s="1127"/>
+      <c r="L13" s="1127"/>
+      <c r="M13" s="1127"/>
+      <c r="N13" s="1127"/>
+      <c r="O13" s="1127"/>
+      <c r="P13" s="1128"/>
+      <c r="Q13" s="1129"/>
+      <c r="R13" s="1130"/>
+      <c r="S13" s="1130"/>
+      <c r="T13" s="1130"/>
+      <c r="U13" s="1130"/>
+      <c r="V13" s="1130"/>
+      <c r="W13" s="1130"/>
+      <c r="X13" s="1130"/>
+      <c r="Y13" s="1130"/>
+      <c r="Z13" s="1130"/>
+      <c r="AA13" s="1130"/>
+      <c r="AB13" s="1130"/>
+      <c r="AC13" s="1130"/>
+      <c r="AD13" s="1130"/>
+      <c r="AE13" s="1131"/>
+      <c r="AF13" s="1126"/>
+      <c r="AG13" s="1127"/>
+      <c r="AH13" s="1127"/>
+      <c r="AI13" s="1128"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="1084"/>
-      <c r="C14" s="1085"/>
-      <c r="D14" s="1086"/>
-      <c r="E14" s="1087"/>
-      <c r="F14" s="1088"/>
-      <c r="G14" s="1084"/>
-      <c r="H14" s="1089"/>
-      <c r="I14" s="1085"/>
-      <c r="J14" s="1090"/>
-      <c r="K14" s="1091"/>
-      <c r="L14" s="1091"/>
-      <c r="M14" s="1091"/>
-      <c r="N14" s="1091"/>
-      <c r="O14" s="1091"/>
-      <c r="P14" s="1092"/>
-      <c r="Q14" s="1093"/>
-      <c r="R14" s="1094"/>
-      <c r="S14" s="1094"/>
-      <c r="T14" s="1094"/>
-      <c r="U14" s="1094"/>
-      <c r="V14" s="1094"/>
-      <c r="W14" s="1094"/>
-      <c r="X14" s="1094"/>
-      <c r="Y14" s="1094"/>
-      <c r="Z14" s="1094"/>
-      <c r="AA14" s="1094"/>
-      <c r="AB14" s="1094"/>
-      <c r="AC14" s="1094"/>
-      <c r="AD14" s="1094"/>
-      <c r="AE14" s="1095"/>
-      <c r="AF14" s="1090"/>
-      <c r="AG14" s="1091"/>
-      <c r="AH14" s="1091"/>
-      <c r="AI14" s="1092"/>
+      <c r="B14" s="1120"/>
+      <c r="C14" s="1121"/>
+      <c r="D14" s="1122"/>
+      <c r="E14" s="1123"/>
+      <c r="F14" s="1124"/>
+      <c r="G14" s="1120"/>
+      <c r="H14" s="1125"/>
+      <c r="I14" s="1121"/>
+      <c r="J14" s="1126"/>
+      <c r="K14" s="1127"/>
+      <c r="L14" s="1127"/>
+      <c r="M14" s="1127"/>
+      <c r="N14" s="1127"/>
+      <c r="O14" s="1127"/>
+      <c r="P14" s="1128"/>
+      <c r="Q14" s="1129"/>
+      <c r="R14" s="1130"/>
+      <c r="S14" s="1130"/>
+      <c r="T14" s="1130"/>
+      <c r="U14" s="1130"/>
+      <c r="V14" s="1130"/>
+      <c r="W14" s="1130"/>
+      <c r="X14" s="1130"/>
+      <c r="Y14" s="1130"/>
+      <c r="Z14" s="1130"/>
+      <c r="AA14" s="1130"/>
+      <c r="AB14" s="1130"/>
+      <c r="AC14" s="1130"/>
+      <c r="AD14" s="1130"/>
+      <c r="AE14" s="1131"/>
+      <c r="AF14" s="1126"/>
+      <c r="AG14" s="1127"/>
+      <c r="AH14" s="1127"/>
+      <c r="AI14" s="1128"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="1084"/>
-      <c r="C15" s="1085"/>
-      <c r="D15" s="1086"/>
-      <c r="E15" s="1087"/>
-      <c r="F15" s="1088"/>
-      <c r="G15" s="1084"/>
-      <c r="H15" s="1089"/>
-      <c r="I15" s="1085"/>
-      <c r="J15" s="1090"/>
-      <c r="K15" s="1091"/>
-      <c r="L15" s="1091"/>
-      <c r="M15" s="1091"/>
-      <c r="N15" s="1091"/>
-      <c r="O15" s="1091"/>
-      <c r="P15" s="1092"/>
-      <c r="Q15" s="1093"/>
-      <c r="R15" s="1094"/>
-      <c r="S15" s="1094"/>
-      <c r="T15" s="1094"/>
-      <c r="U15" s="1094"/>
-      <c r="V15" s="1094"/>
-      <c r="W15" s="1094"/>
-      <c r="X15" s="1094"/>
-      <c r="Y15" s="1094"/>
-      <c r="Z15" s="1094"/>
-      <c r="AA15" s="1094"/>
-      <c r="AB15" s="1094"/>
-      <c r="AC15" s="1094"/>
-      <c r="AD15" s="1094"/>
-      <c r="AE15" s="1095"/>
-      <c r="AF15" s="1090"/>
-      <c r="AG15" s="1091"/>
-      <c r="AH15" s="1091"/>
-      <c r="AI15" s="1092"/>
+      <c r="B15" s="1120"/>
+      <c r="C15" s="1121"/>
+      <c r="D15" s="1122"/>
+      <c r="E15" s="1123"/>
+      <c r="F15" s="1124"/>
+      <c r="G15" s="1120"/>
+      <c r="H15" s="1125"/>
+      <c r="I15" s="1121"/>
+      <c r="J15" s="1126"/>
+      <c r="K15" s="1127"/>
+      <c r="L15" s="1127"/>
+      <c r="M15" s="1127"/>
+      <c r="N15" s="1127"/>
+      <c r="O15" s="1127"/>
+      <c r="P15" s="1128"/>
+      <c r="Q15" s="1129"/>
+      <c r="R15" s="1130"/>
+      <c r="S15" s="1130"/>
+      <c r="T15" s="1130"/>
+      <c r="U15" s="1130"/>
+      <c r="V15" s="1130"/>
+      <c r="W15" s="1130"/>
+      <c r="X15" s="1130"/>
+      <c r="Y15" s="1130"/>
+      <c r="Z15" s="1130"/>
+      <c r="AA15" s="1130"/>
+      <c r="AB15" s="1130"/>
+      <c r="AC15" s="1130"/>
+      <c r="AD15" s="1130"/>
+      <c r="AE15" s="1131"/>
+      <c r="AF15" s="1126"/>
+      <c r="AG15" s="1127"/>
+      <c r="AH15" s="1127"/>
+      <c r="AI15" s="1128"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="1084"/>
-      <c r="C16" s="1085"/>
-      <c r="D16" s="1086"/>
-      <c r="E16" s="1087"/>
-      <c r="F16" s="1088"/>
-      <c r="G16" s="1084"/>
-      <c r="H16" s="1089"/>
-      <c r="I16" s="1085"/>
-      <c r="J16" s="1090"/>
-      <c r="K16" s="1091"/>
-      <c r="L16" s="1091"/>
-      <c r="M16" s="1091"/>
-      <c r="N16" s="1091"/>
-      <c r="O16" s="1091"/>
-      <c r="P16" s="1092"/>
-      <c r="Q16" s="1093"/>
-      <c r="R16" s="1094"/>
-      <c r="S16" s="1094"/>
-      <c r="T16" s="1094"/>
-      <c r="U16" s="1094"/>
-      <c r="V16" s="1094"/>
-      <c r="W16" s="1094"/>
-      <c r="X16" s="1094"/>
-      <c r="Y16" s="1094"/>
-      <c r="Z16" s="1094"/>
-      <c r="AA16" s="1094"/>
-      <c r="AB16" s="1094"/>
-      <c r="AC16" s="1094"/>
-      <c r="AD16" s="1094"/>
-      <c r="AE16" s="1095"/>
-      <c r="AF16" s="1090"/>
-      <c r="AG16" s="1091"/>
-      <c r="AH16" s="1091"/>
-      <c r="AI16" s="1092"/>
+      <c r="B16" s="1120"/>
+      <c r="C16" s="1121"/>
+      <c r="D16" s="1122"/>
+      <c r="E16" s="1123"/>
+      <c r="F16" s="1124"/>
+      <c r="G16" s="1120"/>
+      <c r="H16" s="1125"/>
+      <c r="I16" s="1121"/>
+      <c r="J16" s="1126"/>
+      <c r="K16" s="1127"/>
+      <c r="L16" s="1127"/>
+      <c r="M16" s="1127"/>
+      <c r="N16" s="1127"/>
+      <c r="O16" s="1127"/>
+      <c r="P16" s="1128"/>
+      <c r="Q16" s="1129"/>
+      <c r="R16" s="1130"/>
+      <c r="S16" s="1130"/>
+      <c r="T16" s="1130"/>
+      <c r="U16" s="1130"/>
+      <c r="V16" s="1130"/>
+      <c r="W16" s="1130"/>
+      <c r="X16" s="1130"/>
+      <c r="Y16" s="1130"/>
+      <c r="Z16" s="1130"/>
+      <c r="AA16" s="1130"/>
+      <c r="AB16" s="1130"/>
+      <c r="AC16" s="1130"/>
+      <c r="AD16" s="1130"/>
+      <c r="AE16" s="1131"/>
+      <c r="AF16" s="1126"/>
+      <c r="AG16" s="1127"/>
+      <c r="AH16" s="1127"/>
+      <c r="AI16" s="1128"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="1084"/>
-      <c r="C17" s="1085"/>
-      <c r="D17" s="1086"/>
-      <c r="E17" s="1087"/>
-      <c r="F17" s="1088"/>
-      <c r="G17" s="1084"/>
-      <c r="H17" s="1089"/>
-      <c r="I17" s="1085"/>
-      <c r="J17" s="1090"/>
-      <c r="K17" s="1091"/>
-      <c r="L17" s="1091"/>
-      <c r="M17" s="1091"/>
-      <c r="N17" s="1091"/>
-      <c r="O17" s="1091"/>
-      <c r="P17" s="1092"/>
-      <c r="Q17" s="1093"/>
-      <c r="R17" s="1094"/>
-      <c r="S17" s="1094"/>
-      <c r="T17" s="1094"/>
-      <c r="U17" s="1094"/>
-      <c r="V17" s="1094"/>
-      <c r="W17" s="1094"/>
-      <c r="X17" s="1094"/>
-      <c r="Y17" s="1094"/>
-      <c r="Z17" s="1094"/>
-      <c r="AA17" s="1094"/>
-      <c r="AB17" s="1094"/>
-      <c r="AC17" s="1094"/>
-      <c r="AD17" s="1094"/>
-      <c r="AE17" s="1095"/>
-      <c r="AF17" s="1090"/>
-      <c r="AG17" s="1091"/>
-      <c r="AH17" s="1091"/>
-      <c r="AI17" s="1092"/>
+      <c r="B17" s="1120"/>
+      <c r="C17" s="1121"/>
+      <c r="D17" s="1122"/>
+      <c r="E17" s="1123"/>
+      <c r="F17" s="1124"/>
+      <c r="G17" s="1120"/>
+      <c r="H17" s="1125"/>
+      <c r="I17" s="1121"/>
+      <c r="J17" s="1126"/>
+      <c r="K17" s="1127"/>
+      <c r="L17" s="1127"/>
+      <c r="M17" s="1127"/>
+      <c r="N17" s="1127"/>
+      <c r="O17" s="1127"/>
+      <c r="P17" s="1128"/>
+      <c r="Q17" s="1129"/>
+      <c r="R17" s="1130"/>
+      <c r="S17" s="1130"/>
+      <c r="T17" s="1130"/>
+      <c r="U17" s="1130"/>
+      <c r="V17" s="1130"/>
+      <c r="W17" s="1130"/>
+      <c r="X17" s="1130"/>
+      <c r="Y17" s="1130"/>
+      <c r="Z17" s="1130"/>
+      <c r="AA17" s="1130"/>
+      <c r="AB17" s="1130"/>
+      <c r="AC17" s="1130"/>
+      <c r="AD17" s="1130"/>
+      <c r="AE17" s="1131"/>
+      <c r="AF17" s="1126"/>
+      <c r="AG17" s="1127"/>
+      <c r="AH17" s="1127"/>
+      <c r="AI17" s="1128"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="1084"/>
-      <c r="C18" s="1085"/>
-      <c r="D18" s="1086"/>
-      <c r="E18" s="1087"/>
-      <c r="F18" s="1088"/>
-      <c r="G18" s="1084"/>
-      <c r="H18" s="1089"/>
-      <c r="I18" s="1085"/>
-      <c r="J18" s="1090"/>
-      <c r="K18" s="1091"/>
-      <c r="L18" s="1091"/>
-      <c r="M18" s="1091"/>
-      <c r="N18" s="1091"/>
-      <c r="O18" s="1091"/>
-      <c r="P18" s="1092"/>
-      <c r="Q18" s="1093"/>
-      <c r="R18" s="1094"/>
-      <c r="S18" s="1094"/>
-      <c r="T18" s="1094"/>
-      <c r="U18" s="1094"/>
-      <c r="V18" s="1094"/>
-      <c r="W18" s="1094"/>
-      <c r="X18" s="1094"/>
-      <c r="Y18" s="1094"/>
-      <c r="Z18" s="1094"/>
-      <c r="AA18" s="1094"/>
-      <c r="AB18" s="1094"/>
-      <c r="AC18" s="1094"/>
-      <c r="AD18" s="1094"/>
-      <c r="AE18" s="1095"/>
-      <c r="AF18" s="1090"/>
-      <c r="AG18" s="1091"/>
-      <c r="AH18" s="1091"/>
-      <c r="AI18" s="1092"/>
+      <c r="B18" s="1120"/>
+      <c r="C18" s="1121"/>
+      <c r="D18" s="1122"/>
+      <c r="E18" s="1123"/>
+      <c r="F18" s="1124"/>
+      <c r="G18" s="1120"/>
+      <c r="H18" s="1125"/>
+      <c r="I18" s="1121"/>
+      <c r="J18" s="1126"/>
+      <c r="K18" s="1127"/>
+      <c r="L18" s="1127"/>
+      <c r="M18" s="1127"/>
+      <c r="N18" s="1127"/>
+      <c r="O18" s="1127"/>
+      <c r="P18" s="1128"/>
+      <c r="Q18" s="1129"/>
+      <c r="R18" s="1130"/>
+      <c r="S18" s="1130"/>
+      <c r="T18" s="1130"/>
+      <c r="U18" s="1130"/>
+      <c r="V18" s="1130"/>
+      <c r="W18" s="1130"/>
+      <c r="X18" s="1130"/>
+      <c r="Y18" s="1130"/>
+      <c r="Z18" s="1130"/>
+      <c r="AA18" s="1130"/>
+      <c r="AB18" s="1130"/>
+      <c r="AC18" s="1130"/>
+      <c r="AD18" s="1130"/>
+      <c r="AE18" s="1131"/>
+      <c r="AF18" s="1126"/>
+      <c r="AG18" s="1127"/>
+      <c r="AH18" s="1127"/>
+      <c r="AI18" s="1128"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="1084"/>
-      <c r="C19" s="1085"/>
-      <c r="D19" s="1086"/>
-      <c r="E19" s="1087"/>
-      <c r="F19" s="1088"/>
-      <c r="G19" s="1084"/>
-      <c r="H19" s="1089"/>
-      <c r="I19" s="1085"/>
-      <c r="J19" s="1090"/>
-      <c r="K19" s="1091"/>
-      <c r="L19" s="1091"/>
-      <c r="M19" s="1091"/>
-      <c r="N19" s="1091"/>
-      <c r="O19" s="1091"/>
-      <c r="P19" s="1092"/>
-      <c r="Q19" s="1093"/>
-      <c r="R19" s="1094"/>
-      <c r="S19" s="1094"/>
-      <c r="T19" s="1094"/>
-      <c r="U19" s="1094"/>
-      <c r="V19" s="1094"/>
-      <c r="W19" s="1094"/>
-      <c r="X19" s="1094"/>
-      <c r="Y19" s="1094"/>
-      <c r="Z19" s="1094"/>
-      <c r="AA19" s="1094"/>
-      <c r="AB19" s="1094"/>
-      <c r="AC19" s="1094"/>
-      <c r="AD19" s="1094"/>
-      <c r="AE19" s="1095"/>
-      <c r="AF19" s="1090"/>
-      <c r="AG19" s="1091"/>
-      <c r="AH19" s="1091"/>
-      <c r="AI19" s="1092"/>
+      <c r="B19" s="1120"/>
+      <c r="C19" s="1121"/>
+      <c r="D19" s="1122"/>
+      <c r="E19" s="1123"/>
+      <c r="F19" s="1124"/>
+      <c r="G19" s="1120"/>
+      <c r="H19" s="1125"/>
+      <c r="I19" s="1121"/>
+      <c r="J19" s="1126"/>
+      <c r="K19" s="1127"/>
+      <c r="L19" s="1127"/>
+      <c r="M19" s="1127"/>
+      <c r="N19" s="1127"/>
+      <c r="O19" s="1127"/>
+      <c r="P19" s="1128"/>
+      <c r="Q19" s="1129"/>
+      <c r="R19" s="1130"/>
+      <c r="S19" s="1130"/>
+      <c r="T19" s="1130"/>
+      <c r="U19" s="1130"/>
+      <c r="V19" s="1130"/>
+      <c r="W19" s="1130"/>
+      <c r="X19" s="1130"/>
+      <c r="Y19" s="1130"/>
+      <c r="Z19" s="1130"/>
+      <c r="AA19" s="1130"/>
+      <c r="AB19" s="1130"/>
+      <c r="AC19" s="1130"/>
+      <c r="AD19" s="1130"/>
+      <c r="AE19" s="1131"/>
+      <c r="AF19" s="1126"/>
+      <c r="AG19" s="1127"/>
+      <c r="AH19" s="1127"/>
+      <c r="AI19" s="1128"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="1084"/>
-      <c r="C20" s="1085"/>
-      <c r="D20" s="1086"/>
-      <c r="E20" s="1087"/>
-      <c r="F20" s="1088"/>
-      <c r="G20" s="1084"/>
-      <c r="H20" s="1089"/>
-      <c r="I20" s="1085"/>
-      <c r="J20" s="1090"/>
-      <c r="K20" s="1091"/>
-      <c r="L20" s="1091"/>
-      <c r="M20" s="1091"/>
-      <c r="N20" s="1091"/>
-      <c r="O20" s="1091"/>
-      <c r="P20" s="1092"/>
-      <c r="Q20" s="1093"/>
-      <c r="R20" s="1094"/>
-      <c r="S20" s="1094"/>
-      <c r="T20" s="1094"/>
-      <c r="U20" s="1094"/>
-      <c r="V20" s="1094"/>
-      <c r="W20" s="1094"/>
-      <c r="X20" s="1094"/>
-      <c r="Y20" s="1094"/>
-      <c r="Z20" s="1094"/>
-      <c r="AA20" s="1094"/>
-      <c r="AB20" s="1094"/>
-      <c r="AC20" s="1094"/>
-      <c r="AD20" s="1094"/>
-      <c r="AE20" s="1095"/>
-      <c r="AF20" s="1090"/>
-      <c r="AG20" s="1091"/>
-      <c r="AH20" s="1091"/>
-      <c r="AI20" s="1092"/>
+      <c r="B20" s="1120"/>
+      <c r="C20" s="1121"/>
+      <c r="D20" s="1122"/>
+      <c r="E20" s="1123"/>
+      <c r="F20" s="1124"/>
+      <c r="G20" s="1120"/>
+      <c r="H20" s="1125"/>
+      <c r="I20" s="1121"/>
+      <c r="J20" s="1126"/>
+      <c r="K20" s="1127"/>
+      <c r="L20" s="1127"/>
+      <c r="M20" s="1127"/>
+      <c r="N20" s="1127"/>
+      <c r="O20" s="1127"/>
+      <c r="P20" s="1128"/>
+      <c r="Q20" s="1129"/>
+      <c r="R20" s="1130"/>
+      <c r="S20" s="1130"/>
+      <c r="T20" s="1130"/>
+      <c r="U20" s="1130"/>
+      <c r="V20" s="1130"/>
+      <c r="W20" s="1130"/>
+      <c r="X20" s="1130"/>
+      <c r="Y20" s="1130"/>
+      <c r="Z20" s="1130"/>
+      <c r="AA20" s="1130"/>
+      <c r="AB20" s="1130"/>
+      <c r="AC20" s="1130"/>
+      <c r="AD20" s="1130"/>
+      <c r="AE20" s="1131"/>
+      <c r="AF20" s="1126"/>
+      <c r="AG20" s="1127"/>
+      <c r="AH20" s="1127"/>
+      <c r="AI20" s="1128"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="1084"/>
-      <c r="C21" s="1085"/>
-      <c r="D21" s="1086"/>
-      <c r="E21" s="1087"/>
-      <c r="F21" s="1088"/>
-      <c r="G21" s="1084"/>
-      <c r="H21" s="1089"/>
-      <c r="I21" s="1085"/>
-      <c r="J21" s="1090"/>
-      <c r="K21" s="1091"/>
-      <c r="L21" s="1091"/>
-      <c r="M21" s="1091"/>
-      <c r="N21" s="1091"/>
-      <c r="O21" s="1091"/>
-      <c r="P21" s="1092"/>
-      <c r="Q21" s="1093"/>
-      <c r="R21" s="1094"/>
-      <c r="S21" s="1094"/>
-      <c r="T21" s="1094"/>
-      <c r="U21" s="1094"/>
-      <c r="V21" s="1094"/>
-      <c r="W21" s="1094"/>
-      <c r="X21" s="1094"/>
-      <c r="Y21" s="1094"/>
-      <c r="Z21" s="1094"/>
-      <c r="AA21" s="1094"/>
-      <c r="AB21" s="1094"/>
-      <c r="AC21" s="1094"/>
-      <c r="AD21" s="1094"/>
-      <c r="AE21" s="1095"/>
-      <c r="AF21" s="1090"/>
-      <c r="AG21" s="1091"/>
-      <c r="AH21" s="1091"/>
-      <c r="AI21" s="1092"/>
+      <c r="B21" s="1120"/>
+      <c r="C21" s="1121"/>
+      <c r="D21" s="1122"/>
+      <c r="E21" s="1123"/>
+      <c r="F21" s="1124"/>
+      <c r="G21" s="1120"/>
+      <c r="H21" s="1125"/>
+      <c r="I21" s="1121"/>
+      <c r="J21" s="1126"/>
+      <c r="K21" s="1127"/>
+      <c r="L21" s="1127"/>
+      <c r="M21" s="1127"/>
+      <c r="N21" s="1127"/>
+      <c r="O21" s="1127"/>
+      <c r="P21" s="1128"/>
+      <c r="Q21" s="1129"/>
+      <c r="R21" s="1130"/>
+      <c r="S21" s="1130"/>
+      <c r="T21" s="1130"/>
+      <c r="U21" s="1130"/>
+      <c r="V21" s="1130"/>
+      <c r="W21" s="1130"/>
+      <c r="X21" s="1130"/>
+      <c r="Y21" s="1130"/>
+      <c r="Z21" s="1130"/>
+      <c r="AA21" s="1130"/>
+      <c r="AB21" s="1130"/>
+      <c r="AC21" s="1130"/>
+      <c r="AD21" s="1130"/>
+      <c r="AE21" s="1131"/>
+      <c r="AF21" s="1126"/>
+      <c r="AG21" s="1127"/>
+      <c r="AH21" s="1127"/>
+      <c r="AI21" s="1128"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="1084"/>
-      <c r="C22" s="1085"/>
-      <c r="D22" s="1086"/>
-      <c r="E22" s="1087"/>
-      <c r="F22" s="1088"/>
-      <c r="G22" s="1084"/>
-      <c r="H22" s="1089"/>
-      <c r="I22" s="1085"/>
-      <c r="J22" s="1090"/>
-      <c r="K22" s="1091"/>
-      <c r="L22" s="1091"/>
-      <c r="M22" s="1091"/>
-      <c r="N22" s="1091"/>
-      <c r="O22" s="1091"/>
-      <c r="P22" s="1092"/>
-      <c r="Q22" s="1093"/>
-      <c r="R22" s="1094"/>
-      <c r="S22" s="1094"/>
-      <c r="T22" s="1094"/>
-      <c r="U22" s="1094"/>
-      <c r="V22" s="1094"/>
-      <c r="W22" s="1094"/>
-      <c r="X22" s="1094"/>
-      <c r="Y22" s="1094"/>
-      <c r="Z22" s="1094"/>
-      <c r="AA22" s="1094"/>
-      <c r="AB22" s="1094"/>
-      <c r="AC22" s="1094"/>
-      <c r="AD22" s="1094"/>
-      <c r="AE22" s="1095"/>
-      <c r="AF22" s="1090"/>
-      <c r="AG22" s="1091"/>
-      <c r="AH22" s="1091"/>
-      <c r="AI22" s="1092"/>
+      <c r="B22" s="1120"/>
+      <c r="C22" s="1121"/>
+      <c r="D22" s="1122"/>
+      <c r="E22" s="1123"/>
+      <c r="F22" s="1124"/>
+      <c r="G22" s="1120"/>
+      <c r="H22" s="1125"/>
+      <c r="I22" s="1121"/>
+      <c r="J22" s="1126"/>
+      <c r="K22" s="1127"/>
+      <c r="L22" s="1127"/>
+      <c r="M22" s="1127"/>
+      <c r="N22" s="1127"/>
+      <c r="O22" s="1127"/>
+      <c r="P22" s="1128"/>
+      <c r="Q22" s="1129"/>
+      <c r="R22" s="1130"/>
+      <c r="S22" s="1130"/>
+      <c r="T22" s="1130"/>
+      <c r="U22" s="1130"/>
+      <c r="V22" s="1130"/>
+      <c r="W22" s="1130"/>
+      <c r="X22" s="1130"/>
+      <c r="Y22" s="1130"/>
+      <c r="Z22" s="1130"/>
+      <c r="AA22" s="1130"/>
+      <c r="AB22" s="1130"/>
+      <c r="AC22" s="1130"/>
+      <c r="AD22" s="1130"/>
+      <c r="AE22" s="1131"/>
+      <c r="AF22" s="1126"/>
+      <c r="AG22" s="1127"/>
+      <c r="AH22" s="1127"/>
+      <c r="AI22" s="1128"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="1084"/>
-      <c r="C23" s="1085"/>
-      <c r="D23" s="1086"/>
-      <c r="E23" s="1087"/>
-      <c r="F23" s="1088"/>
-      <c r="G23" s="1084"/>
-      <c r="H23" s="1089"/>
-      <c r="I23" s="1085"/>
-      <c r="J23" s="1090"/>
-      <c r="K23" s="1091"/>
-      <c r="L23" s="1091"/>
-      <c r="M23" s="1091"/>
-      <c r="N23" s="1091"/>
-      <c r="O23" s="1091"/>
-      <c r="P23" s="1092"/>
-      <c r="Q23" s="1093"/>
-      <c r="R23" s="1094"/>
-      <c r="S23" s="1094"/>
-      <c r="T23" s="1094"/>
-      <c r="U23" s="1094"/>
-      <c r="V23" s="1094"/>
-      <c r="W23" s="1094"/>
-      <c r="X23" s="1094"/>
-      <c r="Y23" s="1094"/>
-      <c r="Z23" s="1094"/>
-      <c r="AA23" s="1094"/>
-      <c r="AB23" s="1094"/>
-      <c r="AC23" s="1094"/>
-      <c r="AD23" s="1094"/>
-      <c r="AE23" s="1095"/>
-      <c r="AF23" s="1090"/>
-      <c r="AG23" s="1091"/>
-      <c r="AH23" s="1091"/>
-      <c r="AI23" s="1092"/>
+      <c r="B23" s="1120"/>
+      <c r="C23" s="1121"/>
+      <c r="D23" s="1122"/>
+      <c r="E23" s="1123"/>
+      <c r="F23" s="1124"/>
+      <c r="G23" s="1120"/>
+      <c r="H23" s="1125"/>
+      <c r="I23" s="1121"/>
+      <c r="J23" s="1126"/>
+      <c r="K23" s="1127"/>
+      <c r="L23" s="1127"/>
+      <c r="M23" s="1127"/>
+      <c r="N23" s="1127"/>
+      <c r="O23" s="1127"/>
+      <c r="P23" s="1128"/>
+      <c r="Q23" s="1129"/>
+      <c r="R23" s="1130"/>
+      <c r="S23" s="1130"/>
+      <c r="T23" s="1130"/>
+      <c r="U23" s="1130"/>
+      <c r="V23" s="1130"/>
+      <c r="W23" s="1130"/>
+      <c r="X23" s="1130"/>
+      <c r="Y23" s="1130"/>
+      <c r="Z23" s="1130"/>
+      <c r="AA23" s="1130"/>
+      <c r="AB23" s="1130"/>
+      <c r="AC23" s="1130"/>
+      <c r="AD23" s="1130"/>
+      <c r="AE23" s="1131"/>
+      <c r="AF23" s="1126"/>
+      <c r="AG23" s="1127"/>
+      <c r="AH23" s="1127"/>
+      <c r="AI23" s="1128"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="1084"/>
-      <c r="C24" s="1085"/>
-      <c r="D24" s="1086"/>
-      <c r="E24" s="1087"/>
-      <c r="F24" s="1088"/>
-      <c r="G24" s="1084"/>
-      <c r="H24" s="1089"/>
-      <c r="I24" s="1085"/>
-      <c r="J24" s="1090"/>
-      <c r="K24" s="1091"/>
-      <c r="L24" s="1091"/>
-      <c r="M24" s="1091"/>
-      <c r="N24" s="1091"/>
-      <c r="O24" s="1091"/>
-      <c r="P24" s="1092"/>
-      <c r="Q24" s="1093"/>
-      <c r="R24" s="1094"/>
-      <c r="S24" s="1094"/>
-      <c r="T24" s="1094"/>
-      <c r="U24" s="1094"/>
-      <c r="V24" s="1094"/>
-      <c r="W24" s="1094"/>
-      <c r="X24" s="1094"/>
-      <c r="Y24" s="1094"/>
-      <c r="Z24" s="1094"/>
-      <c r="AA24" s="1094"/>
-      <c r="AB24" s="1094"/>
-      <c r="AC24" s="1094"/>
-      <c r="AD24" s="1094"/>
-      <c r="AE24" s="1095"/>
-      <c r="AF24" s="1090"/>
-      <c r="AG24" s="1091"/>
-      <c r="AH24" s="1091"/>
-      <c r="AI24" s="1092"/>
+      <c r="B24" s="1120"/>
+      <c r="C24" s="1121"/>
+      <c r="D24" s="1122"/>
+      <c r="E24" s="1123"/>
+      <c r="F24" s="1124"/>
+      <c r="G24" s="1120"/>
+      <c r="H24" s="1125"/>
+      <c r="I24" s="1121"/>
+      <c r="J24" s="1126"/>
+      <c r="K24" s="1127"/>
+      <c r="L24" s="1127"/>
+      <c r="M24" s="1127"/>
+      <c r="N24" s="1127"/>
+      <c r="O24" s="1127"/>
+      <c r="P24" s="1128"/>
+      <c r="Q24" s="1129"/>
+      <c r="R24" s="1130"/>
+      <c r="S24" s="1130"/>
+      <c r="T24" s="1130"/>
+      <c r="U24" s="1130"/>
+      <c r="V24" s="1130"/>
+      <c r="W24" s="1130"/>
+      <c r="X24" s="1130"/>
+      <c r="Y24" s="1130"/>
+      <c r="Z24" s="1130"/>
+      <c r="AA24" s="1130"/>
+      <c r="AB24" s="1130"/>
+      <c r="AC24" s="1130"/>
+      <c r="AD24" s="1130"/>
+      <c r="AE24" s="1131"/>
+      <c r="AF24" s="1126"/>
+      <c r="AG24" s="1127"/>
+      <c r="AH24" s="1127"/>
+      <c r="AI24" s="1128"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="1084"/>
-      <c r="C25" s="1085"/>
-      <c r="D25" s="1086"/>
-      <c r="E25" s="1087"/>
-      <c r="F25" s="1088"/>
-      <c r="G25" s="1084"/>
-      <c r="H25" s="1089"/>
-      <c r="I25" s="1085"/>
-      <c r="J25" s="1090"/>
-      <c r="K25" s="1091"/>
-      <c r="L25" s="1091"/>
-      <c r="M25" s="1091"/>
-      <c r="N25" s="1091"/>
-      <c r="O25" s="1091"/>
-      <c r="P25" s="1092"/>
-      <c r="Q25" s="1093"/>
-      <c r="R25" s="1094"/>
-      <c r="S25" s="1094"/>
-      <c r="T25" s="1094"/>
-      <c r="U25" s="1094"/>
-      <c r="V25" s="1094"/>
-      <c r="W25" s="1094"/>
-      <c r="X25" s="1094"/>
-      <c r="Y25" s="1094"/>
-      <c r="Z25" s="1094"/>
-      <c r="AA25" s="1094"/>
-      <c r="AB25" s="1094"/>
-      <c r="AC25" s="1094"/>
-      <c r="AD25" s="1094"/>
-      <c r="AE25" s="1095"/>
-      <c r="AF25" s="1090"/>
-      <c r="AG25" s="1091"/>
-      <c r="AH25" s="1091"/>
-      <c r="AI25" s="1092"/>
+      <c r="B25" s="1120"/>
+      <c r="C25" s="1121"/>
+      <c r="D25" s="1122"/>
+      <c r="E25" s="1123"/>
+      <c r="F25" s="1124"/>
+      <c r="G25" s="1120"/>
+      <c r="H25" s="1125"/>
+      <c r="I25" s="1121"/>
+      <c r="J25" s="1126"/>
+      <c r="K25" s="1127"/>
+      <c r="L25" s="1127"/>
+      <c r="M25" s="1127"/>
+      <c r="N25" s="1127"/>
+      <c r="O25" s="1127"/>
+      <c r="P25" s="1128"/>
+      <c r="Q25" s="1129"/>
+      <c r="R25" s="1130"/>
+      <c r="S25" s="1130"/>
+      <c r="T25" s="1130"/>
+      <c r="U25" s="1130"/>
+      <c r="V25" s="1130"/>
+      <c r="W25" s="1130"/>
+      <c r="X25" s="1130"/>
+      <c r="Y25" s="1130"/>
+      <c r="Z25" s="1130"/>
+      <c r="AA25" s="1130"/>
+      <c r="AB25" s="1130"/>
+      <c r="AC25" s="1130"/>
+      <c r="AD25" s="1130"/>
+      <c r="AE25" s="1131"/>
+      <c r="AF25" s="1126"/>
+      <c r="AG25" s="1127"/>
+      <c r="AH25" s="1127"/>
+      <c r="AI25" s="1128"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="1084"/>
-      <c r="C26" s="1085"/>
-      <c r="D26" s="1086"/>
-      <c r="E26" s="1087"/>
-      <c r="F26" s="1088"/>
-      <c r="G26" s="1084"/>
-      <c r="H26" s="1089"/>
-      <c r="I26" s="1085"/>
-      <c r="J26" s="1090"/>
-      <c r="K26" s="1091"/>
-      <c r="L26" s="1091"/>
-      <c r="M26" s="1091"/>
-      <c r="N26" s="1091"/>
-      <c r="O26" s="1091"/>
-      <c r="P26" s="1092"/>
-      <c r="Q26" s="1093"/>
-      <c r="R26" s="1094"/>
-      <c r="S26" s="1094"/>
-      <c r="T26" s="1094"/>
-      <c r="U26" s="1094"/>
-      <c r="V26" s="1094"/>
-      <c r="W26" s="1094"/>
-      <c r="X26" s="1094"/>
-      <c r="Y26" s="1094"/>
-      <c r="Z26" s="1094"/>
-      <c r="AA26" s="1094"/>
-      <c r="AB26" s="1094"/>
-      <c r="AC26" s="1094"/>
-      <c r="AD26" s="1094"/>
-      <c r="AE26" s="1095"/>
-      <c r="AF26" s="1090"/>
-      <c r="AG26" s="1091"/>
-      <c r="AH26" s="1091"/>
-      <c r="AI26" s="1092"/>
+      <c r="B26" s="1120"/>
+      <c r="C26" s="1121"/>
+      <c r="D26" s="1122"/>
+      <c r="E26" s="1123"/>
+      <c r="F26" s="1124"/>
+      <c r="G26" s="1120"/>
+      <c r="H26" s="1125"/>
+      <c r="I26" s="1121"/>
+      <c r="J26" s="1126"/>
+      <c r="K26" s="1127"/>
+      <c r="L26" s="1127"/>
+      <c r="M26" s="1127"/>
+      <c r="N26" s="1127"/>
+      <c r="O26" s="1127"/>
+      <c r="P26" s="1128"/>
+      <c r="Q26" s="1129"/>
+      <c r="R26" s="1130"/>
+      <c r="S26" s="1130"/>
+      <c r="T26" s="1130"/>
+      <c r="U26" s="1130"/>
+      <c r="V26" s="1130"/>
+      <c r="W26" s="1130"/>
+      <c r="X26" s="1130"/>
+      <c r="Y26" s="1130"/>
+      <c r="Z26" s="1130"/>
+      <c r="AA26" s="1130"/>
+      <c r="AB26" s="1130"/>
+      <c r="AC26" s="1130"/>
+      <c r="AD26" s="1130"/>
+      <c r="AE26" s="1131"/>
+      <c r="AF26" s="1126"/>
+      <c r="AG26" s="1127"/>
+      <c r="AH26" s="1127"/>
+      <c r="AI26" s="1128"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="1084"/>
-      <c r="C27" s="1085"/>
-      <c r="D27" s="1086"/>
-      <c r="E27" s="1087"/>
-      <c r="F27" s="1088"/>
-      <c r="G27" s="1084"/>
-      <c r="H27" s="1089"/>
-      <c r="I27" s="1085"/>
-      <c r="J27" s="1090"/>
-      <c r="K27" s="1091"/>
-      <c r="L27" s="1091"/>
-      <c r="M27" s="1091"/>
-      <c r="N27" s="1091"/>
-      <c r="O27" s="1091"/>
-      <c r="P27" s="1092"/>
-      <c r="Q27" s="1093"/>
-      <c r="R27" s="1094"/>
-      <c r="S27" s="1094"/>
-      <c r="T27" s="1094"/>
-      <c r="U27" s="1094"/>
-      <c r="V27" s="1094"/>
-      <c r="W27" s="1094"/>
-      <c r="X27" s="1094"/>
-      <c r="Y27" s="1094"/>
-      <c r="Z27" s="1094"/>
-      <c r="AA27" s="1094"/>
-      <c r="AB27" s="1094"/>
-      <c r="AC27" s="1094"/>
-      <c r="AD27" s="1094"/>
-      <c r="AE27" s="1095"/>
-      <c r="AF27" s="1090"/>
-      <c r="AG27" s="1091"/>
-      <c r="AH27" s="1091"/>
-      <c r="AI27" s="1092"/>
+      <c r="B27" s="1120"/>
+      <c r="C27" s="1121"/>
+      <c r="D27" s="1122"/>
+      <c r="E27" s="1123"/>
+      <c r="F27" s="1124"/>
+      <c r="G27" s="1120"/>
+      <c r="H27" s="1125"/>
+      <c r="I27" s="1121"/>
+      <c r="J27" s="1126"/>
+      <c r="K27" s="1127"/>
+      <c r="L27" s="1127"/>
+      <c r="M27" s="1127"/>
+      <c r="N27" s="1127"/>
+      <c r="O27" s="1127"/>
+      <c r="P27" s="1128"/>
+      <c r="Q27" s="1129"/>
+      <c r="R27" s="1130"/>
+      <c r="S27" s="1130"/>
+      <c r="T27" s="1130"/>
+      <c r="U27" s="1130"/>
+      <c r="V27" s="1130"/>
+      <c r="W27" s="1130"/>
+      <c r="X27" s="1130"/>
+      <c r="Y27" s="1130"/>
+      <c r="Z27" s="1130"/>
+      <c r="AA27" s="1130"/>
+      <c r="AB27" s="1130"/>
+      <c r="AC27" s="1130"/>
+      <c r="AD27" s="1130"/>
+      <c r="AE27" s="1131"/>
+      <c r="AF27" s="1126"/>
+      <c r="AG27" s="1127"/>
+      <c r="AH27" s="1127"/>
+      <c r="AI27" s="1128"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="1084"/>
-      <c r="C28" s="1085"/>
-      <c r="D28" s="1086"/>
-      <c r="E28" s="1087"/>
-      <c r="F28" s="1088"/>
-      <c r="G28" s="1084"/>
-      <c r="H28" s="1089"/>
-      <c r="I28" s="1085"/>
-      <c r="J28" s="1090"/>
-      <c r="K28" s="1091"/>
-      <c r="L28" s="1091"/>
-      <c r="M28" s="1091"/>
-      <c r="N28" s="1091"/>
-      <c r="O28" s="1091"/>
-      <c r="P28" s="1092"/>
-      <c r="Q28" s="1093"/>
-      <c r="R28" s="1094"/>
-      <c r="S28" s="1094"/>
-      <c r="T28" s="1094"/>
-      <c r="U28" s="1094"/>
-      <c r="V28" s="1094"/>
-      <c r="W28" s="1094"/>
-      <c r="X28" s="1094"/>
-      <c r="Y28" s="1094"/>
-      <c r="Z28" s="1094"/>
-      <c r="AA28" s="1094"/>
-      <c r="AB28" s="1094"/>
-      <c r="AC28" s="1094"/>
-      <c r="AD28" s="1094"/>
-      <c r="AE28" s="1095"/>
-      <c r="AF28" s="1090"/>
-      <c r="AG28" s="1091"/>
-      <c r="AH28" s="1091"/>
-      <c r="AI28" s="1092"/>
+      <c r="B28" s="1120"/>
+      <c r="C28" s="1121"/>
+      <c r="D28" s="1122"/>
+      <c r="E28" s="1123"/>
+      <c r="F28" s="1124"/>
+      <c r="G28" s="1120"/>
+      <c r="H28" s="1125"/>
+      <c r="I28" s="1121"/>
+      <c r="J28" s="1126"/>
+      <c r="K28" s="1127"/>
+      <c r="L28" s="1127"/>
+      <c r="M28" s="1127"/>
+      <c r="N28" s="1127"/>
+      <c r="O28" s="1127"/>
+      <c r="P28" s="1128"/>
+      <c r="Q28" s="1129"/>
+      <c r="R28" s="1130"/>
+      <c r="S28" s="1130"/>
+      <c r="T28" s="1130"/>
+      <c r="U28" s="1130"/>
+      <c r="V28" s="1130"/>
+      <c r="W28" s="1130"/>
+      <c r="X28" s="1130"/>
+      <c r="Y28" s="1130"/>
+      <c r="Z28" s="1130"/>
+      <c r="AA28" s="1130"/>
+      <c r="AB28" s="1130"/>
+      <c r="AC28" s="1130"/>
+      <c r="AD28" s="1130"/>
+      <c r="AE28" s="1131"/>
+      <c r="AF28" s="1126"/>
+      <c r="AG28" s="1127"/>
+      <c r="AH28" s="1127"/>
+      <c r="AI28" s="1128"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="1084"/>
-      <c r="C29" s="1085"/>
-      <c r="D29" s="1086"/>
-      <c r="E29" s="1087"/>
-      <c r="F29" s="1088"/>
-      <c r="G29" s="1084"/>
-      <c r="H29" s="1089"/>
-      <c r="I29" s="1085"/>
-      <c r="J29" s="1090"/>
-      <c r="K29" s="1091"/>
-      <c r="L29" s="1091"/>
-      <c r="M29" s="1091"/>
-      <c r="N29" s="1091"/>
-      <c r="O29" s="1091"/>
-      <c r="P29" s="1092"/>
-      <c r="Q29" s="1093"/>
-      <c r="R29" s="1094"/>
-      <c r="S29" s="1094"/>
-      <c r="T29" s="1094"/>
-      <c r="U29" s="1094"/>
-      <c r="V29" s="1094"/>
-      <c r="W29" s="1094"/>
-      <c r="X29" s="1094"/>
-      <c r="Y29" s="1094"/>
-      <c r="Z29" s="1094"/>
-      <c r="AA29" s="1094"/>
-      <c r="AB29" s="1094"/>
-      <c r="AC29" s="1094"/>
-      <c r="AD29" s="1094"/>
-      <c r="AE29" s="1095"/>
-      <c r="AF29" s="1090"/>
-      <c r="AG29" s="1091"/>
-      <c r="AH29" s="1091"/>
-      <c r="AI29" s="1092"/>
+      <c r="B29" s="1120"/>
+      <c r="C29" s="1121"/>
+      <c r="D29" s="1122"/>
+      <c r="E29" s="1123"/>
+      <c r="F29" s="1124"/>
+      <c r="G29" s="1120"/>
+      <c r="H29" s="1125"/>
+      <c r="I29" s="1121"/>
+      <c r="J29" s="1126"/>
+      <c r="K29" s="1127"/>
+      <c r="L29" s="1127"/>
+      <c r="M29" s="1127"/>
+      <c r="N29" s="1127"/>
+      <c r="O29" s="1127"/>
+      <c r="P29" s="1128"/>
+      <c r="Q29" s="1129"/>
+      <c r="R29" s="1130"/>
+      <c r="S29" s="1130"/>
+      <c r="T29" s="1130"/>
+      <c r="U29" s="1130"/>
+      <c r="V29" s="1130"/>
+      <c r="W29" s="1130"/>
+      <c r="X29" s="1130"/>
+      <c r="Y29" s="1130"/>
+      <c r="Z29" s="1130"/>
+      <c r="AA29" s="1130"/>
+      <c r="AB29" s="1130"/>
+      <c r="AC29" s="1130"/>
+      <c r="AD29" s="1130"/>
+      <c r="AE29" s="1131"/>
+      <c r="AF29" s="1126"/>
+      <c r="AG29" s="1127"/>
+      <c r="AH29" s="1127"/>
+      <c r="AI29" s="1128"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="1084"/>
-      <c r="C30" s="1085"/>
-      <c r="D30" s="1086"/>
-      <c r="E30" s="1087"/>
-      <c r="F30" s="1088"/>
-      <c r="G30" s="1084"/>
-      <c r="H30" s="1089"/>
-      <c r="I30" s="1085"/>
-      <c r="J30" s="1090"/>
-      <c r="K30" s="1091"/>
-      <c r="L30" s="1091"/>
-      <c r="M30" s="1091"/>
-      <c r="N30" s="1091"/>
-      <c r="O30" s="1091"/>
-      <c r="P30" s="1092"/>
-      <c r="Q30" s="1093"/>
-      <c r="R30" s="1094"/>
-      <c r="S30" s="1094"/>
-      <c r="T30" s="1094"/>
-      <c r="U30" s="1094"/>
-      <c r="V30" s="1094"/>
-      <c r="W30" s="1094"/>
-      <c r="X30" s="1094"/>
-      <c r="Y30" s="1094"/>
-      <c r="Z30" s="1094"/>
-      <c r="AA30" s="1094"/>
-      <c r="AB30" s="1094"/>
-      <c r="AC30" s="1094"/>
-      <c r="AD30" s="1094"/>
-      <c r="AE30" s="1095"/>
-      <c r="AF30" s="1090"/>
-      <c r="AG30" s="1091"/>
-      <c r="AH30" s="1091"/>
-      <c r="AI30" s="1092"/>
+      <c r="B30" s="1120"/>
+      <c r="C30" s="1121"/>
+      <c r="D30" s="1122"/>
+      <c r="E30" s="1123"/>
+      <c r="F30" s="1124"/>
+      <c r="G30" s="1120"/>
+      <c r="H30" s="1125"/>
+      <c r="I30" s="1121"/>
+      <c r="J30" s="1126"/>
+      <c r="K30" s="1127"/>
+      <c r="L30" s="1127"/>
+      <c r="M30" s="1127"/>
+      <c r="N30" s="1127"/>
+      <c r="O30" s="1127"/>
+      <c r="P30" s="1128"/>
+      <c r="Q30" s="1129"/>
+      <c r="R30" s="1130"/>
+      <c r="S30" s="1130"/>
+      <c r="T30" s="1130"/>
+      <c r="U30" s="1130"/>
+      <c r="V30" s="1130"/>
+      <c r="W30" s="1130"/>
+      <c r="X30" s="1130"/>
+      <c r="Y30" s="1130"/>
+      <c r="Z30" s="1130"/>
+      <c r="AA30" s="1130"/>
+      <c r="AB30" s="1130"/>
+      <c r="AC30" s="1130"/>
+      <c r="AD30" s="1130"/>
+      <c r="AE30" s="1131"/>
+      <c r="AF30" s="1126"/>
+      <c r="AG30" s="1127"/>
+      <c r="AH30" s="1127"/>
+      <c r="AI30" s="1128"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="1084"/>
-      <c r="C31" s="1085"/>
-      <c r="D31" s="1086"/>
-      <c r="E31" s="1087"/>
-      <c r="F31" s="1088"/>
-      <c r="G31" s="1084"/>
-      <c r="H31" s="1089"/>
-      <c r="I31" s="1085"/>
-      <c r="J31" s="1090"/>
-      <c r="K31" s="1091"/>
-      <c r="L31" s="1091"/>
-      <c r="M31" s="1091"/>
-      <c r="N31" s="1091"/>
-      <c r="O31" s="1091"/>
-      <c r="P31" s="1092"/>
-      <c r="Q31" s="1093"/>
-      <c r="R31" s="1094"/>
-      <c r="S31" s="1094"/>
-      <c r="T31" s="1094"/>
-      <c r="U31" s="1094"/>
-      <c r="V31" s="1094"/>
-      <c r="W31" s="1094"/>
-      <c r="X31" s="1094"/>
-      <c r="Y31" s="1094"/>
-      <c r="Z31" s="1094"/>
-      <c r="AA31" s="1094"/>
-      <c r="AB31" s="1094"/>
-      <c r="AC31" s="1094"/>
-      <c r="AD31" s="1094"/>
-      <c r="AE31" s="1095"/>
-      <c r="AF31" s="1090"/>
-      <c r="AG31" s="1091"/>
-      <c r="AH31" s="1091"/>
-      <c r="AI31" s="1092"/>
+      <c r="B31" s="1120"/>
+      <c r="C31" s="1121"/>
+      <c r="D31" s="1122"/>
+      <c r="E31" s="1123"/>
+      <c r="F31" s="1124"/>
+      <c r="G31" s="1120"/>
+      <c r="H31" s="1125"/>
+      <c r="I31" s="1121"/>
+      <c r="J31" s="1126"/>
+      <c r="K31" s="1127"/>
+      <c r="L31" s="1127"/>
+      <c r="M31" s="1127"/>
+      <c r="N31" s="1127"/>
+      <c r="O31" s="1127"/>
+      <c r="P31" s="1128"/>
+      <c r="Q31" s="1129"/>
+      <c r="R31" s="1130"/>
+      <c r="S31" s="1130"/>
+      <c r="T31" s="1130"/>
+      <c r="U31" s="1130"/>
+      <c r="V31" s="1130"/>
+      <c r="W31" s="1130"/>
+      <c r="X31" s="1130"/>
+      <c r="Y31" s="1130"/>
+      <c r="Z31" s="1130"/>
+      <c r="AA31" s="1130"/>
+      <c r="AB31" s="1130"/>
+      <c r="AC31" s="1130"/>
+      <c r="AD31" s="1130"/>
+      <c r="AE31" s="1131"/>
+      <c r="AF31" s="1126"/>
+      <c r="AG31" s="1127"/>
+      <c r="AH31" s="1127"/>
+      <c r="AI31" s="1128"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="1084"/>
-      <c r="C32" s="1085"/>
-      <c r="D32" s="1086"/>
-      <c r="E32" s="1087"/>
-      <c r="F32" s="1088"/>
-      <c r="G32" s="1084"/>
-      <c r="H32" s="1089"/>
-      <c r="I32" s="1085"/>
-      <c r="J32" s="1090"/>
-      <c r="K32" s="1096"/>
-      <c r="L32" s="1091"/>
-      <c r="M32" s="1091"/>
-      <c r="N32" s="1091"/>
-      <c r="O32" s="1091"/>
-      <c r="P32" s="1092"/>
-      <c r="Q32" s="1093"/>
-      <c r="R32" s="1094"/>
-      <c r="S32" s="1094"/>
-      <c r="T32" s="1094"/>
-      <c r="U32" s="1094"/>
-      <c r="V32" s="1094"/>
-      <c r="W32" s="1094"/>
-      <c r="X32" s="1094"/>
-      <c r="Y32" s="1094"/>
-      <c r="Z32" s="1094"/>
-      <c r="AA32" s="1094"/>
-      <c r="AB32" s="1094"/>
-      <c r="AC32" s="1094"/>
-      <c r="AD32" s="1094"/>
-      <c r="AE32" s="1095"/>
-      <c r="AF32" s="1090"/>
-      <c r="AG32" s="1091"/>
-      <c r="AH32" s="1091"/>
-      <c r="AI32" s="1092"/>
+      <c r="B32" s="1120"/>
+      <c r="C32" s="1121"/>
+      <c r="D32" s="1122"/>
+      <c r="E32" s="1123"/>
+      <c r="F32" s="1124"/>
+      <c r="G32" s="1120"/>
+      <c r="H32" s="1125"/>
+      <c r="I32" s="1121"/>
+      <c r="J32" s="1126"/>
+      <c r="K32" s="1145"/>
+      <c r="L32" s="1127"/>
+      <c r="M32" s="1127"/>
+      <c r="N32" s="1127"/>
+      <c r="O32" s="1127"/>
+      <c r="P32" s="1128"/>
+      <c r="Q32" s="1129"/>
+      <c r="R32" s="1130"/>
+      <c r="S32" s="1130"/>
+      <c r="T32" s="1130"/>
+      <c r="U32" s="1130"/>
+      <c r="V32" s="1130"/>
+      <c r="W32" s="1130"/>
+      <c r="X32" s="1130"/>
+      <c r="Y32" s="1130"/>
+      <c r="Z32" s="1130"/>
+      <c r="AA32" s="1130"/>
+      <c r="AB32" s="1130"/>
+      <c r="AC32" s="1130"/>
+      <c r="AD32" s="1130"/>
+      <c r="AE32" s="1131"/>
+      <c r="AF32" s="1126"/>
+      <c r="AG32" s="1127"/>
+      <c r="AH32" s="1127"/>
+      <c r="AI32" s="1128"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="1084"/>
-      <c r="C33" s="1085"/>
-      <c r="D33" s="1086"/>
-      <c r="E33" s="1087"/>
-      <c r="F33" s="1088"/>
-      <c r="G33" s="1084"/>
-      <c r="H33" s="1089"/>
-      <c r="I33" s="1085"/>
-      <c r="J33" s="1090"/>
-      <c r="K33" s="1091"/>
-      <c r="L33" s="1091"/>
-      <c r="M33" s="1091"/>
-      <c r="N33" s="1091"/>
-      <c r="O33" s="1091"/>
-      <c r="P33" s="1092"/>
-      <c r="Q33" s="1093"/>
-      <c r="R33" s="1094"/>
-      <c r="S33" s="1094"/>
-      <c r="T33" s="1094"/>
-      <c r="U33" s="1094"/>
-      <c r="V33" s="1094"/>
-      <c r="W33" s="1094"/>
-      <c r="X33" s="1094"/>
-      <c r="Y33" s="1094"/>
-      <c r="Z33" s="1094"/>
-      <c r="AA33" s="1094"/>
-      <c r="AB33" s="1094"/>
-      <c r="AC33" s="1094"/>
-      <c r="AD33" s="1094"/>
-      <c r="AE33" s="1095"/>
-      <c r="AF33" s="1090"/>
-      <c r="AG33" s="1091"/>
-      <c r="AH33" s="1091"/>
-      <c r="AI33" s="1092"/>
+      <c r="B33" s="1120"/>
+      <c r="C33" s="1121"/>
+      <c r="D33" s="1122"/>
+      <c r="E33" s="1123"/>
+      <c r="F33" s="1124"/>
+      <c r="G33" s="1120"/>
+      <c r="H33" s="1125"/>
+      <c r="I33" s="1121"/>
+      <c r="J33" s="1126"/>
+      <c r="K33" s="1127"/>
+      <c r="L33" s="1127"/>
+      <c r="M33" s="1127"/>
+      <c r="N33" s="1127"/>
+      <c r="O33" s="1127"/>
+      <c r="P33" s="1128"/>
+      <c r="Q33" s="1129"/>
+      <c r="R33" s="1130"/>
+      <c r="S33" s="1130"/>
+      <c r="T33" s="1130"/>
+      <c r="U33" s="1130"/>
+      <c r="V33" s="1130"/>
+      <c r="W33" s="1130"/>
+      <c r="X33" s="1130"/>
+      <c r="Y33" s="1130"/>
+      <c r="Z33" s="1130"/>
+      <c r="AA33" s="1130"/>
+      <c r="AB33" s="1130"/>
+      <c r="AC33" s="1130"/>
+      <c r="AD33" s="1130"/>
+      <c r="AE33" s="1131"/>
+      <c r="AF33" s="1126"/>
+      <c r="AG33" s="1127"/>
+      <c r="AH33" s="1127"/>
+      <c r="AI33" s="1128"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12763,162 +12921,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05709F03-B4E8-45A2-9E09-ECCD9EC5C9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB83C95-BC1E-4737-84FD-70C99935A036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="6195" windowWidth="27240" windowHeight="8370" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="865" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -32,17 +32,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Confirmation of project display'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1267,9 +1257,6 @@
     <t>Because it is a fixed display only.</t>
   </si>
   <si>
-    <t>Screen transition pattern (*1)</t>
-  </si>
-  <si>
     <t>Search results: 0 items</t>
   </si>
   <si>
@@ -1695,6 +1682,10 @@
   </si>
   <si>
     <t>Same as above</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen transition pattern</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10509,9 +10500,642 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="320" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="321" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="322" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="323" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="324" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="324" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="324" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="325" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="326" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="327" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="327" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="327" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="328" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="329" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="330" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="330" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="330" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="331" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="332" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="333" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="333" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="334" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="334" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="335" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="336" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="337" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="328" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="338" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="339" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="331" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="340" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="341" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="342" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="343" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="344" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="345" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="345" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="346" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="347" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="348" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="349" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="349" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="350" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="351" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="352" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="353" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="353" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="354" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="355" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="356" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="358" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="359" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="360" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="361" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="362" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="363" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="357" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="364" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="365" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="366" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="366" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="366" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="367" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="368" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="369" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="369" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="369" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="370" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="371" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="372" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="372" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="372" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="373" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="374" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="375" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="375" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="376" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="376" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="377" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="378" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="379" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="370" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="380" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="381" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="373" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="382" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="383" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="384" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="385" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="386" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="387" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="387" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="388" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="389" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="390" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="391" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="391" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="392" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="393" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="394" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="395" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="395" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="396" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="397" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="398" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="400" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="399" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="401" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="402" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="403" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="403" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="403" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="404" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="405" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="406" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="406" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="406" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="407" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="408" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="409" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="409" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="409" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="410" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="411" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="412" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="412" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="413" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="413" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="414" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="415" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="416" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="407" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="417" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="418" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="410" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="419" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="420" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="421" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="422" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="423" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="424" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="424" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="425" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="426" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="427" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="428" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="428" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="429" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="430" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="431" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="432" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="432" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="433" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="434" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="435" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="437" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="287" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="438" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="439" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="440" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="441" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -10620,644 +11244,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="320" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="321" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="322" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="323" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="324" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="324" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="324" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="325" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="326" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="327" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="327" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="327" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="328" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="329" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="330" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="330" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="330" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="331" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="332" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="333" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="333" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="334" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="334" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="335" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="336" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="337" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="328" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="338" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="339" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="331" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="340" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="341" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="342" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="343" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="344" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="345" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="345" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="346" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="347" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="348" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="349" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="349" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="350" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="351" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="352" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="353" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="353" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="354" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="355" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="356" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="358" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="359" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="360" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="361" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="362" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="357" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="363" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="357" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="364" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="365" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="366" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="366" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="366" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="367" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="368" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="369" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="369" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="369" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="370" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="371" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="372" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="372" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="372" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="373" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="374" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="375" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="375" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="376" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="376" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="377" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="378" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="379" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="370" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="380" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="381" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="373" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="382" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="383" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="384" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="385" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="386" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="387" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="387" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="388" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="389" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="390" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="391" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="391" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="392" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="393" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="394" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="395" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="395" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="396" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="397" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="398" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="399" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="400" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="399" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="401" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="402" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="403" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="403" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="403" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="404" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="405" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="406" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="406" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="406" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="407" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="408" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="409" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="409" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="409" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="410" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="411" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="412" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="412" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="413" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="413" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="414" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="415" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="416" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="407" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="417" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="418" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="410" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="419" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="420" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="421" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="422" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="423" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="424" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="424" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="425" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="426" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="427" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="428" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="428" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="429" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="430" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="431" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="432" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="432" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="433" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="434" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="435" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="436" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="437" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="287" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="438" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="439" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="440" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="441" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -12122,12 +12113,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="946">
+      <c r="I25" s="1131">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43657</v>
       </c>
-      <c r="J25" s="946"/>
-      <c r="K25" s="946"/>
+      <c r="J25" s="1131"/>
+      <c r="K25" s="1131"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -12682,57 +12673,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="953" t="s">
+      <c r="A1" s="1164" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="954"/>
-      <c r="C1" s="954"/>
-      <c r="D1" s="955"/>
-      <c r="E1" s="956" t="s">
+      <c r="B1" s="1165"/>
+      <c r="C1" s="1165"/>
+      <c r="D1" s="1166"/>
+      <c r="E1" s="1167" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="957"/>
-      <c r="G1" s="957"/>
-      <c r="H1" s="957"/>
-      <c r="I1" s="957"/>
-      <c r="J1" s="957"/>
-      <c r="K1" s="957"/>
-      <c r="L1" s="957"/>
-      <c r="M1" s="957"/>
-      <c r="N1" s="958"/>
-      <c r="O1" s="962" t="s">
+      <c r="F1" s="1168"/>
+      <c r="G1" s="1168"/>
+      <c r="H1" s="1168"/>
+      <c r="I1" s="1168"/>
+      <c r="J1" s="1168"/>
+      <c r="K1" s="1168"/>
+      <c r="L1" s="1168"/>
+      <c r="M1" s="1168"/>
+      <c r="N1" s="1169"/>
+      <c r="O1" s="1173" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="963"/>
-      <c r="Q1" s="963"/>
-      <c r="R1" s="964"/>
-      <c r="S1" s="971" t="s">
+      <c r="P1" s="1174"/>
+      <c r="Q1" s="1174"/>
+      <c r="R1" s="1175"/>
+      <c r="S1" s="1182" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="972"/>
-      <c r="U1" s="972"/>
-      <c r="V1" s="972"/>
-      <c r="W1" s="972"/>
-      <c r="X1" s="972"/>
-      <c r="Y1" s="972"/>
-      <c r="Z1" s="973"/>
-      <c r="AA1" s="953" t="s">
+      <c r="T1" s="1183"/>
+      <c r="U1" s="1183"/>
+      <c r="V1" s="1183"/>
+      <c r="W1" s="1183"/>
+      <c r="X1" s="1183"/>
+      <c r="Y1" s="1183"/>
+      <c r="Z1" s="1184"/>
+      <c r="AA1" s="1164" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="955"/>
-      <c r="AC1" s="980" t="str">
+      <c r="AB1" s="1166"/>
+      <c r="AC1" s="1191" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="981"/>
-      <c r="AE1" s="981"/>
-      <c r="AF1" s="982"/>
-      <c r="AG1" s="947">
+      <c r="AD1" s="1192"/>
+      <c r="AE1" s="1192"/>
+      <c r="AF1" s="1193"/>
+      <c r="AG1" s="1158">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="948"/>
-      <c r="AI1" s="949"/>
+      <c r="AH1" s="1159"/>
+      <c r="AI1" s="1160"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -12740,53 +12731,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="953" t="s">
+      <c r="A2" s="1164" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="954"/>
-      <c r="C2" s="954"/>
-      <c r="D2" s="955"/>
-      <c r="E2" s="956" t="s">
+      <c r="B2" s="1165"/>
+      <c r="C2" s="1165"/>
+      <c r="D2" s="1166"/>
+      <c r="E2" s="1167" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="957"/>
-      <c r="G2" s="957"/>
-      <c r="H2" s="957"/>
-      <c r="I2" s="957"/>
-      <c r="J2" s="957"/>
-      <c r="K2" s="957"/>
-      <c r="L2" s="957"/>
-      <c r="M2" s="957"/>
-      <c r="N2" s="958"/>
-      <c r="O2" s="965"/>
-      <c r="P2" s="966"/>
-      <c r="Q2" s="966"/>
-      <c r="R2" s="967"/>
-      <c r="S2" s="974"/>
-      <c r="T2" s="975"/>
-      <c r="U2" s="975"/>
-      <c r="V2" s="975"/>
-      <c r="W2" s="975"/>
-      <c r="X2" s="975"/>
-      <c r="Y2" s="975"/>
-      <c r="Z2" s="976"/>
-      <c r="AA2" s="953" t="s">
+      <c r="F2" s="1168"/>
+      <c r="G2" s="1168"/>
+      <c r="H2" s="1168"/>
+      <c r="I2" s="1168"/>
+      <c r="J2" s="1168"/>
+      <c r="K2" s="1168"/>
+      <c r="L2" s="1168"/>
+      <c r="M2" s="1168"/>
+      <c r="N2" s="1169"/>
+      <c r="O2" s="1176"/>
+      <c r="P2" s="1177"/>
+      <c r="Q2" s="1177"/>
+      <c r="R2" s="1178"/>
+      <c r="S2" s="1185"/>
+      <c r="T2" s="1186"/>
+      <c r="U2" s="1186"/>
+      <c r="V2" s="1186"/>
+      <c r="W2" s="1186"/>
+      <c r="X2" s="1186"/>
+      <c r="Y2" s="1186"/>
+      <c r="Z2" s="1187"/>
+      <c r="AA2" s="1164" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="955"/>
-      <c r="AC2" s="959" t="str">
+      <c r="AB2" s="1166"/>
+      <c r="AC2" s="1170" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="960"/>
-      <c r="AE2" s="960"/>
-      <c r="AF2" s="961"/>
-      <c r="AG2" s="947" t="str">
+      <c r="AD2" s="1171"/>
+      <c r="AE2" s="1171"/>
+      <c r="AF2" s="1172"/>
+      <c r="AG2" s="1158" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="948"/>
-      <c r="AI2" s="949"/>
+      <c r="AH2" s="1159"/>
+      <c r="AI2" s="1160"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -12794,45 +12785,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="953" t="s">
+      <c r="A3" s="1164" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="954"/>
-      <c r="C3" s="954"/>
-      <c r="D3" s="955"/>
-      <c r="E3" s="956" t="s">
+      <c r="B3" s="1165"/>
+      <c r="C3" s="1165"/>
+      <c r="D3" s="1166"/>
+      <c r="E3" s="1167" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="957"/>
-      <c r="G3" s="957"/>
-      <c r="H3" s="957"/>
-      <c r="I3" s="957"/>
-      <c r="J3" s="957"/>
-      <c r="K3" s="957"/>
-      <c r="L3" s="957"/>
-      <c r="M3" s="957"/>
-      <c r="N3" s="958"/>
-      <c r="O3" s="968"/>
-      <c r="P3" s="969"/>
-      <c r="Q3" s="969"/>
-      <c r="R3" s="970"/>
-      <c r="S3" s="977"/>
-      <c r="T3" s="978"/>
-      <c r="U3" s="978"/>
-      <c r="V3" s="978"/>
-      <c r="W3" s="978"/>
-      <c r="X3" s="978"/>
-      <c r="Y3" s="978"/>
-      <c r="Z3" s="979"/>
-      <c r="AA3" s="953"/>
-      <c r="AB3" s="955"/>
-      <c r="AC3" s="980"/>
-      <c r="AD3" s="981"/>
-      <c r="AE3" s="981"/>
-      <c r="AF3" s="982"/>
-      <c r="AG3" s="947"/>
-      <c r="AH3" s="948"/>
-      <c r="AI3" s="949"/>
+      <c r="F3" s="1168"/>
+      <c r="G3" s="1168"/>
+      <c r="H3" s="1168"/>
+      <c r="I3" s="1168"/>
+      <c r="J3" s="1168"/>
+      <c r="K3" s="1168"/>
+      <c r="L3" s="1168"/>
+      <c r="M3" s="1168"/>
+      <c r="N3" s="1169"/>
+      <c r="O3" s="1179"/>
+      <c r="P3" s="1180"/>
+      <c r="Q3" s="1180"/>
+      <c r="R3" s="1181"/>
+      <c r="S3" s="1188"/>
+      <c r="T3" s="1189"/>
+      <c r="U3" s="1189"/>
+      <c r="V3" s="1189"/>
+      <c r="W3" s="1189"/>
+      <c r="X3" s="1189"/>
+      <c r="Y3" s="1189"/>
+      <c r="Z3" s="1190"/>
+      <c r="AA3" s="1164"/>
+      <c r="AB3" s="1166"/>
+      <c r="AC3" s="1191"/>
+      <c r="AD3" s="1192"/>
+      <c r="AE3" s="1192"/>
+      <c r="AF3" s="1193"/>
+      <c r="AG3" s="1158"/>
+      <c r="AH3" s="1159"/>
+      <c r="AI3" s="1160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -12869,1190 +12860,1034 @@
       <c r="A7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="950" t="s">
+      <c r="B7" s="1161" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="951"/>
-      <c r="D7" s="950" t="s">
+      <c r="C7" s="1162"/>
+      <c r="D7" s="1161" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="952"/>
-      <c r="F7" s="951"/>
-      <c r="G7" s="950" t="s">
+      <c r="E7" s="1163"/>
+      <c r="F7" s="1162"/>
+      <c r="G7" s="1161" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="952"/>
-      <c r="I7" s="951"/>
-      <c r="J7" s="950" t="s">
+      <c r="H7" s="1163"/>
+      <c r="I7" s="1162"/>
+      <c r="J7" s="1161" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="952"/>
-      <c r="L7" s="952"/>
-      <c r="M7" s="952"/>
-      <c r="N7" s="952"/>
-      <c r="O7" s="952"/>
-      <c r="P7" s="951"/>
-      <c r="Q7" s="950" t="s">
+      <c r="K7" s="1163"/>
+      <c r="L7" s="1163"/>
+      <c r="M7" s="1163"/>
+      <c r="N7" s="1163"/>
+      <c r="O7" s="1163"/>
+      <c r="P7" s="1162"/>
+      <c r="Q7" s="1161" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="952"/>
-      <c r="S7" s="952"/>
-      <c r="T7" s="952"/>
-      <c r="U7" s="952"/>
-      <c r="V7" s="952"/>
-      <c r="W7" s="952"/>
-      <c r="X7" s="952"/>
-      <c r="Y7" s="952"/>
-      <c r="Z7" s="952"/>
-      <c r="AA7" s="952"/>
-      <c r="AB7" s="952"/>
-      <c r="AC7" s="952"/>
-      <c r="AD7" s="952"/>
-      <c r="AE7" s="951"/>
-      <c r="AF7" s="950" t="s">
+      <c r="R7" s="1163"/>
+      <c r="S7" s="1163"/>
+      <c r="T7" s="1163"/>
+      <c r="U7" s="1163"/>
+      <c r="V7" s="1163"/>
+      <c r="W7" s="1163"/>
+      <c r="X7" s="1163"/>
+      <c r="Y7" s="1163"/>
+      <c r="Z7" s="1163"/>
+      <c r="AA7" s="1163"/>
+      <c r="AB7" s="1163"/>
+      <c r="AC7" s="1163"/>
+      <c r="AD7" s="1163"/>
+      <c r="AE7" s="1162"/>
+      <c r="AF7" s="1161" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="952"/>
-      <c r="AH7" s="952"/>
-      <c r="AI7" s="951"/>
+      <c r="AG7" s="1163"/>
+      <c r="AH7" s="1163"/>
+      <c r="AI7" s="1162"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="995" t="s">
+      <c r="B8" s="1145" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="996"/>
-      <c r="D8" s="997">
+      <c r="C8" s="1146"/>
+      <c r="D8" s="1147">
         <v>43657</v>
       </c>
-      <c r="E8" s="998"/>
-      <c r="F8" s="999"/>
-      <c r="G8" s="1000" t="s">
+      <c r="E8" s="1148"/>
+      <c r="F8" s="1149"/>
+      <c r="G8" s="1150" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="1001"/>
-      <c r="I8" s="996"/>
-      <c r="J8" s="1002" t="s">
+      <c r="H8" s="1151"/>
+      <c r="I8" s="1146"/>
+      <c r="J8" s="1152" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="1003"/>
-      <c r="L8" s="1003"/>
-      <c r="M8" s="1003"/>
-      <c r="N8" s="1003"/>
-      <c r="O8" s="1003"/>
-      <c r="P8" s="1004"/>
-      <c r="Q8" s="1005" t="s">
+      <c r="K8" s="1153"/>
+      <c r="L8" s="1153"/>
+      <c r="M8" s="1153"/>
+      <c r="N8" s="1153"/>
+      <c r="O8" s="1153"/>
+      <c r="P8" s="1154"/>
+      <c r="Q8" s="1155" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="1006"/>
-      <c r="S8" s="1006"/>
-      <c r="T8" s="1006"/>
-      <c r="U8" s="1006"/>
-      <c r="V8" s="1006"/>
-      <c r="W8" s="1006"/>
-      <c r="X8" s="1006"/>
-      <c r="Y8" s="1006"/>
-      <c r="Z8" s="1006"/>
-      <c r="AA8" s="1006"/>
-      <c r="AB8" s="1006"/>
-      <c r="AC8" s="1006"/>
-      <c r="AD8" s="1006"/>
-      <c r="AE8" s="1007"/>
-      <c r="AF8" s="1002" t="s">
+      <c r="R8" s="1156"/>
+      <c r="S8" s="1156"/>
+      <c r="T8" s="1156"/>
+      <c r="U8" s="1156"/>
+      <c r="V8" s="1156"/>
+      <c r="W8" s="1156"/>
+      <c r="X8" s="1156"/>
+      <c r="Y8" s="1156"/>
+      <c r="Z8" s="1156"/>
+      <c r="AA8" s="1156"/>
+      <c r="AB8" s="1156"/>
+      <c r="AC8" s="1156"/>
+      <c r="AD8" s="1156"/>
+      <c r="AE8" s="1157"/>
+      <c r="AF8" s="1152" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="1003"/>
-      <c r="AH8" s="1003"/>
-      <c r="AI8" s="1004"/>
+      <c r="AG8" s="1153"/>
+      <c r="AH8" s="1153"/>
+      <c r="AI8" s="1154"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="983"/>
-      <c r="C9" s="984"/>
-      <c r="D9" s="985"/>
-      <c r="E9" s="986"/>
-      <c r="F9" s="987"/>
-      <c r="G9" s="985"/>
-      <c r="H9" s="988"/>
-      <c r="I9" s="984"/>
-      <c r="J9" s="989"/>
-      <c r="K9" s="990"/>
-      <c r="L9" s="990"/>
-      <c r="M9" s="990"/>
-      <c r="N9" s="990"/>
-      <c r="O9" s="990"/>
-      <c r="P9" s="991"/>
-      <c r="Q9" s="992"/>
-      <c r="R9" s="993"/>
-      <c r="S9" s="993"/>
-      <c r="T9" s="993"/>
-      <c r="U9" s="993"/>
-      <c r="V9" s="993"/>
-      <c r="W9" s="993"/>
-      <c r="X9" s="993"/>
-      <c r="Y9" s="993"/>
-      <c r="Z9" s="993"/>
-      <c r="AA9" s="993"/>
-      <c r="AB9" s="993"/>
-      <c r="AC9" s="993"/>
-      <c r="AD9" s="993"/>
-      <c r="AE9" s="994"/>
-      <c r="AF9" s="989"/>
-      <c r="AG9" s="990"/>
-      <c r="AH9" s="990"/>
-      <c r="AI9" s="991"/>
+      <c r="B9" s="1132"/>
+      <c r="C9" s="1133"/>
+      <c r="D9" s="1134"/>
+      <c r="E9" s="1135"/>
+      <c r="F9" s="1136"/>
+      <c r="G9" s="1134"/>
+      <c r="H9" s="1137"/>
+      <c r="I9" s="1133"/>
+      <c r="J9" s="1138"/>
+      <c r="K9" s="1139"/>
+      <c r="L9" s="1139"/>
+      <c r="M9" s="1139"/>
+      <c r="N9" s="1139"/>
+      <c r="O9" s="1139"/>
+      <c r="P9" s="1140"/>
+      <c r="Q9" s="1141"/>
+      <c r="R9" s="1142"/>
+      <c r="S9" s="1142"/>
+      <c r="T9" s="1142"/>
+      <c r="U9" s="1142"/>
+      <c r="V9" s="1142"/>
+      <c r="W9" s="1142"/>
+      <c r="X9" s="1142"/>
+      <c r="Y9" s="1142"/>
+      <c r="Z9" s="1142"/>
+      <c r="AA9" s="1142"/>
+      <c r="AB9" s="1142"/>
+      <c r="AC9" s="1142"/>
+      <c r="AD9" s="1142"/>
+      <c r="AE9" s="1143"/>
+      <c r="AF9" s="1138"/>
+      <c r="AG9" s="1139"/>
+      <c r="AH9" s="1139"/>
+      <c r="AI9" s="1140"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="983"/>
-      <c r="C10" s="984"/>
-      <c r="D10" s="985"/>
-      <c r="E10" s="986"/>
-      <c r="F10" s="987"/>
-      <c r="G10" s="983"/>
-      <c r="H10" s="988"/>
-      <c r="I10" s="984"/>
-      <c r="J10" s="989"/>
-      <c r="K10" s="990"/>
-      <c r="L10" s="990"/>
-      <c r="M10" s="990"/>
-      <c r="N10" s="990"/>
-      <c r="O10" s="990"/>
-      <c r="P10" s="991"/>
-      <c r="Q10" s="992"/>
-      <c r="R10" s="993"/>
-      <c r="S10" s="993"/>
-      <c r="T10" s="993"/>
-      <c r="U10" s="993"/>
-      <c r="V10" s="993"/>
-      <c r="W10" s="993"/>
-      <c r="X10" s="993"/>
-      <c r="Y10" s="993"/>
-      <c r="Z10" s="993"/>
-      <c r="AA10" s="993"/>
-      <c r="AB10" s="993"/>
-      <c r="AC10" s="993"/>
-      <c r="AD10" s="993"/>
-      <c r="AE10" s="994"/>
-      <c r="AF10" s="989"/>
-      <c r="AG10" s="990"/>
-      <c r="AH10" s="990"/>
-      <c r="AI10" s="991"/>
+      <c r="B10" s="1132"/>
+      <c r="C10" s="1133"/>
+      <c r="D10" s="1134"/>
+      <c r="E10" s="1135"/>
+      <c r="F10" s="1136"/>
+      <c r="G10" s="1132"/>
+      <c r="H10" s="1137"/>
+      <c r="I10" s="1133"/>
+      <c r="J10" s="1138"/>
+      <c r="K10" s="1139"/>
+      <c r="L10" s="1139"/>
+      <c r="M10" s="1139"/>
+      <c r="N10" s="1139"/>
+      <c r="O10" s="1139"/>
+      <c r="P10" s="1140"/>
+      <c r="Q10" s="1141"/>
+      <c r="R10" s="1142"/>
+      <c r="S10" s="1142"/>
+      <c r="T10" s="1142"/>
+      <c r="U10" s="1142"/>
+      <c r="V10" s="1142"/>
+      <c r="W10" s="1142"/>
+      <c r="X10" s="1142"/>
+      <c r="Y10" s="1142"/>
+      <c r="Z10" s="1142"/>
+      <c r="AA10" s="1142"/>
+      <c r="AB10" s="1142"/>
+      <c r="AC10" s="1142"/>
+      <c r="AD10" s="1142"/>
+      <c r="AE10" s="1143"/>
+      <c r="AF10" s="1138"/>
+      <c r="AG10" s="1139"/>
+      <c r="AH10" s="1139"/>
+      <c r="AI10" s="1140"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="983"/>
-      <c r="C11" s="984"/>
-      <c r="D11" s="985"/>
-      <c r="E11" s="986"/>
-      <c r="F11" s="987"/>
-      <c r="G11" s="983"/>
-      <c r="H11" s="988"/>
-      <c r="I11" s="984"/>
-      <c r="J11" s="989"/>
-      <c r="K11" s="990"/>
-      <c r="L11" s="990"/>
-      <c r="M11" s="990"/>
-      <c r="N11" s="990"/>
-      <c r="O11" s="990"/>
-      <c r="P11" s="991"/>
-      <c r="Q11" s="992"/>
-      <c r="R11" s="993"/>
-      <c r="S11" s="993"/>
-      <c r="T11" s="993"/>
-      <c r="U11" s="993"/>
-      <c r="V11" s="993"/>
-      <c r="W11" s="993"/>
-      <c r="X11" s="993"/>
-      <c r="Y11" s="993"/>
-      <c r="Z11" s="993"/>
-      <c r="AA11" s="993"/>
-      <c r="AB11" s="993"/>
-      <c r="AC11" s="993"/>
-      <c r="AD11" s="993"/>
-      <c r="AE11" s="994"/>
-      <c r="AF11" s="989"/>
-      <c r="AG11" s="990"/>
-      <c r="AH11" s="990"/>
-      <c r="AI11" s="991"/>
+      <c r="B11" s="1132"/>
+      <c r="C11" s="1133"/>
+      <c r="D11" s="1134"/>
+      <c r="E11" s="1135"/>
+      <c r="F11" s="1136"/>
+      <c r="G11" s="1132"/>
+      <c r="H11" s="1137"/>
+      <c r="I11" s="1133"/>
+      <c r="J11" s="1138"/>
+      <c r="K11" s="1139"/>
+      <c r="L11" s="1139"/>
+      <c r="M11" s="1139"/>
+      <c r="N11" s="1139"/>
+      <c r="O11" s="1139"/>
+      <c r="P11" s="1140"/>
+      <c r="Q11" s="1141"/>
+      <c r="R11" s="1142"/>
+      <c r="S11" s="1142"/>
+      <c r="T11" s="1142"/>
+      <c r="U11" s="1142"/>
+      <c r="V11" s="1142"/>
+      <c r="W11" s="1142"/>
+      <c r="X11" s="1142"/>
+      <c r="Y11" s="1142"/>
+      <c r="Z11" s="1142"/>
+      <c r="AA11" s="1142"/>
+      <c r="AB11" s="1142"/>
+      <c r="AC11" s="1142"/>
+      <c r="AD11" s="1142"/>
+      <c r="AE11" s="1143"/>
+      <c r="AF11" s="1138"/>
+      <c r="AG11" s="1139"/>
+      <c r="AH11" s="1139"/>
+      <c r="AI11" s="1140"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="983"/>
-      <c r="C12" s="984"/>
-      <c r="D12" s="985"/>
-      <c r="E12" s="986"/>
-      <c r="F12" s="987"/>
-      <c r="G12" s="983"/>
-      <c r="H12" s="988"/>
-      <c r="I12" s="984"/>
-      <c r="J12" s="989"/>
-      <c r="K12" s="990"/>
-      <c r="L12" s="990"/>
-      <c r="M12" s="990"/>
-      <c r="N12" s="990"/>
-      <c r="O12" s="990"/>
-      <c r="P12" s="991"/>
-      <c r="Q12" s="992"/>
-      <c r="R12" s="993"/>
-      <c r="S12" s="993"/>
-      <c r="T12" s="993"/>
-      <c r="U12" s="993"/>
-      <c r="V12" s="993"/>
-      <c r="W12" s="993"/>
-      <c r="X12" s="993"/>
-      <c r="Y12" s="993"/>
-      <c r="Z12" s="993"/>
-      <c r="AA12" s="993"/>
-      <c r="AB12" s="993"/>
-      <c r="AC12" s="993"/>
-      <c r="AD12" s="993"/>
-      <c r="AE12" s="994"/>
-      <c r="AF12" s="989"/>
-      <c r="AG12" s="990"/>
-      <c r="AH12" s="990"/>
-      <c r="AI12" s="991"/>
+      <c r="B12" s="1132"/>
+      <c r="C12" s="1133"/>
+      <c r="D12" s="1134"/>
+      <c r="E12" s="1135"/>
+      <c r="F12" s="1136"/>
+      <c r="G12" s="1132"/>
+      <c r="H12" s="1137"/>
+      <c r="I12" s="1133"/>
+      <c r="J12" s="1138"/>
+      <c r="K12" s="1139"/>
+      <c r="L12" s="1139"/>
+      <c r="M12" s="1139"/>
+      <c r="N12" s="1139"/>
+      <c r="O12" s="1139"/>
+      <c r="P12" s="1140"/>
+      <c r="Q12" s="1141"/>
+      <c r="R12" s="1142"/>
+      <c r="S12" s="1142"/>
+      <c r="T12" s="1142"/>
+      <c r="U12" s="1142"/>
+      <c r="V12" s="1142"/>
+      <c r="W12" s="1142"/>
+      <c r="X12" s="1142"/>
+      <c r="Y12" s="1142"/>
+      <c r="Z12" s="1142"/>
+      <c r="AA12" s="1142"/>
+      <c r="AB12" s="1142"/>
+      <c r="AC12" s="1142"/>
+      <c r="AD12" s="1142"/>
+      <c r="AE12" s="1143"/>
+      <c r="AF12" s="1138"/>
+      <c r="AG12" s="1139"/>
+      <c r="AH12" s="1139"/>
+      <c r="AI12" s="1140"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="983"/>
-      <c r="C13" s="984"/>
-      <c r="D13" s="985"/>
-      <c r="E13" s="986"/>
-      <c r="F13" s="987"/>
-      <c r="G13" s="983"/>
-      <c r="H13" s="988"/>
-      <c r="I13" s="984"/>
-      <c r="J13" s="989"/>
-      <c r="K13" s="990"/>
-      <c r="L13" s="990"/>
-      <c r="M13" s="990"/>
-      <c r="N13" s="990"/>
-      <c r="O13" s="990"/>
-      <c r="P13" s="991"/>
-      <c r="Q13" s="992"/>
-      <c r="R13" s="993"/>
-      <c r="S13" s="993"/>
-      <c r="T13" s="993"/>
-      <c r="U13" s="993"/>
-      <c r="V13" s="993"/>
-      <c r="W13" s="993"/>
-      <c r="X13" s="993"/>
-      <c r="Y13" s="993"/>
-      <c r="Z13" s="993"/>
-      <c r="AA13" s="993"/>
-      <c r="AB13" s="993"/>
-      <c r="AC13" s="993"/>
-      <c r="AD13" s="993"/>
-      <c r="AE13" s="994"/>
-      <c r="AF13" s="989"/>
-      <c r="AG13" s="990"/>
-      <c r="AH13" s="990"/>
-      <c r="AI13" s="991"/>
+      <c r="B13" s="1132"/>
+      <c r="C13" s="1133"/>
+      <c r="D13" s="1134"/>
+      <c r="E13" s="1135"/>
+      <c r="F13" s="1136"/>
+      <c r="G13" s="1132"/>
+      <c r="H13" s="1137"/>
+      <c r="I13" s="1133"/>
+      <c r="J13" s="1138"/>
+      <c r="K13" s="1139"/>
+      <c r="L13" s="1139"/>
+      <c r="M13" s="1139"/>
+      <c r="N13" s="1139"/>
+      <c r="O13" s="1139"/>
+      <c r="P13" s="1140"/>
+      <c r="Q13" s="1141"/>
+      <c r="R13" s="1142"/>
+      <c r="S13" s="1142"/>
+      <c r="T13" s="1142"/>
+      <c r="U13" s="1142"/>
+      <c r="V13" s="1142"/>
+      <c r="W13" s="1142"/>
+      <c r="X13" s="1142"/>
+      <c r="Y13" s="1142"/>
+      <c r="Z13" s="1142"/>
+      <c r="AA13" s="1142"/>
+      <c r="AB13" s="1142"/>
+      <c r="AC13" s="1142"/>
+      <c r="AD13" s="1142"/>
+      <c r="AE13" s="1143"/>
+      <c r="AF13" s="1138"/>
+      <c r="AG13" s="1139"/>
+      <c r="AH13" s="1139"/>
+      <c r="AI13" s="1140"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="983"/>
-      <c r="C14" s="984"/>
-      <c r="D14" s="985"/>
-      <c r="E14" s="986"/>
-      <c r="F14" s="987"/>
-      <c r="G14" s="983"/>
-      <c r="H14" s="988"/>
-      <c r="I14" s="984"/>
-      <c r="J14" s="989"/>
-      <c r="K14" s="990"/>
-      <c r="L14" s="990"/>
-      <c r="M14" s="990"/>
-      <c r="N14" s="990"/>
-      <c r="O14" s="990"/>
-      <c r="P14" s="991"/>
-      <c r="Q14" s="992"/>
-      <c r="R14" s="993"/>
-      <c r="S14" s="993"/>
-      <c r="T14" s="993"/>
-      <c r="U14" s="993"/>
-      <c r="V14" s="993"/>
-      <c r="W14" s="993"/>
-      <c r="X14" s="993"/>
-      <c r="Y14" s="993"/>
-      <c r="Z14" s="993"/>
-      <c r="AA14" s="993"/>
-      <c r="AB14" s="993"/>
-      <c r="AC14" s="993"/>
-      <c r="AD14" s="993"/>
-      <c r="AE14" s="994"/>
-      <c r="AF14" s="989"/>
-      <c r="AG14" s="990"/>
-      <c r="AH14" s="990"/>
-      <c r="AI14" s="991"/>
+      <c r="B14" s="1132"/>
+      <c r="C14" s="1133"/>
+      <c r="D14" s="1134"/>
+      <c r="E14" s="1135"/>
+      <c r="F14" s="1136"/>
+      <c r="G14" s="1132"/>
+      <c r="H14" s="1137"/>
+      <c r="I14" s="1133"/>
+      <c r="J14" s="1138"/>
+      <c r="K14" s="1139"/>
+      <c r="L14" s="1139"/>
+      <c r="M14" s="1139"/>
+      <c r="N14" s="1139"/>
+      <c r="O14" s="1139"/>
+      <c r="P14" s="1140"/>
+      <c r="Q14" s="1141"/>
+      <c r="R14" s="1142"/>
+      <c r="S14" s="1142"/>
+      <c r="T14" s="1142"/>
+      <c r="U14" s="1142"/>
+      <c r="V14" s="1142"/>
+      <c r="W14" s="1142"/>
+      <c r="X14" s="1142"/>
+      <c r="Y14" s="1142"/>
+      <c r="Z14" s="1142"/>
+      <c r="AA14" s="1142"/>
+      <c r="AB14" s="1142"/>
+      <c r="AC14" s="1142"/>
+      <c r="AD14" s="1142"/>
+      <c r="AE14" s="1143"/>
+      <c r="AF14" s="1138"/>
+      <c r="AG14" s="1139"/>
+      <c r="AH14" s="1139"/>
+      <c r="AI14" s="1140"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="983"/>
-      <c r="C15" s="984"/>
-      <c r="D15" s="985"/>
-      <c r="E15" s="986"/>
-      <c r="F15" s="987"/>
-      <c r="G15" s="983"/>
-      <c r="H15" s="988"/>
-      <c r="I15" s="984"/>
-      <c r="J15" s="989"/>
-      <c r="K15" s="990"/>
-      <c r="L15" s="990"/>
-      <c r="M15" s="990"/>
-      <c r="N15" s="990"/>
-      <c r="O15" s="990"/>
-      <c r="P15" s="991"/>
-      <c r="Q15" s="992"/>
-      <c r="R15" s="993"/>
-      <c r="S15" s="993"/>
-      <c r="T15" s="993"/>
-      <c r="U15" s="993"/>
-      <c r="V15" s="993"/>
-      <c r="W15" s="993"/>
-      <c r="X15" s="993"/>
-      <c r="Y15" s="993"/>
-      <c r="Z15" s="993"/>
-      <c r="AA15" s="993"/>
-      <c r="AB15" s="993"/>
-      <c r="AC15" s="993"/>
-      <c r="AD15" s="993"/>
-      <c r="AE15" s="994"/>
-      <c r="AF15" s="989"/>
-      <c r="AG15" s="990"/>
-      <c r="AH15" s="990"/>
-      <c r="AI15" s="991"/>
+      <c r="B15" s="1132"/>
+      <c r="C15" s="1133"/>
+      <c r="D15" s="1134"/>
+      <c r="E15" s="1135"/>
+      <c r="F15" s="1136"/>
+      <c r="G15" s="1132"/>
+      <c r="H15" s="1137"/>
+      <c r="I15" s="1133"/>
+      <c r="J15" s="1138"/>
+      <c r="K15" s="1139"/>
+      <c r="L15" s="1139"/>
+      <c r="M15" s="1139"/>
+      <c r="N15" s="1139"/>
+      <c r="O15" s="1139"/>
+      <c r="P15" s="1140"/>
+      <c r="Q15" s="1141"/>
+      <c r="R15" s="1142"/>
+      <c r="S15" s="1142"/>
+      <c r="T15" s="1142"/>
+      <c r="U15" s="1142"/>
+      <c r="V15" s="1142"/>
+      <c r="W15" s="1142"/>
+      <c r="X15" s="1142"/>
+      <c r="Y15" s="1142"/>
+      <c r="Z15" s="1142"/>
+      <c r="AA15" s="1142"/>
+      <c r="AB15" s="1142"/>
+      <c r="AC15" s="1142"/>
+      <c r="AD15" s="1142"/>
+      <c r="AE15" s="1143"/>
+      <c r="AF15" s="1138"/>
+      <c r="AG15" s="1139"/>
+      <c r="AH15" s="1139"/>
+      <c r="AI15" s="1140"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="983"/>
-      <c r="C16" s="984"/>
-      <c r="D16" s="985"/>
-      <c r="E16" s="986"/>
-      <c r="F16" s="987"/>
-      <c r="G16" s="983"/>
-      <c r="H16" s="988"/>
-      <c r="I16" s="984"/>
-      <c r="J16" s="989"/>
-      <c r="K16" s="990"/>
-      <c r="L16" s="990"/>
-      <c r="M16" s="990"/>
-      <c r="N16" s="990"/>
-      <c r="O16" s="990"/>
-      <c r="P16" s="991"/>
-      <c r="Q16" s="992"/>
-      <c r="R16" s="993"/>
-      <c r="S16" s="993"/>
-      <c r="T16" s="993"/>
-      <c r="U16" s="993"/>
-      <c r="V16" s="993"/>
-      <c r="W16" s="993"/>
-      <c r="X16" s="993"/>
-      <c r="Y16" s="993"/>
-      <c r="Z16" s="993"/>
-      <c r="AA16" s="993"/>
-      <c r="AB16" s="993"/>
-      <c r="AC16" s="993"/>
-      <c r="AD16" s="993"/>
-      <c r="AE16" s="994"/>
-      <c r="AF16" s="989"/>
-      <c r="AG16" s="990"/>
-      <c r="AH16" s="990"/>
-      <c r="AI16" s="991"/>
+      <c r="B16" s="1132"/>
+      <c r="C16" s="1133"/>
+      <c r="D16" s="1134"/>
+      <c r="E16" s="1135"/>
+      <c r="F16" s="1136"/>
+      <c r="G16" s="1132"/>
+      <c r="H16" s="1137"/>
+      <c r="I16" s="1133"/>
+      <c r="J16" s="1138"/>
+      <c r="K16" s="1139"/>
+      <c r="L16" s="1139"/>
+      <c r="M16" s="1139"/>
+      <c r="N16" s="1139"/>
+      <c r="O16" s="1139"/>
+      <c r="P16" s="1140"/>
+      <c r="Q16" s="1141"/>
+      <c r="R16" s="1142"/>
+      <c r="S16" s="1142"/>
+      <c r="T16" s="1142"/>
+      <c r="U16" s="1142"/>
+      <c r="V16" s="1142"/>
+      <c r="W16" s="1142"/>
+      <c r="X16" s="1142"/>
+      <c r="Y16" s="1142"/>
+      <c r="Z16" s="1142"/>
+      <c r="AA16" s="1142"/>
+      <c r="AB16" s="1142"/>
+      <c r="AC16" s="1142"/>
+      <c r="AD16" s="1142"/>
+      <c r="AE16" s="1143"/>
+      <c r="AF16" s="1138"/>
+      <c r="AG16" s="1139"/>
+      <c r="AH16" s="1139"/>
+      <c r="AI16" s="1140"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="983"/>
-      <c r="C17" s="984"/>
-      <c r="D17" s="985"/>
-      <c r="E17" s="986"/>
-      <c r="F17" s="987"/>
-      <c r="G17" s="983"/>
-      <c r="H17" s="988"/>
-      <c r="I17" s="984"/>
-      <c r="J17" s="989"/>
-      <c r="K17" s="990"/>
-      <c r="L17" s="990"/>
-      <c r="M17" s="990"/>
-      <c r="N17" s="990"/>
-      <c r="O17" s="990"/>
-      <c r="P17" s="991"/>
-      <c r="Q17" s="992"/>
-      <c r="R17" s="993"/>
-      <c r="S17" s="993"/>
-      <c r="T17" s="993"/>
-      <c r="U17" s="993"/>
-      <c r="V17" s="993"/>
-      <c r="W17" s="993"/>
-      <c r="X17" s="993"/>
-      <c r="Y17" s="993"/>
-      <c r="Z17" s="993"/>
-      <c r="AA17" s="993"/>
-      <c r="AB17" s="993"/>
-      <c r="AC17" s="993"/>
-      <c r="AD17" s="993"/>
-      <c r="AE17" s="994"/>
-      <c r="AF17" s="989"/>
-      <c r="AG17" s="990"/>
-      <c r="AH17" s="990"/>
-      <c r="AI17" s="991"/>
+      <c r="B17" s="1132"/>
+      <c r="C17" s="1133"/>
+      <c r="D17" s="1134"/>
+      <c r="E17" s="1135"/>
+      <c r="F17" s="1136"/>
+      <c r="G17" s="1132"/>
+      <c r="H17" s="1137"/>
+      <c r="I17" s="1133"/>
+      <c r="J17" s="1138"/>
+      <c r="K17" s="1139"/>
+      <c r="L17" s="1139"/>
+      <c r="M17" s="1139"/>
+      <c r="N17" s="1139"/>
+      <c r="O17" s="1139"/>
+      <c r="P17" s="1140"/>
+      <c r="Q17" s="1141"/>
+      <c r="R17" s="1142"/>
+      <c r="S17" s="1142"/>
+      <c r="T17" s="1142"/>
+      <c r="U17" s="1142"/>
+      <c r="V17" s="1142"/>
+      <c r="W17" s="1142"/>
+      <c r="X17" s="1142"/>
+      <c r="Y17" s="1142"/>
+      <c r="Z17" s="1142"/>
+      <c r="AA17" s="1142"/>
+      <c r="AB17" s="1142"/>
+      <c r="AC17" s="1142"/>
+      <c r="AD17" s="1142"/>
+      <c r="AE17" s="1143"/>
+      <c r="AF17" s="1138"/>
+      <c r="AG17" s="1139"/>
+      <c r="AH17" s="1139"/>
+      <c r="AI17" s="1140"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="983"/>
-      <c r="C18" s="984"/>
-      <c r="D18" s="985"/>
-      <c r="E18" s="986"/>
-      <c r="F18" s="987"/>
-      <c r="G18" s="983"/>
-      <c r="H18" s="988"/>
-      <c r="I18" s="984"/>
-      <c r="J18" s="989"/>
-      <c r="K18" s="990"/>
-      <c r="L18" s="990"/>
-      <c r="M18" s="990"/>
-      <c r="N18" s="990"/>
-      <c r="O18" s="990"/>
-      <c r="P18" s="991"/>
-      <c r="Q18" s="992"/>
-      <c r="R18" s="993"/>
-      <c r="S18" s="993"/>
-      <c r="T18" s="993"/>
-      <c r="U18" s="993"/>
-      <c r="V18" s="993"/>
-      <c r="W18" s="993"/>
-      <c r="X18" s="993"/>
-      <c r="Y18" s="993"/>
-      <c r="Z18" s="993"/>
-      <c r="AA18" s="993"/>
-      <c r="AB18" s="993"/>
-      <c r="AC18" s="993"/>
-      <c r="AD18" s="993"/>
-      <c r="AE18" s="994"/>
-      <c r="AF18" s="989"/>
-      <c r="AG18" s="990"/>
-      <c r="AH18" s="990"/>
-      <c r="AI18" s="991"/>
+      <c r="B18" s="1132"/>
+      <c r="C18" s="1133"/>
+      <c r="D18" s="1134"/>
+      <c r="E18" s="1135"/>
+      <c r="F18" s="1136"/>
+      <c r="G18" s="1132"/>
+      <c r="H18" s="1137"/>
+      <c r="I18" s="1133"/>
+      <c r="J18" s="1138"/>
+      <c r="K18" s="1139"/>
+      <c r="L18" s="1139"/>
+      <c r="M18" s="1139"/>
+      <c r="N18" s="1139"/>
+      <c r="O18" s="1139"/>
+      <c r="P18" s="1140"/>
+      <c r="Q18" s="1141"/>
+      <c r="R18" s="1142"/>
+      <c r="S18" s="1142"/>
+      <c r="T18" s="1142"/>
+      <c r="U18" s="1142"/>
+      <c r="V18" s="1142"/>
+      <c r="W18" s="1142"/>
+      <c r="X18" s="1142"/>
+      <c r="Y18" s="1142"/>
+      <c r="Z18" s="1142"/>
+      <c r="AA18" s="1142"/>
+      <c r="AB18" s="1142"/>
+      <c r="AC18" s="1142"/>
+      <c r="AD18" s="1142"/>
+      <c r="AE18" s="1143"/>
+      <c r="AF18" s="1138"/>
+      <c r="AG18" s="1139"/>
+      <c r="AH18" s="1139"/>
+      <c r="AI18" s="1140"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="983"/>
-      <c r="C19" s="984"/>
-      <c r="D19" s="985"/>
-      <c r="E19" s="986"/>
-      <c r="F19" s="987"/>
-      <c r="G19" s="983"/>
-      <c r="H19" s="988"/>
-      <c r="I19" s="984"/>
-      <c r="J19" s="989"/>
-      <c r="K19" s="990"/>
-      <c r="L19" s="990"/>
-      <c r="M19" s="990"/>
-      <c r="N19" s="990"/>
-      <c r="O19" s="990"/>
-      <c r="P19" s="991"/>
-      <c r="Q19" s="992"/>
-      <c r="R19" s="993"/>
-      <c r="S19" s="993"/>
-      <c r="T19" s="993"/>
-      <c r="U19" s="993"/>
-      <c r="V19" s="993"/>
-      <c r="W19" s="993"/>
-      <c r="X19" s="993"/>
-      <c r="Y19" s="993"/>
-      <c r="Z19" s="993"/>
-      <c r="AA19" s="993"/>
-      <c r="AB19" s="993"/>
-      <c r="AC19" s="993"/>
-      <c r="AD19" s="993"/>
-      <c r="AE19" s="994"/>
-      <c r="AF19" s="989"/>
-      <c r="AG19" s="990"/>
-      <c r="AH19" s="990"/>
-      <c r="AI19" s="991"/>
+      <c r="B19" s="1132"/>
+      <c r="C19" s="1133"/>
+      <c r="D19" s="1134"/>
+      <c r="E19" s="1135"/>
+      <c r="F19" s="1136"/>
+      <c r="G19" s="1132"/>
+      <c r="H19" s="1137"/>
+      <c r="I19" s="1133"/>
+      <c r="J19" s="1138"/>
+      <c r="K19" s="1139"/>
+      <c r="L19" s="1139"/>
+      <c r="M19" s="1139"/>
+      <c r="N19" s="1139"/>
+      <c r="O19" s="1139"/>
+      <c r="P19" s="1140"/>
+      <c r="Q19" s="1141"/>
+      <c r="R19" s="1142"/>
+      <c r="S19" s="1142"/>
+      <c r="T19" s="1142"/>
+      <c r="U19" s="1142"/>
+      <c r="V19" s="1142"/>
+      <c r="W19" s="1142"/>
+      <c r="X19" s="1142"/>
+      <c r="Y19" s="1142"/>
+      <c r="Z19" s="1142"/>
+      <c r="AA19" s="1142"/>
+      <c r="AB19" s="1142"/>
+      <c r="AC19" s="1142"/>
+      <c r="AD19" s="1142"/>
+      <c r="AE19" s="1143"/>
+      <c r="AF19" s="1138"/>
+      <c r="AG19" s="1139"/>
+      <c r="AH19" s="1139"/>
+      <c r="AI19" s="1140"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="983"/>
-      <c r="C20" s="984"/>
-      <c r="D20" s="985"/>
-      <c r="E20" s="986"/>
-      <c r="F20" s="987"/>
-      <c r="G20" s="983"/>
-      <c r="H20" s="988"/>
-      <c r="I20" s="984"/>
-      <c r="J20" s="989"/>
-      <c r="K20" s="990"/>
-      <c r="L20" s="990"/>
-      <c r="M20" s="990"/>
-      <c r="N20" s="990"/>
-      <c r="O20" s="990"/>
-      <c r="P20" s="991"/>
-      <c r="Q20" s="992"/>
-      <c r="R20" s="993"/>
-      <c r="S20" s="993"/>
-      <c r="T20" s="993"/>
-      <c r="U20" s="993"/>
-      <c r="V20" s="993"/>
-      <c r="W20" s="993"/>
-      <c r="X20" s="993"/>
-      <c r="Y20" s="993"/>
-      <c r="Z20" s="993"/>
-      <c r="AA20" s="993"/>
-      <c r="AB20" s="993"/>
-      <c r="AC20" s="993"/>
-      <c r="AD20" s="993"/>
-      <c r="AE20" s="994"/>
-      <c r="AF20" s="989"/>
-      <c r="AG20" s="990"/>
-      <c r="AH20" s="990"/>
-      <c r="AI20" s="991"/>
+      <c r="B20" s="1132"/>
+      <c r="C20" s="1133"/>
+      <c r="D20" s="1134"/>
+      <c r="E20" s="1135"/>
+      <c r="F20" s="1136"/>
+      <c r="G20" s="1132"/>
+      <c r="H20" s="1137"/>
+      <c r="I20" s="1133"/>
+      <c r="J20" s="1138"/>
+      <c r="K20" s="1139"/>
+      <c r="L20" s="1139"/>
+      <c r="M20" s="1139"/>
+      <c r="N20" s="1139"/>
+      <c r="O20" s="1139"/>
+      <c r="P20" s="1140"/>
+      <c r="Q20" s="1141"/>
+      <c r="R20" s="1142"/>
+      <c r="S20" s="1142"/>
+      <c r="T20" s="1142"/>
+      <c r="U20" s="1142"/>
+      <c r="V20" s="1142"/>
+      <c r="W20" s="1142"/>
+      <c r="X20" s="1142"/>
+      <c r="Y20" s="1142"/>
+      <c r="Z20" s="1142"/>
+      <c r="AA20" s="1142"/>
+      <c r="AB20" s="1142"/>
+      <c r="AC20" s="1142"/>
+      <c r="AD20" s="1142"/>
+      <c r="AE20" s="1143"/>
+      <c r="AF20" s="1138"/>
+      <c r="AG20" s="1139"/>
+      <c r="AH20" s="1139"/>
+      <c r="AI20" s="1140"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="983"/>
-      <c r="C21" s="984"/>
-      <c r="D21" s="985"/>
-      <c r="E21" s="986"/>
-      <c r="F21" s="987"/>
-      <c r="G21" s="983"/>
-      <c r="H21" s="988"/>
-      <c r="I21" s="984"/>
-      <c r="J21" s="989"/>
-      <c r="K21" s="990"/>
-      <c r="L21" s="990"/>
-      <c r="M21" s="990"/>
-      <c r="N21" s="990"/>
-      <c r="O21" s="990"/>
-      <c r="P21" s="991"/>
-      <c r="Q21" s="992"/>
-      <c r="R21" s="993"/>
-      <c r="S21" s="993"/>
-      <c r="T21" s="993"/>
-      <c r="U21" s="993"/>
-      <c r="V21" s="993"/>
-      <c r="W21" s="993"/>
-      <c r="X21" s="993"/>
-      <c r="Y21" s="993"/>
-      <c r="Z21" s="993"/>
-      <c r="AA21" s="993"/>
-      <c r="AB21" s="993"/>
-      <c r="AC21" s="993"/>
-      <c r="AD21" s="993"/>
-      <c r="AE21" s="994"/>
-      <c r="AF21" s="989"/>
-      <c r="AG21" s="990"/>
-      <c r="AH21" s="990"/>
-      <c r="AI21" s="991"/>
+      <c r="B21" s="1132"/>
+      <c r="C21" s="1133"/>
+      <c r="D21" s="1134"/>
+      <c r="E21" s="1135"/>
+      <c r="F21" s="1136"/>
+      <c r="G21" s="1132"/>
+      <c r="H21" s="1137"/>
+      <c r="I21" s="1133"/>
+      <c r="J21" s="1138"/>
+      <c r="K21" s="1139"/>
+      <c r="L21" s="1139"/>
+      <c r="M21" s="1139"/>
+      <c r="N21" s="1139"/>
+      <c r="O21" s="1139"/>
+      <c r="P21" s="1140"/>
+      <c r="Q21" s="1141"/>
+      <c r="R21" s="1142"/>
+      <c r="S21" s="1142"/>
+      <c r="T21" s="1142"/>
+      <c r="U21" s="1142"/>
+      <c r="V21" s="1142"/>
+      <c r="W21" s="1142"/>
+      <c r="X21" s="1142"/>
+      <c r="Y21" s="1142"/>
+      <c r="Z21" s="1142"/>
+      <c r="AA21" s="1142"/>
+      <c r="AB21" s="1142"/>
+      <c r="AC21" s="1142"/>
+      <c r="AD21" s="1142"/>
+      <c r="AE21" s="1143"/>
+      <c r="AF21" s="1138"/>
+      <c r="AG21" s="1139"/>
+      <c r="AH21" s="1139"/>
+      <c r="AI21" s="1140"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="983"/>
-      <c r="C22" s="984"/>
-      <c r="D22" s="985"/>
-      <c r="E22" s="986"/>
-      <c r="F22" s="987"/>
-      <c r="G22" s="983"/>
-      <c r="H22" s="988"/>
-      <c r="I22" s="984"/>
-      <c r="J22" s="989"/>
-      <c r="K22" s="990"/>
-      <c r="L22" s="990"/>
-      <c r="M22" s="990"/>
-      <c r="N22" s="990"/>
-      <c r="O22" s="990"/>
-      <c r="P22" s="991"/>
-      <c r="Q22" s="992"/>
-      <c r="R22" s="993"/>
-      <c r="S22" s="993"/>
-      <c r="T22" s="993"/>
-      <c r="U22" s="993"/>
-      <c r="V22" s="993"/>
-      <c r="W22" s="993"/>
-      <c r="X22" s="993"/>
-      <c r="Y22" s="993"/>
-      <c r="Z22" s="993"/>
-      <c r="AA22" s="993"/>
-      <c r="AB22" s="993"/>
-      <c r="AC22" s="993"/>
-      <c r="AD22" s="993"/>
-      <c r="AE22" s="994"/>
-      <c r="AF22" s="989"/>
-      <c r="AG22" s="990"/>
-      <c r="AH22" s="990"/>
-      <c r="AI22" s="991"/>
+      <c r="B22" s="1132"/>
+      <c r="C22" s="1133"/>
+      <c r="D22" s="1134"/>
+      <c r="E22" s="1135"/>
+      <c r="F22" s="1136"/>
+      <c r="G22" s="1132"/>
+      <c r="H22" s="1137"/>
+      <c r="I22" s="1133"/>
+      <c r="J22" s="1138"/>
+      <c r="K22" s="1139"/>
+      <c r="L22" s="1139"/>
+      <c r="M22" s="1139"/>
+      <c r="N22" s="1139"/>
+      <c r="O22" s="1139"/>
+      <c r="P22" s="1140"/>
+      <c r="Q22" s="1141"/>
+      <c r="R22" s="1142"/>
+      <c r="S22" s="1142"/>
+      <c r="T22" s="1142"/>
+      <c r="U22" s="1142"/>
+      <c r="V22" s="1142"/>
+      <c r="W22" s="1142"/>
+      <c r="X22" s="1142"/>
+      <c r="Y22" s="1142"/>
+      <c r="Z22" s="1142"/>
+      <c r="AA22" s="1142"/>
+      <c r="AB22" s="1142"/>
+      <c r="AC22" s="1142"/>
+      <c r="AD22" s="1142"/>
+      <c r="AE22" s="1143"/>
+      <c r="AF22" s="1138"/>
+      <c r="AG22" s="1139"/>
+      <c r="AH22" s="1139"/>
+      <c r="AI22" s="1140"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="983"/>
-      <c r="C23" s="984"/>
-      <c r="D23" s="985"/>
-      <c r="E23" s="986"/>
-      <c r="F23" s="987"/>
-      <c r="G23" s="983"/>
-      <c r="H23" s="988"/>
-      <c r="I23" s="984"/>
-      <c r="J23" s="989"/>
-      <c r="K23" s="990"/>
-      <c r="L23" s="990"/>
-      <c r="M23" s="990"/>
-      <c r="N23" s="990"/>
-      <c r="O23" s="990"/>
-      <c r="P23" s="991"/>
-      <c r="Q23" s="992"/>
-      <c r="R23" s="993"/>
-      <c r="S23" s="993"/>
-      <c r="T23" s="993"/>
-      <c r="U23" s="993"/>
-      <c r="V23" s="993"/>
-      <c r="W23" s="993"/>
-      <c r="X23" s="993"/>
-      <c r="Y23" s="993"/>
-      <c r="Z23" s="993"/>
-      <c r="AA23" s="993"/>
-      <c r="AB23" s="993"/>
-      <c r="AC23" s="993"/>
-      <c r="AD23" s="993"/>
-      <c r="AE23" s="994"/>
-      <c r="AF23" s="989"/>
-      <c r="AG23" s="990"/>
-      <c r="AH23" s="990"/>
-      <c r="AI23" s="991"/>
+      <c r="B23" s="1132"/>
+      <c r="C23" s="1133"/>
+      <c r="D23" s="1134"/>
+      <c r="E23" s="1135"/>
+      <c r="F23" s="1136"/>
+      <c r="G23" s="1132"/>
+      <c r="H23" s="1137"/>
+      <c r="I23" s="1133"/>
+      <c r="J23" s="1138"/>
+      <c r="K23" s="1139"/>
+      <c r="L23" s="1139"/>
+      <c r="M23" s="1139"/>
+      <c r="N23" s="1139"/>
+      <c r="O23" s="1139"/>
+      <c r="P23" s="1140"/>
+      <c r="Q23" s="1141"/>
+      <c r="R23" s="1142"/>
+      <c r="S23" s="1142"/>
+      <c r="T23" s="1142"/>
+      <c r="U23" s="1142"/>
+      <c r="V23" s="1142"/>
+      <c r="W23" s="1142"/>
+      <c r="X23" s="1142"/>
+      <c r="Y23" s="1142"/>
+      <c r="Z23" s="1142"/>
+      <c r="AA23" s="1142"/>
+      <c r="AB23" s="1142"/>
+      <c r="AC23" s="1142"/>
+      <c r="AD23" s="1142"/>
+      <c r="AE23" s="1143"/>
+      <c r="AF23" s="1138"/>
+      <c r="AG23" s="1139"/>
+      <c r="AH23" s="1139"/>
+      <c r="AI23" s="1140"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="983"/>
-      <c r="C24" s="984"/>
-      <c r="D24" s="985"/>
-      <c r="E24" s="986"/>
-      <c r="F24" s="987"/>
-      <c r="G24" s="983"/>
-      <c r="H24" s="988"/>
-      <c r="I24" s="984"/>
-      <c r="J24" s="989"/>
-      <c r="K24" s="990"/>
-      <c r="L24" s="990"/>
-      <c r="M24" s="990"/>
-      <c r="N24" s="990"/>
-      <c r="O24" s="990"/>
-      <c r="P24" s="991"/>
-      <c r="Q24" s="992"/>
-      <c r="R24" s="993"/>
-      <c r="S24" s="993"/>
-      <c r="T24" s="993"/>
-      <c r="U24" s="993"/>
-      <c r="V24" s="993"/>
-      <c r="W24" s="993"/>
-      <c r="X24" s="993"/>
-      <c r="Y24" s="993"/>
-      <c r="Z24" s="993"/>
-      <c r="AA24" s="993"/>
-      <c r="AB24" s="993"/>
-      <c r="AC24" s="993"/>
-      <c r="AD24" s="993"/>
-      <c r="AE24" s="994"/>
-      <c r="AF24" s="989"/>
-      <c r="AG24" s="990"/>
-      <c r="AH24" s="990"/>
-      <c r="AI24" s="991"/>
+      <c r="B24" s="1132"/>
+      <c r="C24" s="1133"/>
+      <c r="D24" s="1134"/>
+      <c r="E24" s="1135"/>
+      <c r="F24" s="1136"/>
+      <c r="G24" s="1132"/>
+      <c r="H24" s="1137"/>
+      <c r="I24" s="1133"/>
+      <c r="J24" s="1138"/>
+      <c r="K24" s="1139"/>
+      <c r="L24" s="1139"/>
+      <c r="M24" s="1139"/>
+      <c r="N24" s="1139"/>
+      <c r="O24" s="1139"/>
+      <c r="P24" s="1140"/>
+      <c r="Q24" s="1141"/>
+      <c r="R24" s="1142"/>
+      <c r="S24" s="1142"/>
+      <c r="T24" s="1142"/>
+      <c r="U24" s="1142"/>
+      <c r="V24" s="1142"/>
+      <c r="W24" s="1142"/>
+      <c r="X24" s="1142"/>
+      <c r="Y24" s="1142"/>
+      <c r="Z24" s="1142"/>
+      <c r="AA24" s="1142"/>
+      <c r="AB24" s="1142"/>
+      <c r="AC24" s="1142"/>
+      <c r="AD24" s="1142"/>
+      <c r="AE24" s="1143"/>
+      <c r="AF24" s="1138"/>
+      <c r="AG24" s="1139"/>
+      <c r="AH24" s="1139"/>
+      <c r="AI24" s="1140"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="983"/>
-      <c r="C25" s="984"/>
-      <c r="D25" s="985"/>
-      <c r="E25" s="986"/>
-      <c r="F25" s="987"/>
-      <c r="G25" s="983"/>
-      <c r="H25" s="988"/>
-      <c r="I25" s="984"/>
-      <c r="J25" s="989"/>
-      <c r="K25" s="990"/>
-      <c r="L25" s="990"/>
-      <c r="M25" s="990"/>
-      <c r="N25" s="990"/>
-      <c r="O25" s="990"/>
-      <c r="P25" s="991"/>
-      <c r="Q25" s="992"/>
-      <c r="R25" s="993"/>
-      <c r="S25" s="993"/>
-      <c r="T25" s="993"/>
-      <c r="U25" s="993"/>
-      <c r="V25" s="993"/>
-      <c r="W25" s="993"/>
-      <c r="X25" s="993"/>
-      <c r="Y25" s="993"/>
-      <c r="Z25" s="993"/>
-      <c r="AA25" s="993"/>
-      <c r="AB25" s="993"/>
-      <c r="AC25" s="993"/>
-      <c r="AD25" s="993"/>
-      <c r="AE25" s="994"/>
-      <c r="AF25" s="989"/>
-      <c r="AG25" s="990"/>
-      <c r="AH25" s="990"/>
-      <c r="AI25" s="991"/>
+      <c r="B25" s="1132"/>
+      <c r="C25" s="1133"/>
+      <c r="D25" s="1134"/>
+      <c r="E25" s="1135"/>
+      <c r="F25" s="1136"/>
+      <c r="G25" s="1132"/>
+      <c r="H25" s="1137"/>
+      <c r="I25" s="1133"/>
+      <c r="J25" s="1138"/>
+      <c r="K25" s="1139"/>
+      <c r="L25" s="1139"/>
+      <c r="M25" s="1139"/>
+      <c r="N25" s="1139"/>
+      <c r="O25" s="1139"/>
+      <c r="P25" s="1140"/>
+      <c r="Q25" s="1141"/>
+      <c r="R25" s="1142"/>
+      <c r="S25" s="1142"/>
+      <c r="T25" s="1142"/>
+      <c r="U25" s="1142"/>
+      <c r="V25" s="1142"/>
+      <c r="W25" s="1142"/>
+      <c r="X25" s="1142"/>
+      <c r="Y25" s="1142"/>
+      <c r="Z25" s="1142"/>
+      <c r="AA25" s="1142"/>
+      <c r="AB25" s="1142"/>
+      <c r="AC25" s="1142"/>
+      <c r="AD25" s="1142"/>
+      <c r="AE25" s="1143"/>
+      <c r="AF25" s="1138"/>
+      <c r="AG25" s="1139"/>
+      <c r="AH25" s="1139"/>
+      <c r="AI25" s="1140"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="983"/>
-      <c r="C26" s="984"/>
-      <c r="D26" s="985"/>
-      <c r="E26" s="986"/>
-      <c r="F26" s="987"/>
-      <c r="G26" s="983"/>
-      <c r="H26" s="988"/>
-      <c r="I26" s="984"/>
-      <c r="J26" s="989"/>
-      <c r="K26" s="990"/>
-      <c r="L26" s="990"/>
-      <c r="M26" s="990"/>
-      <c r="N26" s="990"/>
-      <c r="O26" s="990"/>
-      <c r="P26" s="991"/>
-      <c r="Q26" s="992"/>
-      <c r="R26" s="993"/>
-      <c r="S26" s="993"/>
-      <c r="T26" s="993"/>
-      <c r="U26" s="993"/>
-      <c r="V26" s="993"/>
-      <c r="W26" s="993"/>
-      <c r="X26" s="993"/>
-      <c r="Y26" s="993"/>
-      <c r="Z26" s="993"/>
-      <c r="AA26" s="993"/>
-      <c r="AB26" s="993"/>
-      <c r="AC26" s="993"/>
-      <c r="AD26" s="993"/>
-      <c r="AE26" s="994"/>
-      <c r="AF26" s="989"/>
-      <c r="AG26" s="990"/>
-      <c r="AH26" s="990"/>
-      <c r="AI26" s="991"/>
+      <c r="B26" s="1132"/>
+      <c r="C26" s="1133"/>
+      <c r="D26" s="1134"/>
+      <c r="E26" s="1135"/>
+      <c r="F26" s="1136"/>
+      <c r="G26" s="1132"/>
+      <c r="H26" s="1137"/>
+      <c r="I26" s="1133"/>
+      <c r="J26" s="1138"/>
+      <c r="K26" s="1139"/>
+      <c r="L26" s="1139"/>
+      <c r="M26" s="1139"/>
+      <c r="N26" s="1139"/>
+      <c r="O26" s="1139"/>
+      <c r="P26" s="1140"/>
+      <c r="Q26" s="1141"/>
+      <c r="R26" s="1142"/>
+      <c r="S26" s="1142"/>
+      <c r="T26" s="1142"/>
+      <c r="U26" s="1142"/>
+      <c r="V26" s="1142"/>
+      <c r="W26" s="1142"/>
+      <c r="X26" s="1142"/>
+      <c r="Y26" s="1142"/>
+      <c r="Z26" s="1142"/>
+      <c r="AA26" s="1142"/>
+      <c r="AB26" s="1142"/>
+      <c r="AC26" s="1142"/>
+      <c r="AD26" s="1142"/>
+      <c r="AE26" s="1143"/>
+      <c r="AF26" s="1138"/>
+      <c r="AG26" s="1139"/>
+      <c r="AH26" s="1139"/>
+      <c r="AI26" s="1140"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="983"/>
-      <c r="C27" s="984"/>
-      <c r="D27" s="985"/>
-      <c r="E27" s="986"/>
-      <c r="F27" s="987"/>
-      <c r="G27" s="983"/>
-      <c r="H27" s="988"/>
-      <c r="I27" s="984"/>
-      <c r="J27" s="989"/>
-      <c r="K27" s="990"/>
-      <c r="L27" s="990"/>
-      <c r="M27" s="990"/>
-      <c r="N27" s="990"/>
-      <c r="O27" s="990"/>
-      <c r="P27" s="991"/>
-      <c r="Q27" s="992"/>
-      <c r="R27" s="993"/>
-      <c r="S27" s="993"/>
-      <c r="T27" s="993"/>
-      <c r="U27" s="993"/>
-      <c r="V27" s="993"/>
-      <c r="W27" s="993"/>
-      <c r="X27" s="993"/>
-      <c r="Y27" s="993"/>
-      <c r="Z27" s="993"/>
-      <c r="AA27" s="993"/>
-      <c r="AB27" s="993"/>
-      <c r="AC27" s="993"/>
-      <c r="AD27" s="993"/>
-      <c r="AE27" s="994"/>
-      <c r="AF27" s="989"/>
-      <c r="AG27" s="990"/>
-      <c r="AH27" s="990"/>
-      <c r="AI27" s="991"/>
+      <c r="B27" s="1132"/>
+      <c r="C27" s="1133"/>
+      <c r="D27" s="1134"/>
+      <c r="E27" s="1135"/>
+      <c r="F27" s="1136"/>
+      <c r="G27" s="1132"/>
+      <c r="H27" s="1137"/>
+      <c r="I27" s="1133"/>
+      <c r="J27" s="1138"/>
+      <c r="K27" s="1139"/>
+      <c r="L27" s="1139"/>
+      <c r="M27" s="1139"/>
+      <c r="N27" s="1139"/>
+      <c r="O27" s="1139"/>
+      <c r="P27" s="1140"/>
+      <c r="Q27" s="1141"/>
+      <c r="R27" s="1142"/>
+      <c r="S27" s="1142"/>
+      <c r="T27" s="1142"/>
+      <c r="U27" s="1142"/>
+      <c r="V27" s="1142"/>
+      <c r="W27" s="1142"/>
+      <c r="X27" s="1142"/>
+      <c r="Y27" s="1142"/>
+      <c r="Z27" s="1142"/>
+      <c r="AA27" s="1142"/>
+      <c r="AB27" s="1142"/>
+      <c r="AC27" s="1142"/>
+      <c r="AD27" s="1142"/>
+      <c r="AE27" s="1143"/>
+      <c r="AF27" s="1138"/>
+      <c r="AG27" s="1139"/>
+      <c r="AH27" s="1139"/>
+      <c r="AI27" s="1140"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="983"/>
-      <c r="C28" s="984"/>
-      <c r="D28" s="985"/>
-      <c r="E28" s="986"/>
-      <c r="F28" s="987"/>
-      <c r="G28" s="983"/>
-      <c r="H28" s="988"/>
-      <c r="I28" s="984"/>
-      <c r="J28" s="989"/>
-      <c r="K28" s="990"/>
-      <c r="L28" s="990"/>
-      <c r="M28" s="990"/>
-      <c r="N28" s="990"/>
-      <c r="O28" s="990"/>
-      <c r="P28" s="991"/>
-      <c r="Q28" s="992"/>
-      <c r="R28" s="993"/>
-      <c r="S28" s="993"/>
-      <c r="T28" s="993"/>
-      <c r="U28" s="993"/>
-      <c r="V28" s="993"/>
-      <c r="W28" s="993"/>
-      <c r="X28" s="993"/>
-      <c r="Y28" s="993"/>
-      <c r="Z28" s="993"/>
-      <c r="AA28" s="993"/>
-      <c r="AB28" s="993"/>
-      <c r="AC28" s="993"/>
-      <c r="AD28" s="993"/>
-      <c r="AE28" s="994"/>
-      <c r="AF28" s="989"/>
-      <c r="AG28" s="990"/>
-      <c r="AH28" s="990"/>
-      <c r="AI28" s="991"/>
+      <c r="B28" s="1132"/>
+      <c r="C28" s="1133"/>
+      <c r="D28" s="1134"/>
+      <c r="E28" s="1135"/>
+      <c r="F28" s="1136"/>
+      <c r="G28" s="1132"/>
+      <c r="H28" s="1137"/>
+      <c r="I28" s="1133"/>
+      <c r="J28" s="1138"/>
+      <c r="K28" s="1139"/>
+      <c r="L28" s="1139"/>
+      <c r="M28" s="1139"/>
+      <c r="N28" s="1139"/>
+      <c r="O28" s="1139"/>
+      <c r="P28" s="1140"/>
+      <c r="Q28" s="1141"/>
+      <c r="R28" s="1142"/>
+      <c r="S28" s="1142"/>
+      <c r="T28" s="1142"/>
+      <c r="U28" s="1142"/>
+      <c r="V28" s="1142"/>
+      <c r="W28" s="1142"/>
+      <c r="X28" s="1142"/>
+      <c r="Y28" s="1142"/>
+      <c r="Z28" s="1142"/>
+      <c r="AA28" s="1142"/>
+      <c r="AB28" s="1142"/>
+      <c r="AC28" s="1142"/>
+      <c r="AD28" s="1142"/>
+      <c r="AE28" s="1143"/>
+      <c r="AF28" s="1138"/>
+      <c r="AG28" s="1139"/>
+      <c r="AH28" s="1139"/>
+      <c r="AI28" s="1140"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="983"/>
-      <c r="C29" s="984"/>
-      <c r="D29" s="985"/>
-      <c r="E29" s="986"/>
-      <c r="F29" s="987"/>
-      <c r="G29" s="983"/>
-      <c r="H29" s="988"/>
-      <c r="I29" s="984"/>
-      <c r="J29" s="989"/>
-      <c r="K29" s="990"/>
-      <c r="L29" s="990"/>
-      <c r="M29" s="990"/>
-      <c r="N29" s="990"/>
-      <c r="O29" s="990"/>
-      <c r="P29" s="991"/>
-      <c r="Q29" s="992"/>
-      <c r="R29" s="993"/>
-      <c r="S29" s="993"/>
-      <c r="T29" s="993"/>
-      <c r="U29" s="993"/>
-      <c r="V29" s="993"/>
-      <c r="W29" s="993"/>
-      <c r="X29" s="993"/>
-      <c r="Y29" s="993"/>
-      <c r="Z29" s="993"/>
-      <c r="AA29" s="993"/>
-      <c r="AB29" s="993"/>
-      <c r="AC29" s="993"/>
-      <c r="AD29" s="993"/>
-      <c r="AE29" s="994"/>
-      <c r="AF29" s="989"/>
-      <c r="AG29" s="990"/>
-      <c r="AH29" s="990"/>
-      <c r="AI29" s="991"/>
+      <c r="B29" s="1132"/>
+      <c r="C29" s="1133"/>
+      <c r="D29" s="1134"/>
+      <c r="E29" s="1135"/>
+      <c r="F29" s="1136"/>
+      <c r="G29" s="1132"/>
+      <c r="H29" s="1137"/>
+      <c r="I29" s="1133"/>
+      <c r="J29" s="1138"/>
+      <c r="K29" s="1139"/>
+      <c r="L29" s="1139"/>
+      <c r="M29" s="1139"/>
+      <c r="N29" s="1139"/>
+      <c r="O29" s="1139"/>
+      <c r="P29" s="1140"/>
+      <c r="Q29" s="1141"/>
+      <c r="R29" s="1142"/>
+      <c r="S29" s="1142"/>
+      <c r="T29" s="1142"/>
+      <c r="U29" s="1142"/>
+      <c r="V29" s="1142"/>
+      <c r="W29" s="1142"/>
+      <c r="X29" s="1142"/>
+      <c r="Y29" s="1142"/>
+      <c r="Z29" s="1142"/>
+      <c r="AA29" s="1142"/>
+      <c r="AB29" s="1142"/>
+      <c r="AC29" s="1142"/>
+      <c r="AD29" s="1142"/>
+      <c r="AE29" s="1143"/>
+      <c r="AF29" s="1138"/>
+      <c r="AG29" s="1139"/>
+      <c r="AH29" s="1139"/>
+      <c r="AI29" s="1140"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="983"/>
-      <c r="C30" s="984"/>
-      <c r="D30" s="985"/>
-      <c r="E30" s="986"/>
-      <c r="F30" s="987"/>
-      <c r="G30" s="983"/>
-      <c r="H30" s="988"/>
-      <c r="I30" s="984"/>
-      <c r="J30" s="989"/>
-      <c r="K30" s="990"/>
-      <c r="L30" s="990"/>
-      <c r="M30" s="990"/>
-      <c r="N30" s="990"/>
-      <c r="O30" s="990"/>
-      <c r="P30" s="991"/>
-      <c r="Q30" s="992"/>
-      <c r="R30" s="993"/>
-      <c r="S30" s="993"/>
-      <c r="T30" s="993"/>
-      <c r="U30" s="993"/>
-      <c r="V30" s="993"/>
-      <c r="W30" s="993"/>
-      <c r="X30" s="993"/>
-      <c r="Y30" s="993"/>
-      <c r="Z30" s="993"/>
-      <c r="AA30" s="993"/>
-      <c r="AB30" s="993"/>
-      <c r="AC30" s="993"/>
-      <c r="AD30" s="993"/>
-      <c r="AE30" s="994"/>
-      <c r="AF30" s="989"/>
-      <c r="AG30" s="990"/>
-      <c r="AH30" s="990"/>
-      <c r="AI30" s="991"/>
+      <c r="B30" s="1132"/>
+      <c r="C30" s="1133"/>
+      <c r="D30" s="1134"/>
+      <c r="E30" s="1135"/>
+      <c r="F30" s="1136"/>
+      <c r="G30" s="1132"/>
+      <c r="H30" s="1137"/>
+      <c r="I30" s="1133"/>
+      <c r="J30" s="1138"/>
+      <c r="K30" s="1139"/>
+      <c r="L30" s="1139"/>
+      <c r="M30" s="1139"/>
+      <c r="N30" s="1139"/>
+      <c r="O30" s="1139"/>
+      <c r="P30" s="1140"/>
+      <c r="Q30" s="1141"/>
+      <c r="R30" s="1142"/>
+      <c r="S30" s="1142"/>
+      <c r="T30" s="1142"/>
+      <c r="U30" s="1142"/>
+      <c r="V30" s="1142"/>
+      <c r="W30" s="1142"/>
+      <c r="X30" s="1142"/>
+      <c r="Y30" s="1142"/>
+      <c r="Z30" s="1142"/>
+      <c r="AA30" s="1142"/>
+      <c r="AB30" s="1142"/>
+      <c r="AC30" s="1142"/>
+      <c r="AD30" s="1142"/>
+      <c r="AE30" s="1143"/>
+      <c r="AF30" s="1138"/>
+      <c r="AG30" s="1139"/>
+      <c r="AH30" s="1139"/>
+      <c r="AI30" s="1140"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="983"/>
-      <c r="C31" s="984"/>
-      <c r="D31" s="985"/>
-      <c r="E31" s="986"/>
-      <c r="F31" s="987"/>
-      <c r="G31" s="983"/>
-      <c r="H31" s="988"/>
-      <c r="I31" s="984"/>
-      <c r="J31" s="989"/>
-      <c r="K31" s="990"/>
-      <c r="L31" s="990"/>
-      <c r="M31" s="990"/>
-      <c r="N31" s="990"/>
-      <c r="O31" s="990"/>
-      <c r="P31" s="991"/>
-      <c r="Q31" s="992"/>
-      <c r="R31" s="993"/>
-      <c r="S31" s="993"/>
-      <c r="T31" s="993"/>
-      <c r="U31" s="993"/>
-      <c r="V31" s="993"/>
-      <c r="W31" s="993"/>
-      <c r="X31" s="993"/>
-      <c r="Y31" s="993"/>
-      <c r="Z31" s="993"/>
-      <c r="AA31" s="993"/>
-      <c r="AB31" s="993"/>
-      <c r="AC31" s="993"/>
-      <c r="AD31" s="993"/>
-      <c r="AE31" s="994"/>
-      <c r="AF31" s="989"/>
-      <c r="AG31" s="990"/>
-      <c r="AH31" s="990"/>
-      <c r="AI31" s="991"/>
+      <c r="B31" s="1132"/>
+      <c r="C31" s="1133"/>
+      <c r="D31" s="1134"/>
+      <c r="E31" s="1135"/>
+      <c r="F31" s="1136"/>
+      <c r="G31" s="1132"/>
+      <c r="H31" s="1137"/>
+      <c r="I31" s="1133"/>
+      <c r="J31" s="1138"/>
+      <c r="K31" s="1139"/>
+      <c r="L31" s="1139"/>
+      <c r="M31" s="1139"/>
+      <c r="N31" s="1139"/>
+      <c r="O31" s="1139"/>
+      <c r="P31" s="1140"/>
+      <c r="Q31" s="1141"/>
+      <c r="R31" s="1142"/>
+      <c r="S31" s="1142"/>
+      <c r="T31" s="1142"/>
+      <c r="U31" s="1142"/>
+      <c r="V31" s="1142"/>
+      <c r="W31" s="1142"/>
+      <c r="X31" s="1142"/>
+      <c r="Y31" s="1142"/>
+      <c r="Z31" s="1142"/>
+      <c r="AA31" s="1142"/>
+      <c r="AB31" s="1142"/>
+      <c r="AC31" s="1142"/>
+      <c r="AD31" s="1142"/>
+      <c r="AE31" s="1143"/>
+      <c r="AF31" s="1138"/>
+      <c r="AG31" s="1139"/>
+      <c r="AH31" s="1139"/>
+      <c r="AI31" s="1140"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="983"/>
-      <c r="C32" s="984"/>
-      <c r="D32" s="985"/>
-      <c r="E32" s="986"/>
-      <c r="F32" s="987"/>
-      <c r="G32" s="983"/>
-      <c r="H32" s="988"/>
-      <c r="I32" s="984"/>
-      <c r="J32" s="989"/>
-      <c r="K32" s="1008"/>
-      <c r="L32" s="990"/>
-      <c r="M32" s="990"/>
-      <c r="N32" s="990"/>
-      <c r="O32" s="990"/>
-      <c r="P32" s="991"/>
-      <c r="Q32" s="992"/>
-      <c r="R32" s="993"/>
-      <c r="S32" s="993"/>
-      <c r="T32" s="993"/>
-      <c r="U32" s="993"/>
-      <c r="V32" s="993"/>
-      <c r="W32" s="993"/>
-      <c r="X32" s="993"/>
-      <c r="Y32" s="993"/>
-      <c r="Z32" s="993"/>
-      <c r="AA32" s="993"/>
-      <c r="AB32" s="993"/>
-      <c r="AC32" s="993"/>
-      <c r="AD32" s="993"/>
-      <c r="AE32" s="994"/>
-      <c r="AF32" s="989"/>
-      <c r="AG32" s="990"/>
-      <c r="AH32" s="990"/>
-      <c r="AI32" s="991"/>
+      <c r="B32" s="1132"/>
+      <c r="C32" s="1133"/>
+      <c r="D32" s="1134"/>
+      <c r="E32" s="1135"/>
+      <c r="F32" s="1136"/>
+      <c r="G32" s="1132"/>
+      <c r="H32" s="1137"/>
+      <c r="I32" s="1133"/>
+      <c r="J32" s="1138"/>
+      <c r="K32" s="1144"/>
+      <c r="L32" s="1139"/>
+      <c r="M32" s="1139"/>
+      <c r="N32" s="1139"/>
+      <c r="O32" s="1139"/>
+      <c r="P32" s="1140"/>
+      <c r="Q32" s="1141"/>
+      <c r="R32" s="1142"/>
+      <c r="S32" s="1142"/>
+      <c r="T32" s="1142"/>
+      <c r="U32" s="1142"/>
+      <c r="V32" s="1142"/>
+      <c r="W32" s="1142"/>
+      <c r="X32" s="1142"/>
+      <c r="Y32" s="1142"/>
+      <c r="Z32" s="1142"/>
+      <c r="AA32" s="1142"/>
+      <c r="AB32" s="1142"/>
+      <c r="AC32" s="1142"/>
+      <c r="AD32" s="1142"/>
+      <c r="AE32" s="1143"/>
+      <c r="AF32" s="1138"/>
+      <c r="AG32" s="1139"/>
+      <c r="AH32" s="1139"/>
+      <c r="AI32" s="1140"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="983"/>
-      <c r="C33" s="984"/>
-      <c r="D33" s="985"/>
-      <c r="E33" s="986"/>
-      <c r="F33" s="987"/>
-      <c r="G33" s="983"/>
-      <c r="H33" s="988"/>
-      <c r="I33" s="984"/>
-      <c r="J33" s="989"/>
-      <c r="K33" s="990"/>
-      <c r="L33" s="990"/>
-      <c r="M33" s="990"/>
-      <c r="N33" s="990"/>
-      <c r="O33" s="990"/>
-      <c r="P33" s="991"/>
-      <c r="Q33" s="992"/>
-      <c r="R33" s="993"/>
-      <c r="S33" s="993"/>
-      <c r="T33" s="993"/>
-      <c r="U33" s="993"/>
-      <c r="V33" s="993"/>
-      <c r="W33" s="993"/>
-      <c r="X33" s="993"/>
-      <c r="Y33" s="993"/>
-      <c r="Z33" s="993"/>
-      <c r="AA33" s="993"/>
-      <c r="AB33" s="993"/>
-      <c r="AC33" s="993"/>
-      <c r="AD33" s="993"/>
-      <c r="AE33" s="994"/>
-      <c r="AF33" s="989"/>
-      <c r="AG33" s="990"/>
-      <c r="AH33" s="990"/>
-      <c r="AI33" s="991"/>
+      <c r="B33" s="1132"/>
+      <c r="C33" s="1133"/>
+      <c r="D33" s="1134"/>
+      <c r="E33" s="1135"/>
+      <c r="F33" s="1136"/>
+      <c r="G33" s="1132"/>
+      <c r="H33" s="1137"/>
+      <c r="I33" s="1133"/>
+      <c r="J33" s="1138"/>
+      <c r="K33" s="1139"/>
+      <c r="L33" s="1139"/>
+      <c r="M33" s="1139"/>
+      <c r="N33" s="1139"/>
+      <c r="O33" s="1139"/>
+      <c r="P33" s="1140"/>
+      <c r="Q33" s="1141"/>
+      <c r="R33" s="1142"/>
+      <c r="S33" s="1142"/>
+      <c r="T33" s="1142"/>
+      <c r="U33" s="1142"/>
+      <c r="V33" s="1142"/>
+      <c r="W33" s="1142"/>
+      <c r="X33" s="1142"/>
+      <c r="Y33" s="1142"/>
+      <c r="Z33" s="1142"/>
+      <c r="AA33" s="1142"/>
+      <c r="AB33" s="1142"/>
+      <c r="AC33" s="1142"/>
+      <c r="AD33" s="1142"/>
+      <c r="AE33" s="1143"/>
+      <c r="AF33" s="1138"/>
+      <c r="AG33" s="1139"/>
+      <c r="AH33" s="1139"/>
+      <c r="AI33" s="1140"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14076,6 +13911,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -14117,7 +14108,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="280" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14132,7 +14123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="280" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I6" s="280" t="s">
         <v>95</v>
@@ -14146,7 +14137,7 @@
         <v>72</v>
       </c>
       <c r="I7" s="280" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J7" s="280" t="s">
         <v>97</v>
@@ -14193,11 +14184,11 @@
       <c r="E10" s="930" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1011" t="s">
+      <c r="F10" s="946" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" s="947" t="s">
         <v>415</v>
-      </c>
-      <c r="G10" s="1012" t="s">
-        <v>416</v>
       </c>
       <c r="H10" s="931" t="s">
         <v>98</v>
@@ -14212,7 +14203,7 @@
         <v>101</v>
       </c>
       <c r="L10" s="932" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M10" s="932" t="s">
         <v>102</v>
@@ -14280,7 +14271,7 @@
       <c r="H12" s="331"/>
       <c r="I12" s="331"/>
       <c r="J12" s="332" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K12" s="325" t="s">
         <v>113</v>
@@ -14311,10 +14302,10 @@
       <c r="H13" s="331"/>
       <c r="I13" s="331"/>
       <c r="J13" s="332" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="332" t="s">
         <v>398</v>
-      </c>
-      <c r="K13" s="332" t="s">
-        <v>399</v>
       </c>
       <c r="L13" s="326"/>
       <c r="M13" s="334" t="s">
@@ -14398,7 +14389,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="300" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E16" s="300" t="s">
         <v>88</v>
@@ -14409,13 +14400,13 @@
         <v>107</v>
       </c>
       <c r="I16" s="349" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J16" s="349" t="s">
         <v>116</v>
       </c>
       <c r="K16" s="349" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L16" s="350"/>
       <c r="M16" s="351" t="s">
@@ -14438,7 +14429,7 @@
       <c r="C17" s="301"/>
       <c r="D17" s="302"/>
       <c r="E17" s="303" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" s="48"/>
       <c r="G17" s="49"/>
@@ -14452,7 +14443,7 @@
         <v>118</v>
       </c>
       <c r="K17" s="355" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L17" s="356"/>
       <c r="M17" s="357" t="s">
@@ -14475,7 +14466,7 @@
       <c r="C18" s="301"/>
       <c r="D18" s="302"/>
       <c r="E18" s="304" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F18" s="251"/>
       <c r="G18" s="252"/>
@@ -14483,13 +14474,13 @@
         <v>107</v>
       </c>
       <c r="I18" s="361" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J18" s="362" t="s">
         <v>119</v>
       </c>
       <c r="K18" s="362" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L18" s="363"/>
       <c r="M18" s="334" t="s">
@@ -14518,7 +14509,7 @@
         <v>120</v>
       </c>
       <c r="K19" s="362" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L19" s="367"/>
       <c r="M19" s="334" t="s">
@@ -14547,7 +14538,7 @@
         <v>121</v>
       </c>
       <c r="K20" s="371" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L20" s="367"/>
       <c r="M20" s="334" t="s">
@@ -14570,7 +14561,7 @@
       <c r="C21" s="309"/>
       <c r="D21" s="310"/>
       <c r="E21" s="311" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F21" s="61"/>
       <c r="G21" s="62"/>
@@ -14578,10 +14569,10 @@
         <v>107</v>
       </c>
       <c r="I21" s="373" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J21" s="373" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K21" s="373"/>
       <c r="L21" s="374"/>
@@ -14681,7 +14672,7 @@
       <c r="B25" s="320"/>
       <c r="C25" s="310"/>
       <c r="D25" s="321" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E25" s="322"/>
       <c r="F25" s="41"/>
@@ -14693,7 +14684,7 @@
         <v>129</v>
       </c>
       <c r="J25" s="386" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K25" s="386"/>
       <c r="L25" s="387"/>
@@ -14709,22 +14700,22 @@
       </c>
       <c r="B26" s="267"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="1013" t="s">
+      <c r="D26" s="948" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="949" t="s">
         <v>417</v>
       </c>
-      <c r="E26" s="1014" t="s">
+      <c r="F26" s="950" t="s">
         <v>418</v>
       </c>
-      <c r="F26" s="1015" t="s">
+      <c r="G26" s="951" t="s">
         <v>419</v>
       </c>
-      <c r="G26" s="1016" t="s">
-        <v>420</v>
-      </c>
-      <c r="H26" s="1017" t="s">
+      <c r="H26" s="952" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="1018" t="s">
+      <c r="I26" s="953" t="s">
         <v>129</v>
       </c>
       <c r="J26" s="66"/>
@@ -14742,20 +14733,20 @@
       </c>
       <c r="B27" s="267"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="1019"/>
-      <c r="E27" s="1020" t="s">
+      <c r="D27" s="954"/>
+      <c r="E27" s="955" t="s">
+        <v>420</v>
+      </c>
+      <c r="F27" s="956" t="s">
+        <v>418</v>
+      </c>
+      <c r="G27" s="957" t="s">
         <v>421</v>
       </c>
-      <c r="F27" s="1021" t="s">
-        <v>419</v>
-      </c>
-      <c r="G27" s="1022" t="s">
-        <v>422</v>
-      </c>
-      <c r="H27" s="1023" t="s">
+      <c r="H27" s="958" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="1024" t="s">
+      <c r="I27" s="959" t="s">
         <v>129</v>
       </c>
       <c r="J27" s="39"/>
@@ -14773,20 +14764,20 @@
       </c>
       <c r="B28" s="267"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="1019"/>
-      <c r="E28" s="1025" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" s="1026" t="s">
-        <v>419</v>
-      </c>
-      <c r="G28" s="1027" t="s">
+      <c r="D28" s="954"/>
+      <c r="E28" s="960" t="s">
         <v>422</v>
       </c>
-      <c r="H28" s="1028" t="s">
+      <c r="F28" s="961" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" s="962" t="s">
+        <v>421</v>
+      </c>
+      <c r="H28" s="963" t="s">
         <v>107</v>
       </c>
-      <c r="I28" s="1029" t="s">
+      <c r="I28" s="964" t="s">
         <v>129</v>
       </c>
       <c r="J28" s="39"/>
@@ -14804,20 +14795,20 @@
       </c>
       <c r="B29" s="267"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="1019"/>
-      <c r="E29" s="1030" t="s">
-        <v>424</v>
-      </c>
-      <c r="F29" s="1031" t="s">
-        <v>419</v>
-      </c>
-      <c r="G29" s="1032" t="s">
-        <v>422</v>
-      </c>
-      <c r="H29" s="1033" t="s">
+      <c r="D29" s="954"/>
+      <c r="E29" s="965" t="s">
+        <v>423</v>
+      </c>
+      <c r="F29" s="966" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" s="967" t="s">
+        <v>421</v>
+      </c>
+      <c r="H29" s="968" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="1034" t="s">
+      <c r="I29" s="969" t="s">
         <v>129</v>
       </c>
       <c r="J29" s="39"/>
@@ -14868,7 +14859,7 @@
       <c r="C31" s="395"/>
       <c r="D31" s="396"/>
       <c r="E31" s="394" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F31" s="61"/>
       <c r="G31" s="62"/>
@@ -14984,7 +14975,7 @@
       <c r="C35" s="310"/>
       <c r="D35" s="310"/>
       <c r="E35" s="311" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F35" s="61"/>
       <c r="G35" s="62"/>
@@ -15013,7 +15004,7 @@
       <c r="C36" s="310"/>
       <c r="D36" s="397"/>
       <c r="E36" s="397" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F36" s="71"/>
       <c r="G36" s="72"/>
@@ -15104,7 +15095,7 @@
       <c r="C39" s="309"/>
       <c r="D39" s="400"/>
       <c r="E39" s="399" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F39" s="71"/>
       <c r="G39" s="72"/>
@@ -15112,7 +15103,7 @@
         <v>219</v>
       </c>
       <c r="I39" s="439" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J39" s="439" t="s">
         <v>221</v>
@@ -15141,7 +15132,7 @@
         <v>219</v>
       </c>
       <c r="I40" s="439" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J40" s="439" t="s">
         <v>221</v>
@@ -15170,7 +15161,7 @@
         <v>219</v>
       </c>
       <c r="I41" s="439" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J41" s="439" t="s">
         <v>221</v>
@@ -15338,7 +15329,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="399" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F47" s="71"/>
       <c r="G47" s="72"/>
@@ -15346,7 +15337,7 @@
         <v>219</v>
       </c>
       <c r="I47" s="439" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J47" s="439" t="s">
         <v>224</v>
@@ -15375,7 +15366,7 @@
         <v>219</v>
       </c>
       <c r="I48" s="439" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J48" s="439" t="s">
         <v>224</v>
@@ -15454,7 +15445,7 @@
       <c r="C51" s="309"/>
       <c r="D51" s="400"/>
       <c r="E51" s="404" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F51" s="71"/>
       <c r="G51" s="72"/>
@@ -15749,7 +15740,7 @@
         <v>189</v>
       </c>
       <c r="D61" s="417" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E61" s="418" t="s">
         <v>190</v>
@@ -15760,7 +15751,7 @@
         <v>229</v>
       </c>
       <c r="I61" s="302" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J61" s="499" t="s">
         <v>230</v>
@@ -15769,7 +15760,7 @@
         <v>231</v>
       </c>
       <c r="L61" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M61" s="334" t="s">
         <v>111</v>
@@ -15808,7 +15799,7 @@
         <v>233</v>
       </c>
       <c r="L62" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M62" s="334" t="s">
         <v>111</v>
@@ -15847,7 +15838,7 @@
         <v>233</v>
       </c>
       <c r="L63" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M63" s="334" t="s">
         <v>111</v>
@@ -15877,7 +15868,7 @@
         <v>229</v>
       </c>
       <c r="I64" s="503" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J64" s="499" t="s">
         <v>234</v>
@@ -15886,7 +15877,7 @@
         <v>235</v>
       </c>
       <c r="L64" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M64" s="334" t="s">
         <v>111</v>
@@ -15925,7 +15916,7 @@
         <v>233</v>
       </c>
       <c r="L65" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M65" s="334" t="s">
         <v>111</v>
@@ -16015,7 +16006,7 @@
         <v>229</v>
       </c>
       <c r="I68" s="506" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J68" s="423" t="s">
         <v>236</v>
@@ -16046,7 +16037,7 @@
         <v>229</v>
       </c>
       <c r="I69" s="498" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J69" s="425" t="s">
         <v>237</v>
@@ -16055,7 +16046,7 @@
         <v>238</v>
       </c>
       <c r="L69" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M69" s="334" t="s">
         <v>111</v>
@@ -16085,7 +16076,7 @@
         <v>229</v>
       </c>
       <c r="I70" s="498" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J70" s="425" t="s">
         <v>239</v>
@@ -16094,7 +16085,7 @@
         <v>240</v>
       </c>
       <c r="L70" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M70" s="334" t="s">
         <v>111</v>
@@ -16220,19 +16211,19 @@
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
       <c r="D74" s="310"/>
-      <c r="E74" s="1034" t="s">
+      <c r="E74" s="969" t="s">
+        <v>424</v>
+      </c>
+      <c r="F74" s="970" t="s">
+        <v>418</v>
+      </c>
+      <c r="G74" s="971" t="s">
         <v>425</v>
       </c>
-      <c r="F74" s="1035" t="s">
-        <v>419</v>
-      </c>
-      <c r="G74" s="1036" t="s">
-        <v>426</v>
-      </c>
-      <c r="H74" s="1037" t="s">
+      <c r="H74" s="972" t="s">
         <v>107</v>
       </c>
-      <c r="I74" s="1038" t="s">
+      <c r="I74" s="973" t="s">
         <v>241</v>
       </c>
       <c r="J74" s="93"/>
@@ -16620,21 +16611,21 @@
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
-      <c r="D87" s="1039" t="s">
+      <c r="D87" s="974" t="s">
+        <v>426</v>
+      </c>
+      <c r="E87" s="975"/>
+      <c r="F87" s="966" t="s">
+        <v>418</v>
+      </c>
+      <c r="G87" s="967" t="s">
         <v>427</v>
       </c>
-      <c r="E87" s="1040"/>
-      <c r="F87" s="1031" t="s">
-        <v>419</v>
-      </c>
-      <c r="G87" s="1032" t="s">
+      <c r="H87" s="976" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="977" t="s">
         <v>428</v>
-      </c>
-      <c r="H87" s="1041" t="s">
-        <v>107</v>
-      </c>
-      <c r="I87" s="1042" t="s">
-        <v>429</v>
       </c>
       <c r="J87" s="93"/>
       <c r="K87" s="93"/>
@@ -16672,7 +16663,7 @@
         <v>235</v>
       </c>
       <c r="L88" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M88" s="523" t="s">
         <v>111</v>
@@ -16713,7 +16704,7 @@
         <v>235</v>
       </c>
       <c r="L89" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M89" s="523" t="s">
         <v>111</v>
@@ -16781,7 +16772,7 @@
         <v>235</v>
       </c>
       <c r="L91" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M91" s="523" t="s">
         <v>111</v>
@@ -16820,7 +16811,7 @@
         <v>235</v>
       </c>
       <c r="L92" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M92" s="523" t="s">
         <v>111</v>
@@ -16859,7 +16850,7 @@
         <v>235</v>
       </c>
       <c r="L93" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M93" s="523" t="s">
         <v>111</v>
@@ -16879,20 +16870,20 @@
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="1043" t="s">
+      <c r="D94" s="978" t="s">
+        <v>429</v>
+      </c>
+      <c r="E94" s="979"/>
+      <c r="F94" s="966" t="s">
+        <v>418</v>
+      </c>
+      <c r="G94" s="967" t="s">
         <v>430</v>
       </c>
-      <c r="E94" s="1044"/>
-      <c r="F94" s="1031" t="s">
-        <v>419</v>
-      </c>
-      <c r="G94" s="1032" t="s">
+      <c r="H94" s="980" t="s">
         <v>431</v>
       </c>
-      <c r="H94" s="1045" t="s">
-        <v>432</v>
-      </c>
-      <c r="I94" s="1045" t="s">
+      <c r="I94" s="980" t="s">
         <v>291</v>
       </c>
       <c r="J94" s="93"/>
@@ -16910,20 +16901,20 @@
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
-      <c r="D95" s="1046" t="s">
-        <v>433</v>
-      </c>
-      <c r="E95" s="1047"/>
-      <c r="F95" s="1035" t="s">
-        <v>419</v>
-      </c>
-      <c r="G95" s="1036" t="s">
-        <v>422</v>
-      </c>
-      <c r="H95" s="1048" t="s">
+      <c r="D95" s="981" t="s">
         <v>432</v>
       </c>
-      <c r="I95" s="1048" t="s">
+      <c r="E95" s="982"/>
+      <c r="F95" s="970" t="s">
+        <v>418</v>
+      </c>
+      <c r="G95" s="971" t="s">
+        <v>421</v>
+      </c>
+      <c r="H95" s="983" t="s">
+        <v>431</v>
+      </c>
+      <c r="I95" s="983" t="s">
         <v>291</v>
       </c>
       <c r="J95" s="93"/>
@@ -16941,20 +16932,20 @@
       </c>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
-      <c r="D96" s="1049" t="s">
-        <v>434</v>
-      </c>
-      <c r="E96" s="1050"/>
-      <c r="F96" s="1051" t="s">
-        <v>419</v>
-      </c>
-      <c r="G96" s="1052" t="s">
-        <v>422</v>
-      </c>
-      <c r="H96" s="1053" t="s">
-        <v>432</v>
-      </c>
-      <c r="I96" s="1053" t="s">
+      <c r="D96" s="984" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" s="985"/>
+      <c r="F96" s="986" t="s">
+        <v>418</v>
+      </c>
+      <c r="G96" s="987" t="s">
+        <v>421</v>
+      </c>
+      <c r="H96" s="988" t="s">
+        <v>431</v>
+      </c>
+      <c r="I96" s="988" t="s">
         <v>291</v>
       </c>
       <c r="J96" s="93"/>
@@ -16972,20 +16963,20 @@
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
-      <c r="D97" s="1054" t="s">
-        <v>435</v>
-      </c>
-      <c r="E97" s="1055"/>
-      <c r="F97" s="1056" t="s">
-        <v>419</v>
-      </c>
-      <c r="G97" s="1057" t="s">
-        <v>422</v>
-      </c>
-      <c r="H97" s="1058" t="s">
-        <v>432</v>
-      </c>
-      <c r="I97" s="1058" t="s">
+      <c r="D97" s="989" t="s">
+        <v>434</v>
+      </c>
+      <c r="E97" s="990"/>
+      <c r="F97" s="991" t="s">
+        <v>418</v>
+      </c>
+      <c r="G97" s="992" t="s">
+        <v>421</v>
+      </c>
+      <c r="H97" s="993" t="s">
+        <v>431</v>
+      </c>
+      <c r="I97" s="993" t="s">
         <v>291</v>
       </c>
       <c r="J97" s="93"/>
@@ -17003,20 +16994,20 @@
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
-      <c r="D98" s="1059" t="s">
-        <v>436</v>
-      </c>
-      <c r="E98" s="1060"/>
-      <c r="F98" s="1061" t="s">
-        <v>419</v>
-      </c>
-      <c r="G98" s="1062" t="s">
-        <v>422</v>
-      </c>
-      <c r="H98" s="1063" t="s">
-        <v>432</v>
-      </c>
-      <c r="I98" s="1063" t="s">
+      <c r="D98" s="994" t="s">
+        <v>435</v>
+      </c>
+      <c r="E98" s="995"/>
+      <c r="F98" s="996" t="s">
+        <v>418</v>
+      </c>
+      <c r="G98" s="997" t="s">
+        <v>421</v>
+      </c>
+      <c r="H98" s="998" t="s">
+        <v>431</v>
+      </c>
+      <c r="I98" s="998" t="s">
         <v>291</v>
       </c>
       <c r="J98" s="93"/>
@@ -17141,10 +17132,10 @@
         <v>306</v>
       </c>
       <c r="K102" s="425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L102" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M102" s="523" t="s">
         <v>111</v>
@@ -17230,20 +17221,20 @@
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
-      <c r="D105" s="1064" t="s">
+      <c r="D105" s="999" t="s">
+        <v>436</v>
+      </c>
+      <c r="E105" s="1000"/>
+      <c r="F105" s="1001" t="s">
+        <v>418</v>
+      </c>
+      <c r="G105" s="1002" t="s">
         <v>437</v>
       </c>
-      <c r="E105" s="1065"/>
-      <c r="F105" s="1066" t="s">
-        <v>419</v>
-      </c>
-      <c r="G105" s="1067" t="s">
-        <v>438</v>
-      </c>
-      <c r="H105" s="1068" t="s">
-        <v>432</v>
-      </c>
-      <c r="I105" s="1068" t="s">
+      <c r="H105" s="1003" t="s">
+        <v>431</v>
+      </c>
+      <c r="I105" s="1003" t="s">
         <v>291</v>
       </c>
       <c r="J105" s="102"/>
@@ -17356,18 +17347,18 @@
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
-      <c r="D109" s="1069" t="s">
+      <c r="D109" s="1004" t="s">
+        <v>438</v>
+      </c>
+      <c r="E109" s="1005"/>
+      <c r="F109" s="1001" t="s">
+        <v>418</v>
+      </c>
+      <c r="G109" s="1002" t="s">
         <v>439</v>
       </c>
-      <c r="E109" s="1070"/>
-      <c r="F109" s="1066" t="s">
-        <v>419</v>
-      </c>
-      <c r="G109" s="1067" t="s">
-        <v>440</v>
-      </c>
       <c r="H109" s="310" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I109" s="310" t="s">
         <v>291</v>
@@ -17387,18 +17378,18 @@
       </c>
       <c r="B110" s="271"/>
       <c r="C110" s="271"/>
-      <c r="D110" s="1071" t="s">
+      <c r="D110" s="1006" t="s">
+        <v>440</v>
+      </c>
+      <c r="E110" s="1007"/>
+      <c r="F110" s="1001" t="s">
+        <v>418</v>
+      </c>
+      <c r="G110" s="1002" t="s">
         <v>441</v>
       </c>
-      <c r="E110" s="1072"/>
-      <c r="F110" s="1066" t="s">
-        <v>419</v>
-      </c>
-      <c r="G110" s="1067" t="s">
-        <v>442</v>
-      </c>
       <c r="H110" s="892" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I110" s="892" t="s">
         <v>129</v>
@@ -17632,7 +17623,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="280" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17647,7 +17638,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="280" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I6" s="280" t="s">
         <v>95</v>
@@ -17661,7 +17652,7 @@
         <v>72</v>
       </c>
       <c r="I7" s="280" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J7" s="280" t="s">
         <v>97</v>
@@ -17708,11 +17699,11 @@
       <c r="E10" s="937" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1073" t="s">
+      <c r="F10" s="1008" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" s="1009" t="s">
         <v>415</v>
-      </c>
-      <c r="G10" s="1074" t="s">
-        <v>416</v>
       </c>
       <c r="H10" s="938" t="s">
         <v>98</v>
@@ -17727,7 +17718,7 @@
         <v>101</v>
       </c>
       <c r="L10" s="939" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M10" s="939" t="s">
         <v>102</v>
@@ -17772,7 +17763,7 @@
         <v>321</v>
       </c>
       <c r="L11" s="326" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M11" s="327" t="s">
         <v>111</v>
@@ -17824,7 +17815,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="567" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E13" s="567" t="s">
         <v>88</v>
@@ -17835,7 +17826,7 @@
         <v>107</v>
       </c>
       <c r="I13" s="574" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J13" s="574" t="s">
         <v>322</v>
@@ -17856,7 +17847,7 @@
       <c r="C14" s="309"/>
       <c r="D14" s="310"/>
       <c r="E14" s="568" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
@@ -17885,7 +17876,7 @@
       <c r="C15" s="309"/>
       <c r="D15" s="310"/>
       <c r="E15" s="568" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F15" s="124"/>
       <c r="G15" s="125"/>
@@ -17893,7 +17884,7 @@
         <v>107</v>
       </c>
       <c r="I15" s="586" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J15" s="574" t="s">
         <v>322</v>
@@ -17914,7 +17905,7 @@
       <c r="C16" s="309"/>
       <c r="D16" s="310"/>
       <c r="E16" s="568" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
@@ -17922,10 +17913,10 @@
         <v>107</v>
       </c>
       <c r="I16" s="586" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J16" s="586" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K16" s="586"/>
       <c r="L16" s="587"/>
@@ -17971,7 +17962,7 @@
       <c r="B18" s="320"/>
       <c r="C18" s="310"/>
       <c r="D18" s="321" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E18" s="322"/>
       <c r="F18" s="41"/>
@@ -17983,7 +17974,7 @@
         <v>129</v>
       </c>
       <c r="J18" s="386" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K18" s="593"/>
       <c r="L18" s="387"/>
@@ -17999,22 +17990,22 @@
       </c>
       <c r="B19" s="267"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="1075" t="s">
+      <c r="D19" s="1010" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="1011" t="s">
         <v>417</v>
       </c>
-      <c r="E19" s="1076" t="s">
+      <c r="F19" s="1001" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="1066" t="s">
+      <c r="G19" s="1002" t="s">
         <v>419</v>
       </c>
-      <c r="G19" s="1067" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="1077" t="s">
+      <c r="H19" s="1012" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="1078" t="s">
+      <c r="I19" s="1013" t="s">
         <v>129</v>
       </c>
       <c r="J19" s="66"/>
@@ -18032,20 +18023,20 @@
       </c>
       <c r="B20" s="267"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="1019"/>
-      <c r="E20" s="1079" t="s">
+      <c r="D20" s="954"/>
+      <c r="E20" s="1014" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="1015" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="1016" t="s">
         <v>421</v>
       </c>
-      <c r="F20" s="1080" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="1081" t="s">
-        <v>422</v>
-      </c>
-      <c r="H20" s="1082" t="s">
+      <c r="H20" s="1017" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="1083" t="s">
+      <c r="I20" s="1018" t="s">
         <v>129</v>
       </c>
       <c r="J20" s="39"/>
@@ -18063,20 +18054,20 @@
       </c>
       <c r="B21" s="267"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="1019"/>
-      <c r="E21" s="1084" t="s">
-        <v>423</v>
-      </c>
-      <c r="F21" s="1085" t="s">
-        <v>419</v>
-      </c>
-      <c r="G21" s="1086" t="s">
+      <c r="D21" s="954"/>
+      <c r="E21" s="1019" t="s">
         <v>422</v>
       </c>
-      <c r="H21" s="1087" t="s">
+      <c r="F21" s="1020" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="1021" t="s">
+        <v>421</v>
+      </c>
+      <c r="H21" s="1022" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="1088" t="s">
+      <c r="I21" s="1023" t="s">
         <v>129</v>
       </c>
       <c r="J21" s="39"/>
@@ -18094,20 +18085,20 @@
       </c>
       <c r="B22" s="267"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="1019"/>
-      <c r="E22" s="1089" t="s">
-        <v>424</v>
-      </c>
-      <c r="F22" s="1090" t="s">
-        <v>419</v>
-      </c>
-      <c r="G22" s="1091" t="s">
-        <v>422</v>
-      </c>
-      <c r="H22" s="1092" t="s">
+      <c r="D22" s="954"/>
+      <c r="E22" s="1024" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="1025" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="1026" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="1027" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="1093" t="s">
+      <c r="I22" s="1028" t="s">
         <v>129</v>
       </c>
       <c r="J22" s="39"/>
@@ -18158,7 +18149,7 @@
       <c r="C24" s="395"/>
       <c r="D24" s="396"/>
       <c r="E24" s="596" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F24" s="138"/>
       <c r="G24" s="139"/>
@@ -18274,7 +18265,7 @@
       <c r="C28" s="310"/>
       <c r="D28" s="310"/>
       <c r="E28" s="597" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F28" s="146"/>
       <c r="G28" s="147"/>
@@ -18303,7 +18294,7 @@
       <c r="C29" s="310"/>
       <c r="D29" s="397"/>
       <c r="E29" s="397" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="148"/>
       <c r="G29" s="149"/>
@@ -18394,7 +18385,7 @@
       <c r="C32" s="309"/>
       <c r="D32" s="400"/>
       <c r="E32" s="600" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F32" s="148"/>
       <c r="G32" s="149"/>
@@ -18402,7 +18393,7 @@
         <v>219</v>
       </c>
       <c r="I32" s="641" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J32" s="439" t="s">
         <v>221</v>
@@ -18431,7 +18422,7 @@
         <v>219</v>
       </c>
       <c r="I33" s="641" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J33" s="439" t="s">
         <v>221</v>
@@ -18460,7 +18451,7 @@
         <v>219</v>
       </c>
       <c r="I34" s="641" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J34" s="439" t="s">
         <v>221</v>
@@ -18628,7 +18619,7 @@
         <v>164</v>
       </c>
       <c r="E40" s="600" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F40" s="148"/>
       <c r="G40" s="149"/>
@@ -18636,7 +18627,7 @@
         <v>219</v>
       </c>
       <c r="I40" s="641" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J40" s="439" t="s">
         <v>224</v>
@@ -18665,7 +18656,7 @@
         <v>219</v>
       </c>
       <c r="I41" s="641" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J41" s="439" t="s">
         <v>224</v>
@@ -18744,7 +18735,7 @@
       <c r="C44" s="309"/>
       <c r="D44" s="400"/>
       <c r="E44" s="404" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F44" s="148"/>
       <c r="G44" s="149"/>
@@ -19039,7 +19030,7 @@
         <v>189</v>
       </c>
       <c r="D54" s="612" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E54" s="613" t="s">
         <v>190</v>
@@ -19050,7 +19041,7 @@
         <v>229</v>
       </c>
       <c r="I54" s="302" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J54" s="499" t="s">
         <v>230</v>
@@ -19059,7 +19050,7 @@
         <v>231</v>
       </c>
       <c r="L54" s="501" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M54" s="334" t="s">
         <v>111</v>
@@ -19098,7 +19089,7 @@
         <v>233</v>
       </c>
       <c r="L55" s="333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M55" s="334" t="s">
         <v>111</v>
@@ -19137,7 +19128,7 @@
         <v>233</v>
       </c>
       <c r="L56" s="333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M56" s="334" t="s">
         <v>111</v>
@@ -19167,7 +19158,7 @@
         <v>229</v>
       </c>
       <c r="I57" s="701" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J57" s="499" t="s">
         <v>234</v>
@@ -19176,7 +19167,7 @@
         <v>235</v>
       </c>
       <c r="L57" s="333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M57" s="334" t="s">
         <v>111</v>
@@ -19215,7 +19206,7 @@
         <v>233</v>
       </c>
       <c r="L58" s="333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M58" s="334" t="s">
         <v>111</v>
@@ -19305,7 +19296,7 @@
         <v>229</v>
       </c>
       <c r="I61" s="506" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J61" s="423" t="s">
         <v>236</v>
@@ -19336,7 +19327,7 @@
         <v>229</v>
       </c>
       <c r="I62" s="699" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J62" s="425" t="s">
         <v>237</v>
@@ -19345,7 +19336,7 @@
         <v>238</v>
       </c>
       <c r="L62" s="333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M62" s="334" t="s">
         <v>111</v>
@@ -19375,7 +19366,7 @@
         <v>229</v>
       </c>
       <c r="I63" s="699" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J63" s="425" t="s">
         <v>239</v>
@@ -19384,7 +19375,7 @@
         <v>240</v>
       </c>
       <c r="L63" s="333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M63" s="334" t="s">
         <v>111</v>
@@ -19510,19 +19501,19 @@
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="310"/>
-      <c r="E67" s="1093" t="s">
+      <c r="E67" s="1028" t="s">
+        <v>424</v>
+      </c>
+      <c r="F67" s="1029" t="s">
+        <v>418</v>
+      </c>
+      <c r="G67" s="1030" t="s">
         <v>425</v>
       </c>
-      <c r="F67" s="1094" t="s">
-        <v>419</v>
-      </c>
-      <c r="G67" s="1095" t="s">
-        <v>426</v>
-      </c>
-      <c r="H67" s="1096" t="s">
+      <c r="H67" s="1031" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="1097" t="s">
+      <c r="I67" s="1032" t="s">
         <v>241</v>
       </c>
       <c r="J67" s="93"/>
@@ -19894,21 +19885,21 @@
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
-      <c r="D80" s="1098" t="s">
+      <c r="D80" s="1033" t="s">
+        <v>426</v>
+      </c>
+      <c r="E80" s="1034"/>
+      <c r="F80" s="1025" t="s">
+        <v>418</v>
+      </c>
+      <c r="G80" s="1026" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="1099"/>
-      <c r="F80" s="1090" t="s">
-        <v>419</v>
-      </c>
-      <c r="G80" s="1091" t="s">
+      <c r="H80" s="1035" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" s="1036" t="s">
         <v>428</v>
-      </c>
-      <c r="H80" s="1100" t="s">
-        <v>107</v>
-      </c>
-      <c r="I80" s="1101" t="s">
-        <v>429</v>
       </c>
       <c r="J80" s="171"/>
       <c r="K80" s="171"/>
@@ -19946,7 +19937,7 @@
         <v>235</v>
       </c>
       <c r="L81" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M81" s="715" t="s">
         <v>111</v>
@@ -19987,7 +19978,7 @@
         <v>235</v>
       </c>
       <c r="L82" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M82" s="715" t="s">
         <v>111</v>
@@ -20055,7 +20046,7 @@
         <v>235</v>
       </c>
       <c r="L84" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M84" s="715" t="s">
         <v>111</v>
@@ -20094,7 +20085,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M85" s="715" t="s">
         <v>111</v>
@@ -20133,7 +20124,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M86" s="715" t="s">
         <v>111</v>
@@ -20153,20 +20144,20 @@
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
-      <c r="D87" s="1102" t="s">
+      <c r="D87" s="1037" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87" s="1038"/>
+      <c r="F87" s="1025" t="s">
+        <v>418</v>
+      </c>
+      <c r="G87" s="1026" t="s">
         <v>430</v>
       </c>
-      <c r="E87" s="1103"/>
-      <c r="F87" s="1090" t="s">
-        <v>419</v>
-      </c>
-      <c r="G87" s="1091" t="s">
+      <c r="H87" s="1039" t="s">
         <v>431</v>
       </c>
-      <c r="H87" s="1104" t="s">
-        <v>432</v>
-      </c>
-      <c r="I87" s="1104" t="s">
+      <c r="I87" s="1039" t="s">
         <v>291</v>
       </c>
       <c r="J87" s="171"/>
@@ -20184,20 +20175,20 @@
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
-      <c r="D88" s="1105" t="s">
-        <v>433</v>
-      </c>
-      <c r="E88" s="1106"/>
-      <c r="F88" s="1094" t="s">
-        <v>419</v>
-      </c>
-      <c r="G88" s="1095" t="s">
-        <v>422</v>
-      </c>
-      <c r="H88" s="1107" t="s">
+      <c r="D88" s="1040" t="s">
         <v>432</v>
       </c>
-      <c r="I88" s="1107" t="s">
+      <c r="E88" s="1041"/>
+      <c r="F88" s="1029" t="s">
+        <v>418</v>
+      </c>
+      <c r="G88" s="1030" t="s">
+        <v>421</v>
+      </c>
+      <c r="H88" s="1042" t="s">
+        <v>431</v>
+      </c>
+      <c r="I88" s="1042" t="s">
         <v>291</v>
       </c>
       <c r="J88" s="171"/>
@@ -20215,20 +20206,20 @@
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="1108" t="s">
-        <v>434</v>
-      </c>
-      <c r="E89" s="1109"/>
-      <c r="F89" s="1110" t="s">
-        <v>419</v>
-      </c>
-      <c r="G89" s="1111" t="s">
-        <v>422</v>
-      </c>
-      <c r="H89" s="1112" t="s">
-        <v>432</v>
-      </c>
-      <c r="I89" s="1112" t="s">
+      <c r="D89" s="1043" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" s="1044"/>
+      <c r="F89" s="1045" t="s">
+        <v>418</v>
+      </c>
+      <c r="G89" s="1046" t="s">
+        <v>421</v>
+      </c>
+      <c r="H89" s="1047" t="s">
+        <v>431</v>
+      </c>
+      <c r="I89" s="1047" t="s">
         <v>291</v>
       </c>
       <c r="J89" s="171"/>
@@ -20246,20 +20237,20 @@
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
-      <c r="D90" s="1113" t="s">
-        <v>435</v>
-      </c>
-      <c r="E90" s="1114"/>
-      <c r="F90" s="1115" t="s">
-        <v>419</v>
-      </c>
-      <c r="G90" s="1116" t="s">
-        <v>422</v>
-      </c>
-      <c r="H90" s="1117" t="s">
-        <v>432</v>
-      </c>
-      <c r="I90" s="1117" t="s">
+      <c r="D90" s="1048" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="1049"/>
+      <c r="F90" s="1050" t="s">
+        <v>418</v>
+      </c>
+      <c r="G90" s="1051" t="s">
+        <v>421</v>
+      </c>
+      <c r="H90" s="1052" t="s">
+        <v>431</v>
+      </c>
+      <c r="I90" s="1052" t="s">
         <v>291</v>
       </c>
       <c r="J90" s="171"/>
@@ -20277,20 +20268,20 @@
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
-      <c r="D91" s="1118" t="s">
-        <v>436</v>
-      </c>
-      <c r="E91" s="1119"/>
-      <c r="F91" s="1120" t="s">
-        <v>419</v>
-      </c>
-      <c r="G91" s="1121" t="s">
-        <v>422</v>
-      </c>
-      <c r="H91" s="1122" t="s">
-        <v>432</v>
-      </c>
-      <c r="I91" s="1122" t="s">
+      <c r="D91" s="1053" t="s">
+        <v>435</v>
+      </c>
+      <c r="E91" s="1054"/>
+      <c r="F91" s="1055" t="s">
+        <v>418</v>
+      </c>
+      <c r="G91" s="1056" t="s">
+        <v>421</v>
+      </c>
+      <c r="H91" s="1057" t="s">
+        <v>431</v>
+      </c>
+      <c r="I91" s="1057" t="s">
         <v>291</v>
       </c>
       <c r="J91" s="171"/>
@@ -20327,7 +20318,7 @@
         <v>325</v>
       </c>
       <c r="L92" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M92" s="715" t="s">
         <v>111</v>
@@ -20392,10 +20383,10 @@
         <v>306</v>
       </c>
       <c r="K94" s="425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L94" s="714" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M94" s="334" t="s">
         <v>111</v>
@@ -20473,20 +20464,20 @@
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
-      <c r="D97" s="1123" t="s">
+      <c r="D97" s="1058" t="s">
+        <v>436</v>
+      </c>
+      <c r="E97" s="1059"/>
+      <c r="F97" s="1060" t="s">
+        <v>418</v>
+      </c>
+      <c r="G97" s="1061" t="s">
         <v>437</v>
       </c>
-      <c r="E97" s="1124"/>
-      <c r="F97" s="1125" t="s">
-        <v>419</v>
-      </c>
-      <c r="G97" s="1126" t="s">
-        <v>438</v>
-      </c>
-      <c r="H97" s="1068" t="s">
-        <v>432</v>
-      </c>
-      <c r="I97" s="1068" t="s">
+      <c r="H97" s="1003" t="s">
+        <v>431</v>
+      </c>
+      <c r="I97" s="1003" t="s">
         <v>291</v>
       </c>
       <c r="J97" s="180"/>
@@ -20599,18 +20590,18 @@
       </c>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="1069" t="s">
+      <c r="D101" s="1004" t="s">
+        <v>438</v>
+      </c>
+      <c r="E101" s="1005"/>
+      <c r="F101" s="1060" t="s">
+        <v>418</v>
+      </c>
+      <c r="G101" s="1061" t="s">
         <v>439</v>
       </c>
-      <c r="E101" s="1070"/>
-      <c r="F101" s="1125" t="s">
-        <v>419</v>
-      </c>
-      <c r="G101" s="1126" t="s">
-        <v>440</v>
-      </c>
       <c r="H101" s="310" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I101" s="310" t="s">
         <v>291</v>
@@ -20630,18 +20621,18 @@
       </c>
       <c r="B102" s="271"/>
       <c r="C102" s="271"/>
-      <c r="D102" s="1071" t="s">
+      <c r="D102" s="1006" t="s">
+        <v>440</v>
+      </c>
+      <c r="E102" s="1007"/>
+      <c r="F102" s="1060" t="s">
+        <v>418</v>
+      </c>
+      <c r="G102" s="1061" t="s">
         <v>441</v>
       </c>
-      <c r="E102" s="1072"/>
-      <c r="F102" s="1125" t="s">
-        <v>419</v>
-      </c>
-      <c r="G102" s="1126" t="s">
-        <v>442</v>
-      </c>
       <c r="H102" s="892" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I102" s="892" t="s">
         <v>129</v>
@@ -20875,7 +20866,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="280" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -20890,7 +20881,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="280" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I6" s="280" t="s">
         <v>95</v>
@@ -20904,7 +20895,7 @@
         <v>72</v>
       </c>
       <c r="I7" s="280" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J7" s="280" t="s">
         <v>97</v>
@@ -20951,11 +20942,11 @@
       <c r="E10" s="942" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1127" t="s">
+      <c r="F10" s="1062" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" s="1063" t="s">
         <v>415</v>
-      </c>
-      <c r="G10" s="1128" t="s">
-        <v>416</v>
       </c>
       <c r="H10" s="931" t="s">
         <v>98</v>
@@ -20970,7 +20961,7 @@
         <v>101</v>
       </c>
       <c r="L10" s="943" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M10" s="943" t="s">
         <v>102</v>
@@ -21015,7 +21006,7 @@
         <v>321</v>
       </c>
       <c r="L11" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M11" s="337" t="s">
         <v>111</v>
@@ -21054,7 +21045,7 @@
         <v>333</v>
       </c>
       <c r="L12" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M12" s="337" t="s">
         <v>111</v>
@@ -21077,7 +21068,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="739" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E13" s="739" t="s">
         <v>88</v>
@@ -21088,10 +21079,10 @@
         <v>107</v>
       </c>
       <c r="I13" s="574" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J13" s="574" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K13" s="574"/>
       <c r="L13" s="575"/>
@@ -21109,7 +21100,7 @@
       <c r="C14" s="309"/>
       <c r="D14" s="310"/>
       <c r="E14" s="740" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14" s="190"/>
       <c r="G14" s="191"/>
@@ -21120,7 +21111,7 @@
         <v>117</v>
       </c>
       <c r="J14" s="574" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K14" s="580"/>
       <c r="L14" s="581"/>
@@ -21138,7 +21129,7 @@
       <c r="C15" s="309"/>
       <c r="D15" s="310"/>
       <c r="E15" s="740" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F15" s="190"/>
       <c r="G15" s="191"/>
@@ -21146,10 +21137,10 @@
         <v>107</v>
       </c>
       <c r="I15" s="750" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J15" s="574" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K15" s="750"/>
       <c r="L15" s="751"/>
@@ -21167,7 +21158,7 @@
       <c r="C16" s="309"/>
       <c r="D16" s="310"/>
       <c r="E16" s="740" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" s="190"/>
       <c r="G16" s="191"/>
@@ -21175,10 +21166,10 @@
         <v>107</v>
       </c>
       <c r="I16" s="750" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J16" s="574" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K16" s="750"/>
       <c r="L16" s="751"/>
@@ -21224,7 +21215,7 @@
       <c r="B18" s="285"/>
       <c r="C18" s="302"/>
       <c r="D18" s="563" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E18" s="742"/>
       <c r="F18" s="257"/>
@@ -21260,26 +21251,26 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="1130" t="s">
+      <c r="D19" s="1065" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="1066" t="s">
         <v>417</v>
       </c>
-      <c r="E19" s="1131" t="s">
+      <c r="F19" s="1060" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="1125" t="s">
+      <c r="G19" s="1061" t="s">
         <v>419</v>
       </c>
-      <c r="G19" s="1126" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="1132" t="s">
+      <c r="H19" s="1067" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="1133" t="s">
+      <c r="I19" s="1068" t="s">
         <v>129</v>
       </c>
       <c r="J19" s="342" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K19" s="193"/>
       <c r="L19" s="34"/>
@@ -21295,24 +21286,24 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="1019"/>
-      <c r="E20" s="1134" t="s">
+      <c r="D20" s="954"/>
+      <c r="E20" s="1069" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="1070" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="1071" t="s">
         <v>421</v>
       </c>
-      <c r="F20" s="1135" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="1136" t="s">
-        <v>422</v>
-      </c>
-      <c r="H20" s="1137" t="s">
+      <c r="H20" s="1072" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="1138" t="s">
+      <c r="I20" s="1073" t="s">
         <v>129</v>
       </c>
       <c r="J20" s="342" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K20" s="194"/>
       <c r="L20" s="195"/>
@@ -21328,24 +21319,24 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="1019"/>
-      <c r="E21" s="1139" t="s">
-        <v>423</v>
-      </c>
-      <c r="F21" s="1140" t="s">
-        <v>419</v>
-      </c>
-      <c r="G21" s="1141" t="s">
+      <c r="D21" s="954"/>
+      <c r="E21" s="1074" t="s">
         <v>422</v>
       </c>
-      <c r="H21" s="1142" t="s">
+      <c r="F21" s="1075" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="1076" t="s">
+        <v>421</v>
+      </c>
+      <c r="H21" s="1077" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="1143" t="s">
+      <c r="I21" s="1078" t="s">
         <v>129</v>
       </c>
       <c r="J21" s="342" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K21" s="194"/>
       <c r="L21" s="195"/>
@@ -21361,24 +21352,24 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="1019"/>
-      <c r="E22" s="1144" t="s">
-        <v>424</v>
-      </c>
-      <c r="F22" s="1145" t="s">
-        <v>419</v>
-      </c>
-      <c r="G22" s="1146" t="s">
-        <v>422</v>
-      </c>
-      <c r="H22" s="1147" t="s">
+      <c r="D22" s="954"/>
+      <c r="E22" s="1079" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" s="1080" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="1081" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="1082" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="1148" t="s">
+      <c r="I22" s="1083" t="s">
         <v>129</v>
       </c>
       <c r="J22" s="342" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K22" s="194"/>
       <c r="L22" s="195"/>
@@ -21427,7 +21418,7 @@
       <c r="C24" s="395"/>
       <c r="D24" s="396"/>
       <c r="E24" s="764" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F24" s="190"/>
       <c r="G24" s="191"/>
@@ -21543,7 +21534,7 @@
       <c r="C28" s="310"/>
       <c r="D28" s="310"/>
       <c r="E28" s="765" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F28" s="164"/>
       <c r="G28" s="165"/>
@@ -21572,7 +21563,7 @@
       <c r="C29" s="310"/>
       <c r="D29" s="397"/>
       <c r="E29" s="397" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F29" s="199"/>
       <c r="G29" s="200"/>
@@ -21663,7 +21654,7 @@
       <c r="C32" s="309"/>
       <c r="D32" s="400"/>
       <c r="E32" s="767" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F32" s="199"/>
       <c r="G32" s="200"/>
@@ -21671,7 +21662,7 @@
         <v>219</v>
       </c>
       <c r="I32" s="808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J32" s="439" t="s">
         <v>221</v>
@@ -21700,7 +21691,7 @@
         <v>219</v>
       </c>
       <c r="I33" s="808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J33" s="439" t="s">
         <v>221</v>
@@ -21729,7 +21720,7 @@
         <v>219</v>
       </c>
       <c r="I34" s="808" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J34" s="439" t="s">
         <v>221</v>
@@ -21897,7 +21888,7 @@
         <v>164</v>
       </c>
       <c r="E40" s="767" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F40" s="199"/>
       <c r="G40" s="200"/>
@@ -21905,7 +21896,7 @@
         <v>219</v>
       </c>
       <c r="I40" s="808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J40" s="439" t="s">
         <v>224</v>
@@ -21934,7 +21925,7 @@
         <v>219</v>
       </c>
       <c r="I41" s="808" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J41" s="439" t="s">
         <v>228</v>
@@ -22013,7 +22004,7 @@
       <c r="C44" s="309"/>
       <c r="D44" s="400"/>
       <c r="E44" s="404" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="200"/>
@@ -22308,7 +22299,7 @@
         <v>189</v>
       </c>
       <c r="D54" s="779" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E54" s="780" t="s">
         <v>190</v>
@@ -22319,7 +22310,7 @@
         <v>229</v>
       </c>
       <c r="I54" s="302" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J54" s="499" t="s">
         <v>230</v>
@@ -22328,7 +22319,7 @@
         <v>231</v>
       </c>
       <c r="L54" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M54" s="334" t="s">
         <v>111</v>
@@ -22367,7 +22358,7 @@
         <v>233</v>
       </c>
       <c r="L55" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M55" s="337" t="s">
         <v>111</v>
@@ -22406,7 +22397,7 @@
         <v>233</v>
       </c>
       <c r="L56" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M56" s="337" t="s">
         <v>111</v>
@@ -22436,7 +22427,7 @@
         <v>229</v>
       </c>
       <c r="I57" s="867" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J57" s="499" t="s">
         <v>234</v>
@@ -22445,7 +22436,7 @@
         <v>235</v>
       </c>
       <c r="L57" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M57" s="337" t="s">
         <v>111</v>
@@ -22484,7 +22475,7 @@
         <v>233</v>
       </c>
       <c r="L58" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M58" s="337" t="s">
         <v>111</v>
@@ -22574,7 +22565,7 @@
         <v>229</v>
       </c>
       <c r="I61" s="869" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J61" s="423" t="s">
         <v>236</v>
@@ -22605,7 +22596,7 @@
         <v>229</v>
       </c>
       <c r="I62" s="866" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J62" s="425" t="s">
         <v>237</v>
@@ -22614,7 +22605,7 @@
         <v>238</v>
       </c>
       <c r="L62" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M62" s="337" t="s">
         <v>111</v>
@@ -22644,7 +22635,7 @@
         <v>229</v>
       </c>
       <c r="I63" s="866" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J63" s="425" t="s">
         <v>239</v>
@@ -22653,7 +22644,7 @@
         <v>240</v>
       </c>
       <c r="L63" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M63" s="337" t="s">
         <v>111</v>
@@ -22763,19 +22754,19 @@
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
       <c r="D67" s="310"/>
-      <c r="E67" s="1148" t="s">
+      <c r="E67" s="1083" t="s">
+        <v>424</v>
+      </c>
+      <c r="F67" s="1084" t="s">
+        <v>418</v>
+      </c>
+      <c r="G67" s="1085" t="s">
         <v>425</v>
       </c>
-      <c r="F67" s="1149" t="s">
-        <v>419</v>
-      </c>
-      <c r="G67" s="1150" t="s">
-        <v>426</v>
-      </c>
-      <c r="H67" s="1151" t="s">
+      <c r="H67" s="1086" t="s">
         <v>107</v>
       </c>
-      <c r="I67" s="1152" t="s">
+      <c r="I67" s="1087" t="s">
         <v>241</v>
       </c>
       <c r="J67" s="423"/>
@@ -23147,21 +23138,21 @@
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="1153" t="s">
+      <c r="D80" s="1088" t="s">
+        <v>426</v>
+      </c>
+      <c r="E80" s="1089"/>
+      <c r="F80" s="1080" t="s">
+        <v>418</v>
+      </c>
+      <c r="G80" s="1081" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="1154"/>
-      <c r="F80" s="1145" t="s">
-        <v>419</v>
-      </c>
-      <c r="G80" s="1146" t="s">
+      <c r="H80" s="1090" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" s="1091" t="s">
         <v>428</v>
-      </c>
-      <c r="H80" s="1155" t="s">
-        <v>107</v>
-      </c>
-      <c r="I80" s="1156" t="s">
-        <v>429</v>
       </c>
       <c r="J80" s="783"/>
       <c r="K80" s="221"/>
@@ -23199,7 +23190,7 @@
         <v>235</v>
       </c>
       <c r="L81" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M81" s="878" t="s">
         <v>111</v>
@@ -23240,7 +23231,7 @@
         <v>235</v>
       </c>
       <c r="L82" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M82" s="878" t="s">
         <v>111</v>
@@ -23308,7 +23299,7 @@
         <v>235</v>
       </c>
       <c r="L84" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M84" s="878" t="s">
         <v>111</v>
@@ -23347,7 +23338,7 @@
         <v>235</v>
       </c>
       <c r="L85" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M85" s="878" t="s">
         <v>111</v>
@@ -23386,7 +23377,7 @@
         <v>235</v>
       </c>
       <c r="L86" s="944" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M86" s="878" t="s">
         <v>111</v>
@@ -23406,20 +23397,20 @@
       </c>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="1157" t="s">
+      <c r="D87" s="1092" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87" s="1093"/>
+      <c r="F87" s="1080" t="s">
+        <v>418</v>
+      </c>
+      <c r="G87" s="1081" t="s">
         <v>430</v>
       </c>
-      <c r="E87" s="1158"/>
-      <c r="F87" s="1145" t="s">
-        <v>419</v>
-      </c>
-      <c r="G87" s="1146" t="s">
+      <c r="H87" s="1094" t="s">
         <v>431</v>
       </c>
-      <c r="H87" s="1159" t="s">
-        <v>432</v>
-      </c>
-      <c r="I87" s="1159" t="s">
+      <c r="I87" s="1094" t="s">
         <v>291</v>
       </c>
       <c r="J87" s="783"/>
@@ -23437,20 +23428,20 @@
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
-      <c r="D88" s="1160" t="s">
-        <v>433</v>
-      </c>
-      <c r="E88" s="1161"/>
-      <c r="F88" s="1149" t="s">
-        <v>419</v>
-      </c>
-      <c r="G88" s="1150" t="s">
-        <v>422</v>
-      </c>
-      <c r="H88" s="1162" t="s">
+      <c r="D88" s="1095" t="s">
         <v>432</v>
       </c>
-      <c r="I88" s="1162" t="s">
+      <c r="E88" s="1096"/>
+      <c r="F88" s="1084" t="s">
+        <v>418</v>
+      </c>
+      <c r="G88" s="1085" t="s">
+        <v>421</v>
+      </c>
+      <c r="H88" s="1097" t="s">
+        <v>431</v>
+      </c>
+      <c r="I88" s="1097" t="s">
         <v>291</v>
       </c>
       <c r="J88" s="783"/>
@@ -23468,20 +23459,20 @@
       </c>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
-      <c r="D89" s="1163" t="s">
-        <v>434</v>
-      </c>
-      <c r="E89" s="1164"/>
-      <c r="F89" s="1165" t="s">
-        <v>419</v>
-      </c>
-      <c r="G89" s="1166" t="s">
-        <v>422</v>
-      </c>
-      <c r="H89" s="1167" t="s">
-        <v>432</v>
-      </c>
-      <c r="I89" s="1167" t="s">
+      <c r="D89" s="1098" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" s="1099"/>
+      <c r="F89" s="1100" t="s">
+        <v>418</v>
+      </c>
+      <c r="G89" s="1101" t="s">
+        <v>421</v>
+      </c>
+      <c r="H89" s="1102" t="s">
+        <v>431</v>
+      </c>
+      <c r="I89" s="1102" t="s">
         <v>291</v>
       </c>
       <c r="J89" s="783"/>
@@ -23499,20 +23490,20 @@
       </c>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
-      <c r="D90" s="1168" t="s">
-        <v>435</v>
-      </c>
-      <c r="E90" s="1169"/>
-      <c r="F90" s="1170" t="s">
-        <v>419</v>
-      </c>
-      <c r="G90" s="1171" t="s">
-        <v>422</v>
-      </c>
-      <c r="H90" s="1172" t="s">
-        <v>432</v>
-      </c>
-      <c r="I90" s="1172" t="s">
+      <c r="D90" s="1103" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="1104"/>
+      <c r="F90" s="1105" t="s">
+        <v>418</v>
+      </c>
+      <c r="G90" s="1106" t="s">
+        <v>421</v>
+      </c>
+      <c r="H90" s="1107" t="s">
+        <v>431</v>
+      </c>
+      <c r="I90" s="1107" t="s">
         <v>291</v>
       </c>
       <c r="J90" s="783"/>
@@ -23530,20 +23521,20 @@
       </c>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
-      <c r="D91" s="1173" t="s">
-        <v>436</v>
-      </c>
-      <c r="E91" s="1174"/>
-      <c r="F91" s="1175" t="s">
-        <v>419</v>
-      </c>
-      <c r="G91" s="1176" t="s">
-        <v>422</v>
-      </c>
-      <c r="H91" s="1177" t="s">
-        <v>432</v>
-      </c>
-      <c r="I91" s="1177" t="s">
+      <c r="D91" s="1108" t="s">
+        <v>435</v>
+      </c>
+      <c r="E91" s="1109"/>
+      <c r="F91" s="1110" t="s">
+        <v>418</v>
+      </c>
+      <c r="G91" s="1111" t="s">
+        <v>421</v>
+      </c>
+      <c r="H91" s="1112" t="s">
+        <v>431</v>
+      </c>
+      <c r="I91" s="1112" t="s">
         <v>291</v>
       </c>
       <c r="J91" s="783"/>
@@ -23706,24 +23697,24 @@
       </c>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
-      <c r="D97" s="1178" t="s">
+      <c r="D97" s="1113" t="s">
+        <v>436</v>
+      </c>
+      <c r="E97" s="1114"/>
+      <c r="F97" s="1115" t="s">
+        <v>418</v>
+      </c>
+      <c r="G97" s="1116" t="s">
         <v>437</v>
       </c>
-      <c r="E97" s="1179"/>
-      <c r="F97" s="1180" t="s">
-        <v>419</v>
-      </c>
-      <c r="G97" s="1181" t="s">
-        <v>438</v>
-      </c>
-      <c r="H97" s="1068" t="s">
-        <v>432</v>
-      </c>
-      <c r="I97" s="1068" t="s">
+      <c r="H97" s="1003" t="s">
+        <v>431</v>
+      </c>
+      <c r="I97" s="1003" t="s">
         <v>291</v>
       </c>
       <c r="J97" s="423" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K97" s="168"/>
       <c r="L97" s="34"/>
@@ -23826,23 +23817,23 @@
       </c>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="1069" t="s">
+      <c r="D101" s="1004" t="s">
+        <v>438</v>
+      </c>
+      <c r="E101" s="1005"/>
+      <c r="F101" s="1115" t="s">
+        <v>418</v>
+      </c>
+      <c r="G101" s="1116" t="s">
         <v>439</v>
       </c>
-      <c r="E101" s="1070"/>
-      <c r="F101" s="1180" t="s">
-        <v>419</v>
-      </c>
-      <c r="G101" s="1181" t="s">
-        <v>440</v>
-      </c>
       <c r="H101" s="310" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I101" s="310" t="s">
         <v>291</v>
       </c>
-      <c r="J101" s="1129"/>
+      <c r="J101" s="1064"/>
       <c r="K101" s="103"/>
       <c r="L101" s="104"/>
       <c r="M101" s="105"/>
@@ -23857,18 +23848,18 @@
       </c>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
-      <c r="D102" s="1071" t="s">
+      <c r="D102" s="1006" t="s">
+        <v>440</v>
+      </c>
+      <c r="E102" s="1007"/>
+      <c r="F102" s="1115" t="s">
+        <v>418</v>
+      </c>
+      <c r="G102" s="1116" t="s">
         <v>441</v>
       </c>
-      <c r="E102" s="1072"/>
-      <c r="F102" s="1180" t="s">
-        <v>419</v>
-      </c>
-      <c r="G102" s="1181" t="s">
-        <v>442</v>
-      </c>
       <c r="H102" s="892" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I102" s="892" t="s">
         <v>129</v>
@@ -24100,7 +24091,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="280" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -24115,7 +24106,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="280" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J6" s="280" t="s">
         <v>95</v>
@@ -24126,10 +24117,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="280" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J7" s="280" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K7" s="280" t="s">
         <v>97</v>
@@ -24173,11 +24164,11 @@
       <c r="E10" s="941" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1182" t="s">
+      <c r="F10" s="1117" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" s="1118" t="s">
         <v>415</v>
-      </c>
-      <c r="G10" s="1183" t="s">
-        <v>416</v>
       </c>
       <c r="H10" s="941" t="s">
         <v>98</v>
@@ -24192,7 +24183,7 @@
         <v>101</v>
       </c>
       <c r="L10" s="943" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M10" s="943" t="s">
         <v>102</v>
@@ -24215,31 +24206,31 @@
         <v>79</v>
       </c>
       <c r="B11" s="304" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="304" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="563" t="s">
         <v>393</v>
-      </c>
-      <c r="C11" s="304" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="563" t="s">
-        <v>394</v>
       </c>
       <c r="E11" s="742"/>
       <c r="F11" s="233"/>
       <c r="G11" s="233"/>
       <c r="H11" s="304" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="304" t="s">
         <v>350</v>
       </c>
-      <c r="I11" s="304" t="s">
+      <c r="J11" s="545" t="s">
         <v>351</v>
       </c>
-      <c r="J11" s="545" t="s">
+      <c r="K11" s="545" t="s">
         <v>352</v>
       </c>
-      <c r="K11" s="545" t="s">
-        <v>353</v>
-      </c>
       <c r="L11" s="945" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M11" s="915" t="s">
         <v>111</v>
@@ -24260,22 +24251,22 @@
       <c r="B12" s="904"/>
       <c r="C12" s="904"/>
       <c r="D12" s="905" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E12" s="906"/>
       <c r="F12" s="233"/>
       <c r="G12" s="233"/>
       <c r="H12" s="304" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I12" s="304" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" s="545" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" s="917" t="s">
         <v>354</v>
-      </c>
-      <c r="J12" s="545" t="s">
-        <v>402</v>
-      </c>
-      <c r="K12" s="917" t="s">
-        <v>355</v>
       </c>
       <c r="L12" s="918"/>
       <c r="M12" s="919" t="s">
@@ -24297,19 +24288,19 @@
       <c r="B13" s="908"/>
       <c r="C13" s="908"/>
       <c r="D13" s="909" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E13" s="910"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J13" s="888" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K13" s="888"/>
       <c r="L13" s="922"/>
@@ -24326,19 +24317,19 @@
       <c r="B14" s="904"/>
       <c r="C14" s="904"/>
       <c r="D14" s="905" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E14" s="906"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="304" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I14" s="304" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J14" s="925" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K14" s="917"/>
       <c r="L14" s="918"/>
@@ -24355,24 +24346,24 @@
       <c r="B15" s="904"/>
       <c r="C15" s="904"/>
       <c r="D15" s="911" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E15" s="912" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F15" s="233"/>
       <c r="G15" s="233"/>
       <c r="H15" s="304" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I15" s="304" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J15" s="917" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K15" s="917" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L15" s="918"/>
       <c r="M15" s="919" t="s">
@@ -24389,24 +24380,24 @@
     </row>
     <row r="16" spans="1:17" s="323" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="907" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B16" s="908"/>
       <c r="C16" s="908"/>
       <c r="D16" s="908"/>
       <c r="E16" s="514" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I16" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J16" s="888" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K16" s="888"/>
       <c r="L16" s="922"/>
@@ -24418,24 +24409,24 @@
     </row>
     <row r="17" spans="1:17" s="323" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="907" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="908"/>
       <c r="C17" s="908"/>
       <c r="D17" s="908"/>
       <c r="E17" s="913" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I17" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J17" s="888" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K17" s="888"/>
       <c r="L17" s="922"/>
@@ -24447,7 +24438,7 @@
     </row>
     <row r="18" spans="1:17" s="323" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="907" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="908"/>
       <c r="C18" s="908"/>
@@ -24458,13 +24449,13 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I18" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J18" s="888" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K18" s="888"/>
       <c r="L18" s="922"/>
@@ -24481,21 +24472,21 @@
       <c r="B19" s="908"/>
       <c r="C19" s="908"/>
       <c r="D19" s="913" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="514" t="s">
         <v>346</v>
-      </c>
-      <c r="E19" s="514" t="s">
-        <v>347</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I19" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J19" s="888" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K19" s="888"/>
       <c r="L19" s="922"/>
@@ -24512,21 +24503,21 @@
       <c r="B20" s="908"/>
       <c r="C20" s="908"/>
       <c r="D20" s="321" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="514" t="s">
         <v>391</v>
-      </c>
-      <c r="E20" s="514" t="s">
-        <v>392</v>
       </c>
       <c r="F20" s="233"/>
       <c r="G20" s="233"/>
       <c r="H20" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I20" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J20" s="888" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K20" s="888"/>
       <c r="L20" s="922"/>
@@ -24542,20 +24533,20 @@
       </c>
       <c r="B21" s="908"/>
       <c r="C21" s="908"/>
-      <c r="D21" s="1009" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="1010"/>
+      <c r="D21" s="1194" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="1195"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I21" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J21" s="888" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K21" s="888"/>
       <c r="L21" s="922"/>
@@ -24574,25 +24565,25 @@
         <v>87</v>
       </c>
       <c r="D22" s="905" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E22" s="906"/>
       <c r="F22" s="233"/>
       <c r="G22" s="233"/>
       <c r="H22" s="304" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I22" s="304" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J22" s="917" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="917" t="s">
         <v>364</v>
       </c>
-      <c r="K22" s="917" t="s">
-        <v>365</v>
-      </c>
       <c r="L22" s="945" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M22" s="919" t="s">
         <v>111</v>
@@ -24613,19 +24604,19 @@
       <c r="B23" s="914"/>
       <c r="C23" s="914"/>
       <c r="D23" s="909" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="910"/>
       <c r="F23" s="233"/>
       <c r="G23" s="233"/>
       <c r="H23" s="921" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I23" s="921" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J23" s="888" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K23" s="888"/>
       <c r="L23" s="922"/>
@@ -24639,25 +24630,25 @@
       <c r="A24" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1184" t="s">
+      <c r="B24" s="1119" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" s="1120" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="1185" t="s">
+      <c r="D24" s="1121"/>
+      <c r="E24" s="1122"/>
+      <c r="F24" s="1123" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="1124" t="s">
         <v>448</v>
       </c>
-      <c r="D24" s="1186"/>
-      <c r="E24" s="1187"/>
-      <c r="F24" s="1188" t="s">
-        <v>419</v>
-      </c>
-      <c r="G24" s="1189" t="s">
+      <c r="H24" s="1125" t="s">
         <v>449</v>
       </c>
-      <c r="H24" s="1190" t="s">
+      <c r="I24" s="1125" t="s">
         <v>450</v>
-      </c>
-      <c r="I24" s="1190" t="s">
-        <v>451</v>
       </c>
       <c r="J24" s="230"/>
       <c r="K24" s="230"/>
@@ -24672,22 +24663,22 @@
       <c r="A25" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1191"/>
-      <c r="C25" s="1192" t="s">
+      <c r="B25" s="1126"/>
+      <c r="C25" s="1127" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="1128"/>
+      <c r="E25" s="1129"/>
+      <c r="F25" s="1123" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" s="1123" t="s">
         <v>452</v>
       </c>
-      <c r="D25" s="1193"/>
-      <c r="E25" s="1194"/>
-      <c r="F25" s="1188" t="s">
-        <v>419</v>
-      </c>
-      <c r="G25" s="1188" t="s">
-        <v>453</v>
-      </c>
-      <c r="H25" s="1195" t="s">
+      <c r="H25" s="1130" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="1195" t="s">
+      <c r="I25" s="1130" t="s">
         <v>44</v>
       </c>
       <c r="J25" s="231"/>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10201_Project_Registration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604B94E2-7D36-4431-AAF9-CF0C63623565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07D5A6C-73B0-43C7-BD8C-64FAC75503F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1290" windowWidth="27990" windowHeight="12360" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -1649,10 +1649,6 @@
     <phoneticPr fontId="20"/>
   </si>
   <si>
-    <t>Unit Test Specification Subfunction Unit(screen)</t>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
     <t>Prepared by</t>
     <phoneticPr fontId="20"/>
   </si>
@@ -1760,6 +1756,10 @@
       <t>）</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subfunction Unit Test Specification (screen)</t>
+    <phoneticPr fontId="20"/>
   </si>
 </sst>
 </file>
@@ -11173,155 +11173,8 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="439" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="440" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="441" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="439" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="440" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="441" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="442" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="443" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="444" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="442" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="443" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="444" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="320" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="320" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="316" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="445" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="446" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="316" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="445" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="446" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="442" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="444" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="442" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="443" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="444" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -11330,15 +11183,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -11358,6 +11202,170 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="442" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="444" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="442" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="443" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="444" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="439" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="440" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="441" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="439" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="440" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="441" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="442" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="443" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="444" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="320" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="316" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="445" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="446" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="442" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="443" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="444" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="320" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="316" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="445" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="446" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -11367,50 +11375,42 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -11780,20 +11780,73 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="2100"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" u="none" strike="noStrike">
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Unit Test Specification Subfunction Unit(screen)</a:t>
+            <a:t>Subfunction Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test Specification (screen)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12221,12 +12274,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="1117">
+      <c r="I25" s="1131">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43657</v>
       </c>
-      <c r="J25" s="1117"/>
-      <c r="K25" s="1117"/>
+      <c r="J25" s="1131"/>
+      <c r="K25" s="1131"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -12777,1222 +12830,1222 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1197"/>
+    <col min="1" max="16384" width="3.625" style="1129"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1169" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="1120" t="s">
+    <row r="1" spans="1:40" s="1120" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="1140" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="1121"/>
-      <c r="C1" s="1121"/>
-      <c r="D1" s="1122"/>
-      <c r="E1" s="1123" t="s">
+      <c r="B1" s="1141"/>
+      <c r="C1" s="1141"/>
+      <c r="D1" s="1142"/>
+      <c r="E1" s="1143" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="1124"/>
-      <c r="G1" s="1124"/>
-      <c r="H1" s="1124"/>
-      <c r="I1" s="1124"/>
-      <c r="J1" s="1124"/>
-      <c r="K1" s="1124"/>
-      <c r="L1" s="1124"/>
-      <c r="M1" s="1124"/>
-      <c r="N1" s="1125"/>
-      <c r="O1" s="1126" t="s">
+      <c r="F1" s="1144"/>
+      <c r="G1" s="1144"/>
+      <c r="H1" s="1144"/>
+      <c r="I1" s="1144"/>
+      <c r="J1" s="1144"/>
+      <c r="K1" s="1144"/>
+      <c r="L1" s="1144"/>
+      <c r="M1" s="1144"/>
+      <c r="N1" s="1145"/>
+      <c r="O1" s="1149" t="s">
         <v>435</v>
       </c>
-      <c r="P1" s="1127"/>
-      <c r="Q1" s="1127"/>
-      <c r="R1" s="1128"/>
-      <c r="S1" s="1129" t="s">
+      <c r="P1" s="1150"/>
+      <c r="Q1" s="1150"/>
+      <c r="R1" s="1151"/>
+      <c r="S1" s="1158" t="s">
+        <v>452</v>
+      </c>
+      <c r="T1" s="1159"/>
+      <c r="U1" s="1159"/>
+      <c r="V1" s="1159"/>
+      <c r="W1" s="1159"/>
+      <c r="X1" s="1159"/>
+      <c r="Y1" s="1159"/>
+      <c r="Z1" s="1160"/>
+      <c r="AA1" s="1140" t="s">
         <v>436</v>
       </c>
-      <c r="T1" s="1130"/>
-      <c r="U1" s="1130"/>
-      <c r="V1" s="1130"/>
-      <c r="W1" s="1130"/>
-      <c r="X1" s="1130"/>
-      <c r="Y1" s="1130"/>
-      <c r="Z1" s="1131"/>
-      <c r="AA1" s="1120" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB1" s="1122"/>
-      <c r="AC1" s="1161" t="str">
+      <c r="AB1" s="1142"/>
+      <c r="AC1" s="1167" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="1162"/>
-      <c r="AE1" s="1162"/>
-      <c r="AF1" s="1163"/>
-      <c r="AG1" s="1164">
+      <c r="AD1" s="1168"/>
+      <c r="AE1" s="1168"/>
+      <c r="AF1" s="1169"/>
+      <c r="AG1" s="1132">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="1165"/>
-      <c r="AI1" s="1166"/>
-      <c r="AJ1" s="1167"/>
-      <c r="AK1" s="1167"/>
-      <c r="AL1" s="1167"/>
-      <c r="AM1" s="1167"/>
-      <c r="AN1" s="1168"/>
-    </row>
-    <row r="2" spans="1:40" s="1169" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="1120" t="s">
+      <c r="AH1" s="1133"/>
+      <c r="AI1" s="1134"/>
+      <c r="AJ1" s="1118"/>
+      <c r="AK1" s="1118"/>
+      <c r="AL1" s="1118"/>
+      <c r="AM1" s="1118"/>
+      <c r="AN1" s="1119"/>
+    </row>
+    <row r="2" spans="1:40" s="1120" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="1140" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="1141"/>
+      <c r="C2" s="1141"/>
+      <c r="D2" s="1142"/>
+      <c r="E2" s="1143" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="1121"/>
-      <c r="C2" s="1121"/>
-      <c r="D2" s="1122"/>
-      <c r="E2" s="1123" t="s">
+      <c r="F2" s="1144"/>
+      <c r="G2" s="1144"/>
+      <c r="H2" s="1144"/>
+      <c r="I2" s="1144"/>
+      <c r="J2" s="1144"/>
+      <c r="K2" s="1144"/>
+      <c r="L2" s="1144"/>
+      <c r="M2" s="1144"/>
+      <c r="N2" s="1145"/>
+      <c r="O2" s="1152"/>
+      <c r="P2" s="1153"/>
+      <c r="Q2" s="1153"/>
+      <c r="R2" s="1154"/>
+      <c r="S2" s="1161"/>
+      <c r="T2" s="1162"/>
+      <c r="U2" s="1162"/>
+      <c r="V2" s="1162"/>
+      <c r="W2" s="1162"/>
+      <c r="X2" s="1162"/>
+      <c r="Y2" s="1162"/>
+      <c r="Z2" s="1163"/>
+      <c r="AA2" s="1140" t="s">
         <v>439</v>
       </c>
-      <c r="F2" s="1124"/>
-      <c r="G2" s="1124"/>
-      <c r="H2" s="1124"/>
-      <c r="I2" s="1124"/>
-      <c r="J2" s="1124"/>
-      <c r="K2" s="1124"/>
-      <c r="L2" s="1124"/>
-      <c r="M2" s="1124"/>
-      <c r="N2" s="1125"/>
-      <c r="O2" s="1132"/>
-      <c r="P2" s="1133"/>
-      <c r="Q2" s="1133"/>
-      <c r="R2" s="1134"/>
-      <c r="S2" s="1135"/>
-      <c r="T2" s="1136"/>
-      <c r="U2" s="1136"/>
-      <c r="V2" s="1136"/>
-      <c r="W2" s="1136"/>
-      <c r="X2" s="1136"/>
-      <c r="Y2" s="1136"/>
-      <c r="Z2" s="1137"/>
-      <c r="AA2" s="1120" t="s">
-        <v>440</v>
-      </c>
-      <c r="AB2" s="1122"/>
-      <c r="AC2" s="1170" t="str">
+      <c r="AB2" s="1142"/>
+      <c r="AC2" s="1146" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="1171"/>
-      <c r="AE2" s="1171"/>
-      <c r="AF2" s="1172"/>
-      <c r="AG2" s="1164" t="str">
+      <c r="AD2" s="1147"/>
+      <c r="AE2" s="1147"/>
+      <c r="AF2" s="1148"/>
+      <c r="AG2" s="1132" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="1165"/>
-      <c r="AI2" s="1166"/>
-      <c r="AJ2" s="1167"/>
-      <c r="AK2" s="1167"/>
-      <c r="AL2" s="1167"/>
-      <c r="AM2" s="1167"/>
-      <c r="AN2" s="1167"/>
-    </row>
-    <row r="3" spans="1:40" s="1169" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="1120" t="s">
+      <c r="AH2" s="1133"/>
+      <c r="AI2" s="1134"/>
+      <c r="AJ2" s="1118"/>
+      <c r="AK2" s="1118"/>
+      <c r="AL2" s="1118"/>
+      <c r="AM2" s="1118"/>
+      <c r="AN2" s="1118"/>
+    </row>
+    <row r="3" spans="1:40" s="1120" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="1140" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="1141"/>
+      <c r="C3" s="1141"/>
+      <c r="D3" s="1142"/>
+      <c r="E3" s="1143" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="1121"/>
-      <c r="C3" s="1121"/>
-      <c r="D3" s="1122"/>
-      <c r="E3" s="1123" t="s">
+      <c r="F3" s="1144"/>
+      <c r="G3" s="1144"/>
+      <c r="H3" s="1144"/>
+      <c r="I3" s="1144"/>
+      <c r="J3" s="1144"/>
+      <c r="K3" s="1144"/>
+      <c r="L3" s="1144"/>
+      <c r="M3" s="1144"/>
+      <c r="N3" s="1145"/>
+      <c r="O3" s="1155"/>
+      <c r="P3" s="1156"/>
+      <c r="Q3" s="1156"/>
+      <c r="R3" s="1157"/>
+      <c r="S3" s="1164"/>
+      <c r="T3" s="1165"/>
+      <c r="U3" s="1165"/>
+      <c r="V3" s="1165"/>
+      <c r="W3" s="1165"/>
+      <c r="X3" s="1165"/>
+      <c r="Y3" s="1165"/>
+      <c r="Z3" s="1166"/>
+      <c r="AA3" s="1140"/>
+      <c r="AB3" s="1142"/>
+      <c r="AC3" s="1167"/>
+      <c r="AD3" s="1168"/>
+      <c r="AE3" s="1168"/>
+      <c r="AF3" s="1169"/>
+      <c r="AG3" s="1132"/>
+      <c r="AH3" s="1133"/>
+      <c r="AI3" s="1134"/>
+      <c r="AJ3" s="1118"/>
+      <c r="AK3" s="1118"/>
+      <c r="AL3" s="1118"/>
+      <c r="AM3" s="1118"/>
+      <c r="AN3" s="1118"/>
+    </row>
+    <row r="5" spans="1:40" s="1121" customFormat="1" ht="22.5" customHeight="1">
+      <c r="N5" s="1122" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA5" s="1123"/>
+      <c r="AB5" s="1123"/>
+      <c r="AC5" s="1124"/>
+      <c r="AD5" s="1125"/>
+      <c r="AE5" s="1125"/>
+      <c r="AF5" s="1125"/>
+      <c r="AG5" s="1123"/>
+      <c r="AH5" s="1123"/>
+      <c r="AI5" s="1123"/>
+    </row>
+    <row r="6" spans="1:40" s="1121" customFormat="1" ht="15" customHeight="1">
+      <c r="N6" s="1122"/>
+      <c r="AA6" s="1123"/>
+      <c r="AB6" s="1123"/>
+      <c r="AC6" s="1124"/>
+      <c r="AD6" s="1125"/>
+      <c r="AE6" s="1125"/>
+      <c r="AF6" s="1125"/>
+      <c r="AG6" s="1123"/>
+      <c r="AH6" s="1123"/>
+      <c r="AI6" s="1123"/>
+    </row>
+    <row r="7" spans="1:40" s="1126" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A7" s="1117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1135" t="s">
         <v>442</v>
       </c>
-      <c r="F3" s="1124"/>
-      <c r="G3" s="1124"/>
-      <c r="H3" s="1124"/>
-      <c r="I3" s="1124"/>
-      <c r="J3" s="1124"/>
-      <c r="K3" s="1124"/>
-      <c r="L3" s="1124"/>
-      <c r="M3" s="1124"/>
-      <c r="N3" s="1125"/>
-      <c r="O3" s="1138"/>
-      <c r="P3" s="1139"/>
-      <c r="Q3" s="1139"/>
-      <c r="R3" s="1140"/>
-      <c r="S3" s="1141"/>
-      <c r="T3" s="1142"/>
-      <c r="U3" s="1142"/>
-      <c r="V3" s="1142"/>
-      <c r="W3" s="1142"/>
-      <c r="X3" s="1142"/>
-      <c r="Y3" s="1142"/>
-      <c r="Z3" s="1143"/>
-      <c r="AA3" s="1120"/>
-      <c r="AB3" s="1122"/>
-      <c r="AC3" s="1161"/>
-      <c r="AD3" s="1162"/>
-      <c r="AE3" s="1162"/>
-      <c r="AF3" s="1163"/>
-      <c r="AG3" s="1164"/>
-      <c r="AH3" s="1165"/>
-      <c r="AI3" s="1166"/>
-      <c r="AJ3" s="1167"/>
-      <c r="AK3" s="1167"/>
-      <c r="AL3" s="1167"/>
-      <c r="AM3" s="1167"/>
-      <c r="AN3" s="1167"/>
-    </row>
-    <row r="5" spans="1:40" s="1173" customFormat="1" ht="22.5" customHeight="1">
-      <c r="N5" s="1174" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA5" s="1175"/>
-      <c r="AB5" s="1175"/>
-      <c r="AC5" s="1176"/>
-      <c r="AD5" s="1177"/>
-      <c r="AE5" s="1177"/>
-      <c r="AF5" s="1177"/>
-      <c r="AG5" s="1175"/>
-      <c r="AH5" s="1175"/>
-      <c r="AI5" s="1175"/>
-    </row>
-    <row r="6" spans="1:40" s="1173" customFormat="1" ht="15" customHeight="1">
-      <c r="N6" s="1174"/>
-      <c r="AA6" s="1175"/>
-      <c r="AB6" s="1175"/>
-      <c r="AC6" s="1176"/>
-      <c r="AD6" s="1177"/>
-      <c r="AE6" s="1177"/>
-      <c r="AF6" s="1177"/>
-      <c r="AG6" s="1175"/>
-      <c r="AH6" s="1175"/>
-      <c r="AI6" s="1175"/>
-    </row>
-    <row r="7" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="1144" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1145" t="s">
+      <c r="C7" s="1136"/>
+      <c r="D7" s="1137" t="s">
         <v>443</v>
       </c>
-      <c r="C7" s="1146"/>
-      <c r="D7" s="1147" t="s">
+      <c r="E7" s="1138"/>
+      <c r="F7" s="1139"/>
+      <c r="G7" s="1137" t="s">
         <v>444</v>
       </c>
-      <c r="E7" s="1148"/>
-      <c r="F7" s="1149"/>
-      <c r="G7" s="1147" t="s">
+      <c r="H7" s="1138"/>
+      <c r="I7" s="1139"/>
+      <c r="J7" s="1137" t="s">
         <v>445</v>
       </c>
-      <c r="H7" s="1148"/>
-      <c r="I7" s="1149"/>
-      <c r="J7" s="1147" t="s">
+      <c r="K7" s="1138"/>
+      <c r="L7" s="1138"/>
+      <c r="M7" s="1138"/>
+      <c r="N7" s="1138"/>
+      <c r="O7" s="1138"/>
+      <c r="P7" s="1139"/>
+      <c r="Q7" s="1137" t="s">
         <v>446</v>
       </c>
-      <c r="K7" s="1148"/>
-      <c r="L7" s="1148"/>
-      <c r="M7" s="1148"/>
-      <c r="N7" s="1148"/>
-      <c r="O7" s="1148"/>
-      <c r="P7" s="1149"/>
-      <c r="Q7" s="1147" t="s">
+      <c r="R7" s="1138"/>
+      <c r="S7" s="1138"/>
+      <c r="T7" s="1138"/>
+      <c r="U7" s="1138"/>
+      <c r="V7" s="1138"/>
+      <c r="W7" s="1138"/>
+      <c r="X7" s="1138"/>
+      <c r="Y7" s="1138"/>
+      <c r="Z7" s="1138"/>
+      <c r="AA7" s="1138"/>
+      <c r="AB7" s="1138"/>
+      <c r="AC7" s="1138"/>
+      <c r="AD7" s="1138"/>
+      <c r="AE7" s="1139"/>
+      <c r="AF7" s="1137" t="s">
         <v>447</v>
       </c>
-      <c r="R7" s="1148"/>
-      <c r="S7" s="1148"/>
-      <c r="T7" s="1148"/>
-      <c r="U7" s="1148"/>
-      <c r="V7" s="1148"/>
-      <c r="W7" s="1148"/>
-      <c r="X7" s="1148"/>
-      <c r="Y7" s="1148"/>
-      <c r="Z7" s="1148"/>
-      <c r="AA7" s="1148"/>
-      <c r="AB7" s="1148"/>
-      <c r="AC7" s="1148"/>
-      <c r="AD7" s="1148"/>
-      <c r="AE7" s="1149"/>
-      <c r="AF7" s="1147" t="s">
+      <c r="AG7" s="1138"/>
+      <c r="AH7" s="1138"/>
+      <c r="AI7" s="1139"/>
+    </row>
+    <row r="8" spans="1:40" s="1126" customFormat="1" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A8" s="1127">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1182" t="s">
         <v>448</v>
       </c>
-      <c r="AG7" s="1148"/>
-      <c r="AH7" s="1148"/>
-      <c r="AI7" s="1149"/>
-    </row>
-    <row r="8" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="1179">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1150" t="s">
+      <c r="C8" s="1183"/>
+      <c r="D8" s="1184">
+        <v>43657</v>
+      </c>
+      <c r="E8" s="1185"/>
+      <c r="F8" s="1186"/>
+      <c r="G8" s="1187" t="s">
         <v>449</v>
       </c>
-      <c r="C8" s="1151"/>
-      <c r="D8" s="1180">
-        <v>43657</v>
-      </c>
-      <c r="E8" s="1181"/>
-      <c r="F8" s="1182"/>
-      <c r="G8" s="1152" t="s">
+      <c r="H8" s="1188"/>
+      <c r="I8" s="1189"/>
+      <c r="J8" s="1190" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="1191"/>
+      <c r="L8" s="1191"/>
+      <c r="M8" s="1191"/>
+      <c r="N8" s="1191"/>
+      <c r="O8" s="1191"/>
+      <c r="P8" s="1192"/>
+      <c r="Q8" s="1193" t="s">
         <v>450</v>
       </c>
-      <c r="H8" s="1153"/>
-      <c r="I8" s="1154"/>
-      <c r="J8" s="1155" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="1156"/>
-      <c r="L8" s="1156"/>
-      <c r="M8" s="1156"/>
-      <c r="N8" s="1156"/>
-      <c r="O8" s="1156"/>
-      <c r="P8" s="1157"/>
-      <c r="Q8" s="1158" t="s">
-        <v>451</v>
-      </c>
-      <c r="R8" s="1159"/>
-      <c r="S8" s="1159"/>
-      <c r="T8" s="1159"/>
-      <c r="U8" s="1159"/>
-      <c r="V8" s="1159"/>
-      <c r="W8" s="1159"/>
-      <c r="X8" s="1159"/>
-      <c r="Y8" s="1159"/>
-      <c r="Z8" s="1159"/>
-      <c r="AA8" s="1159"/>
-      <c r="AB8" s="1159"/>
-      <c r="AC8" s="1159"/>
-      <c r="AD8" s="1159"/>
-      <c r="AE8" s="1160"/>
-      <c r="AF8" s="1155" t="s">
+      <c r="R8" s="1194"/>
+      <c r="S8" s="1194"/>
+      <c r="T8" s="1194"/>
+      <c r="U8" s="1194"/>
+      <c r="V8" s="1194"/>
+      <c r="W8" s="1194"/>
+      <c r="X8" s="1194"/>
+      <c r="Y8" s="1194"/>
+      <c r="Z8" s="1194"/>
+      <c r="AA8" s="1194"/>
+      <c r="AB8" s="1194"/>
+      <c r="AC8" s="1194"/>
+      <c r="AD8" s="1194"/>
+      <c r="AE8" s="1195"/>
+      <c r="AF8" s="1190" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="1156"/>
-      <c r="AH8" s="1156"/>
-      <c r="AI8" s="1157"/>
-    </row>
-    <row r="9" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="1183"/>
-      <c r="B9" s="1184"/>
-      <c r="C9" s="1185"/>
-      <c r="D9" s="1186"/>
-      <c r="E9" s="1187"/>
-      <c r="F9" s="1188"/>
-      <c r="G9" s="1186"/>
-      <c r="H9" s="1189"/>
-      <c r="I9" s="1185"/>
-      <c r="J9" s="1190"/>
-      <c r="K9" s="1191"/>
-      <c r="L9" s="1191"/>
-      <c r="M9" s="1191"/>
-      <c r="N9" s="1191"/>
-      <c r="O9" s="1191"/>
-      <c r="P9" s="1192"/>
-      <c r="Q9" s="1193"/>
-      <c r="R9" s="1194"/>
-      <c r="S9" s="1194"/>
-      <c r="T9" s="1194"/>
-      <c r="U9" s="1194"/>
-      <c r="V9" s="1194"/>
-      <c r="W9" s="1194"/>
-      <c r="X9" s="1194"/>
-      <c r="Y9" s="1194"/>
-      <c r="Z9" s="1194"/>
-      <c r="AA9" s="1194"/>
-      <c r="AB9" s="1194"/>
-      <c r="AC9" s="1194"/>
-      <c r="AD9" s="1194"/>
-      <c r="AE9" s="1195"/>
-      <c r="AF9" s="1190"/>
-      <c r="AG9" s="1191"/>
-      <c r="AH9" s="1191"/>
-      <c r="AI9" s="1192"/>
-    </row>
-    <row r="10" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="1183"/>
-      <c r="B10" s="1184"/>
-      <c r="C10" s="1185"/>
-      <c r="D10" s="1186"/>
-      <c r="E10" s="1187"/>
-      <c r="F10" s="1188"/>
-      <c r="G10" s="1184"/>
-      <c r="H10" s="1189"/>
-      <c r="I10" s="1185"/>
-      <c r="J10" s="1190"/>
-      <c r="K10" s="1191"/>
-      <c r="L10" s="1191"/>
-      <c r="M10" s="1191"/>
-      <c r="N10" s="1191"/>
-      <c r="O10" s="1191"/>
-      <c r="P10" s="1192"/>
-      <c r="Q10" s="1193"/>
-      <c r="R10" s="1194"/>
-      <c r="S10" s="1194"/>
-      <c r="T10" s="1194"/>
-      <c r="U10" s="1194"/>
-      <c r="V10" s="1194"/>
-      <c r="W10" s="1194"/>
-      <c r="X10" s="1194"/>
-      <c r="Y10" s="1194"/>
-      <c r="Z10" s="1194"/>
-      <c r="AA10" s="1194"/>
-      <c r="AB10" s="1194"/>
-      <c r="AC10" s="1194"/>
-      <c r="AD10" s="1194"/>
-      <c r="AE10" s="1195"/>
-      <c r="AF10" s="1190"/>
-      <c r="AG10" s="1191"/>
-      <c r="AH10" s="1191"/>
-      <c r="AI10" s="1192"/>
-    </row>
-    <row r="11" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="1183"/>
-      <c r="B11" s="1184"/>
-      <c r="C11" s="1185"/>
-      <c r="D11" s="1186"/>
-      <c r="E11" s="1187"/>
-      <c r="F11" s="1188"/>
-      <c r="G11" s="1184"/>
-      <c r="H11" s="1189"/>
-      <c r="I11" s="1185"/>
-      <c r="J11" s="1190"/>
-      <c r="K11" s="1191"/>
-      <c r="L11" s="1191"/>
-      <c r="M11" s="1191"/>
-      <c r="N11" s="1191"/>
-      <c r="O11" s="1191"/>
-      <c r="P11" s="1192"/>
-      <c r="Q11" s="1193"/>
-      <c r="R11" s="1194"/>
-      <c r="S11" s="1194"/>
-      <c r="T11" s="1194"/>
-      <c r="U11" s="1194"/>
-      <c r="V11" s="1194"/>
-      <c r="W11" s="1194"/>
-      <c r="X11" s="1194"/>
-      <c r="Y11" s="1194"/>
-      <c r="Z11" s="1194"/>
-      <c r="AA11" s="1194"/>
-      <c r="AB11" s="1194"/>
-      <c r="AC11" s="1194"/>
-      <c r="AD11" s="1194"/>
-      <c r="AE11" s="1195"/>
-      <c r="AF11" s="1190"/>
-      <c r="AG11" s="1191"/>
-      <c r="AH11" s="1191"/>
-      <c r="AI11" s="1192"/>
-    </row>
-    <row r="12" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="1183"/>
-      <c r="B12" s="1184"/>
-      <c r="C12" s="1185"/>
-      <c r="D12" s="1186"/>
-      <c r="E12" s="1187"/>
-      <c r="F12" s="1188"/>
-      <c r="G12" s="1184"/>
-      <c r="H12" s="1189"/>
-      <c r="I12" s="1185"/>
-      <c r="J12" s="1190"/>
-      <c r="K12" s="1191"/>
-      <c r="L12" s="1191"/>
-      <c r="M12" s="1191"/>
-      <c r="N12" s="1191"/>
-      <c r="O12" s="1191"/>
-      <c r="P12" s="1192"/>
-      <c r="Q12" s="1193"/>
-      <c r="R12" s="1194"/>
-      <c r="S12" s="1194"/>
-      <c r="T12" s="1194"/>
-      <c r="U12" s="1194"/>
-      <c r="V12" s="1194"/>
-      <c r="W12" s="1194"/>
-      <c r="X12" s="1194"/>
-      <c r="Y12" s="1194"/>
-      <c r="Z12" s="1194"/>
-      <c r="AA12" s="1194"/>
-      <c r="AB12" s="1194"/>
-      <c r="AC12" s="1194"/>
-      <c r="AD12" s="1194"/>
-      <c r="AE12" s="1195"/>
-      <c r="AF12" s="1190"/>
-      <c r="AG12" s="1191"/>
-      <c r="AH12" s="1191"/>
-      <c r="AI12" s="1192"/>
-    </row>
-    <row r="13" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="1183"/>
-      <c r="B13" s="1184"/>
-      <c r="C13" s="1185"/>
-      <c r="D13" s="1186"/>
-      <c r="E13" s="1187"/>
-      <c r="F13" s="1188"/>
-      <c r="G13" s="1184"/>
-      <c r="H13" s="1189"/>
-      <c r="I13" s="1185"/>
-      <c r="J13" s="1190"/>
-      <c r="K13" s="1191"/>
-      <c r="L13" s="1191"/>
-      <c r="M13" s="1191"/>
-      <c r="N13" s="1191"/>
-      <c r="O13" s="1191"/>
-      <c r="P13" s="1192"/>
-      <c r="Q13" s="1193"/>
-      <c r="R13" s="1194"/>
-      <c r="S13" s="1194"/>
-      <c r="T13" s="1194"/>
-      <c r="U13" s="1194"/>
-      <c r="V13" s="1194"/>
-      <c r="W13" s="1194"/>
-      <c r="X13" s="1194"/>
-      <c r="Y13" s="1194"/>
-      <c r="Z13" s="1194"/>
-      <c r="AA13" s="1194"/>
-      <c r="AB13" s="1194"/>
-      <c r="AC13" s="1194"/>
-      <c r="AD13" s="1194"/>
-      <c r="AE13" s="1195"/>
-      <c r="AF13" s="1190"/>
-      <c r="AG13" s="1191"/>
-      <c r="AH13" s="1191"/>
-      <c r="AI13" s="1192"/>
-    </row>
-    <row r="14" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="1183"/>
-      <c r="B14" s="1184"/>
-      <c r="C14" s="1185"/>
-      <c r="D14" s="1186"/>
-      <c r="E14" s="1187"/>
-      <c r="F14" s="1188"/>
-      <c r="G14" s="1184"/>
-      <c r="H14" s="1189"/>
-      <c r="I14" s="1185"/>
-      <c r="J14" s="1190"/>
-      <c r="K14" s="1191"/>
-      <c r="L14" s="1191"/>
-      <c r="M14" s="1191"/>
-      <c r="N14" s="1191"/>
-      <c r="O14" s="1191"/>
-      <c r="P14" s="1192"/>
-      <c r="Q14" s="1193"/>
-      <c r="R14" s="1194"/>
-      <c r="S14" s="1194"/>
-      <c r="T14" s="1194"/>
-      <c r="U14" s="1194"/>
-      <c r="V14" s="1194"/>
-      <c r="W14" s="1194"/>
-      <c r="X14" s="1194"/>
-      <c r="Y14" s="1194"/>
-      <c r="Z14" s="1194"/>
-      <c r="AA14" s="1194"/>
-      <c r="AB14" s="1194"/>
-      <c r="AC14" s="1194"/>
-      <c r="AD14" s="1194"/>
-      <c r="AE14" s="1195"/>
-      <c r="AF14" s="1190"/>
-      <c r="AG14" s="1191"/>
-      <c r="AH14" s="1191"/>
-      <c r="AI14" s="1192"/>
-    </row>
-    <row r="15" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="1183"/>
-      <c r="B15" s="1184"/>
-      <c r="C15" s="1185"/>
-      <c r="D15" s="1186"/>
-      <c r="E15" s="1187"/>
-      <c r="F15" s="1188"/>
-      <c r="G15" s="1184"/>
-      <c r="H15" s="1189"/>
-      <c r="I15" s="1185"/>
-      <c r="J15" s="1190"/>
-      <c r="K15" s="1191"/>
-      <c r="L15" s="1191"/>
-      <c r="M15" s="1191"/>
-      <c r="N15" s="1191"/>
-      <c r="O15" s="1191"/>
-      <c r="P15" s="1192"/>
-      <c r="Q15" s="1193"/>
-      <c r="R15" s="1194"/>
-      <c r="S15" s="1194"/>
-      <c r="T15" s="1194"/>
-      <c r="U15" s="1194"/>
-      <c r="V15" s="1194"/>
-      <c r="W15" s="1194"/>
-      <c r="X15" s="1194"/>
-      <c r="Y15" s="1194"/>
-      <c r="Z15" s="1194"/>
-      <c r="AA15" s="1194"/>
-      <c r="AB15" s="1194"/>
-      <c r="AC15" s="1194"/>
-      <c r="AD15" s="1194"/>
-      <c r="AE15" s="1195"/>
-      <c r="AF15" s="1190"/>
-      <c r="AG15" s="1191"/>
-      <c r="AH15" s="1191"/>
-      <c r="AI15" s="1192"/>
-    </row>
-    <row r="16" spans="1:40" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="1183"/>
-      <c r="B16" s="1184"/>
-      <c r="C16" s="1185"/>
-      <c r="D16" s="1186"/>
-      <c r="E16" s="1187"/>
-      <c r="F16" s="1188"/>
-      <c r="G16" s="1184"/>
-      <c r="H16" s="1189"/>
-      <c r="I16" s="1185"/>
-      <c r="J16" s="1190"/>
-      <c r="K16" s="1191"/>
-      <c r="L16" s="1191"/>
-      <c r="M16" s="1191"/>
-      <c r="N16" s="1191"/>
-      <c r="O16" s="1191"/>
-      <c r="P16" s="1192"/>
-      <c r="Q16" s="1193"/>
-      <c r="R16" s="1194"/>
-      <c r="S16" s="1194"/>
-      <c r="T16" s="1194"/>
-      <c r="U16" s="1194"/>
-      <c r="V16" s="1194"/>
-      <c r="W16" s="1194"/>
-      <c r="X16" s="1194"/>
-      <c r="Y16" s="1194"/>
-      <c r="Z16" s="1194"/>
-      <c r="AA16" s="1194"/>
-      <c r="AB16" s="1194"/>
-      <c r="AC16" s="1194"/>
-      <c r="AD16" s="1194"/>
-      <c r="AE16" s="1195"/>
-      <c r="AF16" s="1190"/>
-      <c r="AG16" s="1191"/>
-      <c r="AH16" s="1191"/>
-      <c r="AI16" s="1192"/>
-    </row>
-    <row r="17" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="1183"/>
-      <c r="B17" s="1184"/>
-      <c r="C17" s="1185"/>
-      <c r="D17" s="1186"/>
-      <c r="E17" s="1187"/>
-      <c r="F17" s="1188"/>
-      <c r="G17" s="1184"/>
-      <c r="H17" s="1189"/>
-      <c r="I17" s="1185"/>
-      <c r="J17" s="1190"/>
-      <c r="K17" s="1191"/>
-      <c r="L17" s="1191"/>
-      <c r="M17" s="1191"/>
-      <c r="N17" s="1191"/>
-      <c r="O17" s="1191"/>
-      <c r="P17" s="1192"/>
-      <c r="Q17" s="1193"/>
-      <c r="R17" s="1194"/>
-      <c r="S17" s="1194"/>
-      <c r="T17" s="1194"/>
-      <c r="U17" s="1194"/>
-      <c r="V17" s="1194"/>
-      <c r="W17" s="1194"/>
-      <c r="X17" s="1194"/>
-      <c r="Y17" s="1194"/>
-      <c r="Z17" s="1194"/>
-      <c r="AA17" s="1194"/>
-      <c r="AB17" s="1194"/>
-      <c r="AC17" s="1194"/>
-      <c r="AD17" s="1194"/>
-      <c r="AE17" s="1195"/>
-      <c r="AF17" s="1190"/>
-      <c r="AG17" s="1191"/>
-      <c r="AH17" s="1191"/>
-      <c r="AI17" s="1192"/>
-    </row>
-    <row r="18" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="1183"/>
-      <c r="B18" s="1184"/>
-      <c r="C18" s="1185"/>
-      <c r="D18" s="1186"/>
-      <c r="E18" s="1187"/>
-      <c r="F18" s="1188"/>
-      <c r="G18" s="1184"/>
-      <c r="H18" s="1189"/>
-      <c r="I18" s="1185"/>
-      <c r="J18" s="1190"/>
-      <c r="K18" s="1191"/>
-      <c r="L18" s="1191"/>
-      <c r="M18" s="1191"/>
-      <c r="N18" s="1191"/>
-      <c r="O18" s="1191"/>
-      <c r="P18" s="1192"/>
-      <c r="Q18" s="1193"/>
-      <c r="R18" s="1194"/>
-      <c r="S18" s="1194"/>
-      <c r="T18" s="1194"/>
-      <c r="U18" s="1194"/>
-      <c r="V18" s="1194"/>
-      <c r="W18" s="1194"/>
-      <c r="X18" s="1194"/>
-      <c r="Y18" s="1194"/>
-      <c r="Z18" s="1194"/>
-      <c r="AA18" s="1194"/>
-      <c r="AB18" s="1194"/>
-      <c r="AC18" s="1194"/>
-      <c r="AD18" s="1194"/>
-      <c r="AE18" s="1195"/>
-      <c r="AF18" s="1190"/>
-      <c r="AG18" s="1191"/>
-      <c r="AH18" s="1191"/>
-      <c r="AI18" s="1192"/>
-    </row>
-    <row r="19" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="1183"/>
-      <c r="B19" s="1184"/>
-      <c r="C19" s="1185"/>
-      <c r="D19" s="1186"/>
-      <c r="E19" s="1187"/>
-      <c r="F19" s="1188"/>
-      <c r="G19" s="1184"/>
-      <c r="H19" s="1189"/>
-      <c r="I19" s="1185"/>
-      <c r="J19" s="1190"/>
-      <c r="K19" s="1191"/>
-      <c r="L19" s="1191"/>
-      <c r="M19" s="1191"/>
-      <c r="N19" s="1191"/>
-      <c r="O19" s="1191"/>
-      <c r="P19" s="1192"/>
-      <c r="Q19" s="1193"/>
-      <c r="R19" s="1194"/>
-      <c r="S19" s="1194"/>
-      <c r="T19" s="1194"/>
-      <c r="U19" s="1194"/>
-      <c r="V19" s="1194"/>
-      <c r="W19" s="1194"/>
-      <c r="X19" s="1194"/>
-      <c r="Y19" s="1194"/>
-      <c r="Z19" s="1194"/>
-      <c r="AA19" s="1194"/>
-      <c r="AB19" s="1194"/>
-      <c r="AC19" s="1194"/>
-      <c r="AD19" s="1194"/>
-      <c r="AE19" s="1195"/>
-      <c r="AF19" s="1190"/>
-      <c r="AG19" s="1191"/>
-      <c r="AH19" s="1191"/>
-      <c r="AI19" s="1192"/>
-    </row>
-    <row r="20" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="1183"/>
-      <c r="B20" s="1184"/>
-      <c r="C20" s="1185"/>
-      <c r="D20" s="1186"/>
-      <c r="E20" s="1187"/>
-      <c r="F20" s="1188"/>
-      <c r="G20" s="1184"/>
-      <c r="H20" s="1189"/>
-      <c r="I20" s="1185"/>
-      <c r="J20" s="1190"/>
-      <c r="K20" s="1191"/>
-      <c r="L20" s="1191"/>
-      <c r="M20" s="1191"/>
-      <c r="N20" s="1191"/>
-      <c r="O20" s="1191"/>
-      <c r="P20" s="1192"/>
-      <c r="Q20" s="1193"/>
-      <c r="R20" s="1194"/>
-      <c r="S20" s="1194"/>
-      <c r="T20" s="1194"/>
-      <c r="U20" s="1194"/>
-      <c r="V20" s="1194"/>
-      <c r="W20" s="1194"/>
-      <c r="X20" s="1194"/>
-      <c r="Y20" s="1194"/>
-      <c r="Z20" s="1194"/>
-      <c r="AA20" s="1194"/>
-      <c r="AB20" s="1194"/>
-      <c r="AC20" s="1194"/>
-      <c r="AD20" s="1194"/>
-      <c r="AE20" s="1195"/>
-      <c r="AF20" s="1190"/>
-      <c r="AG20" s="1191"/>
-      <c r="AH20" s="1191"/>
-      <c r="AI20" s="1192"/>
-    </row>
-    <row r="21" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="1183"/>
-      <c r="B21" s="1184"/>
-      <c r="C21" s="1185"/>
-      <c r="D21" s="1186"/>
-      <c r="E21" s="1187"/>
-      <c r="F21" s="1188"/>
-      <c r="G21" s="1184"/>
-      <c r="H21" s="1189"/>
-      <c r="I21" s="1185"/>
-      <c r="J21" s="1190"/>
-      <c r="K21" s="1191"/>
-      <c r="L21" s="1191"/>
-      <c r="M21" s="1191"/>
-      <c r="N21" s="1191"/>
-      <c r="O21" s="1191"/>
-      <c r="P21" s="1192"/>
-      <c r="Q21" s="1193"/>
-      <c r="R21" s="1194"/>
-      <c r="S21" s="1194"/>
-      <c r="T21" s="1194"/>
-      <c r="U21" s="1194"/>
-      <c r="V21" s="1194"/>
-      <c r="W21" s="1194"/>
-      <c r="X21" s="1194"/>
-      <c r="Y21" s="1194"/>
-      <c r="Z21" s="1194"/>
-      <c r="AA21" s="1194"/>
-      <c r="AB21" s="1194"/>
-      <c r="AC21" s="1194"/>
-      <c r="AD21" s="1194"/>
-      <c r="AE21" s="1195"/>
-      <c r="AF21" s="1190"/>
-      <c r="AG21" s="1191"/>
-      <c r="AH21" s="1191"/>
-      <c r="AI21" s="1192"/>
-    </row>
-    <row r="22" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="1183"/>
-      <c r="B22" s="1184"/>
-      <c r="C22" s="1185"/>
-      <c r="D22" s="1186"/>
-      <c r="E22" s="1187"/>
-      <c r="F22" s="1188"/>
-      <c r="G22" s="1184"/>
-      <c r="H22" s="1189"/>
-      <c r="I22" s="1185"/>
-      <c r="J22" s="1190"/>
-      <c r="K22" s="1191"/>
-      <c r="L22" s="1191"/>
-      <c r="M22" s="1191"/>
-      <c r="N22" s="1191"/>
-      <c r="O22" s="1191"/>
-      <c r="P22" s="1192"/>
-      <c r="Q22" s="1193"/>
-      <c r="R22" s="1194"/>
-      <c r="S22" s="1194"/>
-      <c r="T22" s="1194"/>
-      <c r="U22" s="1194"/>
-      <c r="V22" s="1194"/>
-      <c r="W22" s="1194"/>
-      <c r="X22" s="1194"/>
-      <c r="Y22" s="1194"/>
-      <c r="Z22" s="1194"/>
-      <c r="AA22" s="1194"/>
-      <c r="AB22" s="1194"/>
-      <c r="AC22" s="1194"/>
-      <c r="AD22" s="1194"/>
-      <c r="AE22" s="1195"/>
-      <c r="AF22" s="1190"/>
-      <c r="AG22" s="1191"/>
-      <c r="AH22" s="1191"/>
-      <c r="AI22" s="1192"/>
-    </row>
-    <row r="23" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="1183"/>
-      <c r="B23" s="1184"/>
-      <c r="C23" s="1185"/>
-      <c r="D23" s="1186"/>
-      <c r="E23" s="1187"/>
-      <c r="F23" s="1188"/>
-      <c r="G23" s="1184"/>
-      <c r="H23" s="1189"/>
-      <c r="I23" s="1185"/>
-      <c r="J23" s="1190"/>
-      <c r="K23" s="1191"/>
-      <c r="L23" s="1191"/>
-      <c r="M23" s="1191"/>
-      <c r="N23" s="1191"/>
-      <c r="O23" s="1191"/>
-      <c r="P23" s="1192"/>
-      <c r="Q23" s="1193"/>
-      <c r="R23" s="1194"/>
-      <c r="S23" s="1194"/>
-      <c r="T23" s="1194"/>
-      <c r="U23" s="1194"/>
-      <c r="V23" s="1194"/>
-      <c r="W23" s="1194"/>
-      <c r="X23" s="1194"/>
-      <c r="Y23" s="1194"/>
-      <c r="Z23" s="1194"/>
-      <c r="AA23" s="1194"/>
-      <c r="AB23" s="1194"/>
-      <c r="AC23" s="1194"/>
-      <c r="AD23" s="1194"/>
-      <c r="AE23" s="1195"/>
-      <c r="AF23" s="1190"/>
-      <c r="AG23" s="1191"/>
-      <c r="AH23" s="1191"/>
-      <c r="AI23" s="1192"/>
-    </row>
-    <row r="24" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="1183"/>
-      <c r="B24" s="1184"/>
-      <c r="C24" s="1185"/>
-      <c r="D24" s="1186"/>
-      <c r="E24" s="1187"/>
-      <c r="F24" s="1188"/>
-      <c r="G24" s="1184"/>
-      <c r="H24" s="1189"/>
-      <c r="I24" s="1185"/>
-      <c r="J24" s="1190"/>
-      <c r="K24" s="1191"/>
-      <c r="L24" s="1191"/>
-      <c r="M24" s="1191"/>
-      <c r="N24" s="1191"/>
-      <c r="O24" s="1191"/>
-      <c r="P24" s="1192"/>
-      <c r="Q24" s="1193"/>
-      <c r="R24" s="1194"/>
-      <c r="S24" s="1194"/>
-      <c r="T24" s="1194"/>
-      <c r="U24" s="1194"/>
-      <c r="V24" s="1194"/>
-      <c r="W24" s="1194"/>
-      <c r="X24" s="1194"/>
-      <c r="Y24" s="1194"/>
-      <c r="Z24" s="1194"/>
-      <c r="AA24" s="1194"/>
-      <c r="AB24" s="1194"/>
-      <c r="AC24" s="1194"/>
-      <c r="AD24" s="1194"/>
-      <c r="AE24" s="1195"/>
-      <c r="AF24" s="1190"/>
-      <c r="AG24" s="1191"/>
-      <c r="AH24" s="1191"/>
-      <c r="AI24" s="1192"/>
-    </row>
-    <row r="25" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="1183"/>
-      <c r="B25" s="1184"/>
-      <c r="C25" s="1185"/>
-      <c r="D25" s="1186"/>
-      <c r="E25" s="1187"/>
-      <c r="F25" s="1188"/>
-      <c r="G25" s="1184"/>
-      <c r="H25" s="1189"/>
-      <c r="I25" s="1185"/>
-      <c r="J25" s="1190"/>
-      <c r="K25" s="1191"/>
-      <c r="L25" s="1191"/>
-      <c r="M25" s="1191"/>
-      <c r="N25" s="1191"/>
-      <c r="O25" s="1191"/>
-      <c r="P25" s="1192"/>
-      <c r="Q25" s="1193"/>
-      <c r="R25" s="1194"/>
-      <c r="S25" s="1194"/>
-      <c r="T25" s="1194"/>
-      <c r="U25" s="1194"/>
-      <c r="V25" s="1194"/>
-      <c r="W25" s="1194"/>
-      <c r="X25" s="1194"/>
-      <c r="Y25" s="1194"/>
-      <c r="Z25" s="1194"/>
-      <c r="AA25" s="1194"/>
-      <c r="AB25" s="1194"/>
-      <c r="AC25" s="1194"/>
-      <c r="AD25" s="1194"/>
-      <c r="AE25" s="1195"/>
-      <c r="AF25" s="1190"/>
-      <c r="AG25" s="1191"/>
-      <c r="AH25" s="1191"/>
-      <c r="AI25" s="1192"/>
-    </row>
-    <row r="26" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="1183"/>
-      <c r="B26" s="1184"/>
-      <c r="C26" s="1185"/>
-      <c r="D26" s="1186"/>
-      <c r="E26" s="1187"/>
-      <c r="F26" s="1188"/>
-      <c r="G26" s="1184"/>
-      <c r="H26" s="1189"/>
-      <c r="I26" s="1185"/>
-      <c r="J26" s="1190"/>
-      <c r="K26" s="1191"/>
-      <c r="L26" s="1191"/>
-      <c r="M26" s="1191"/>
-      <c r="N26" s="1191"/>
-      <c r="O26" s="1191"/>
-      <c r="P26" s="1192"/>
-      <c r="Q26" s="1193"/>
-      <c r="R26" s="1194"/>
-      <c r="S26" s="1194"/>
-      <c r="T26" s="1194"/>
-      <c r="U26" s="1194"/>
-      <c r="V26" s="1194"/>
-      <c r="W26" s="1194"/>
-      <c r="X26" s="1194"/>
-      <c r="Y26" s="1194"/>
-      <c r="Z26" s="1194"/>
-      <c r="AA26" s="1194"/>
-      <c r="AB26" s="1194"/>
-      <c r="AC26" s="1194"/>
-      <c r="AD26" s="1194"/>
-      <c r="AE26" s="1195"/>
-      <c r="AF26" s="1190"/>
-      <c r="AG26" s="1191"/>
-      <c r="AH26" s="1191"/>
-      <c r="AI26" s="1192"/>
-    </row>
-    <row r="27" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="1183"/>
-      <c r="B27" s="1184"/>
-      <c r="C27" s="1185"/>
-      <c r="D27" s="1186"/>
-      <c r="E27" s="1187"/>
-      <c r="F27" s="1188"/>
-      <c r="G27" s="1184"/>
-      <c r="H27" s="1189"/>
-      <c r="I27" s="1185"/>
-      <c r="J27" s="1190"/>
-      <c r="K27" s="1191"/>
-      <c r="L27" s="1191"/>
-      <c r="M27" s="1191"/>
-      <c r="N27" s="1191"/>
-      <c r="O27" s="1191"/>
-      <c r="P27" s="1192"/>
-      <c r="Q27" s="1193"/>
-      <c r="R27" s="1194"/>
-      <c r="S27" s="1194"/>
-      <c r="T27" s="1194"/>
-      <c r="U27" s="1194"/>
-      <c r="V27" s="1194"/>
-      <c r="W27" s="1194"/>
-      <c r="X27" s="1194"/>
-      <c r="Y27" s="1194"/>
-      <c r="Z27" s="1194"/>
-      <c r="AA27" s="1194"/>
-      <c r="AB27" s="1194"/>
-      <c r="AC27" s="1194"/>
-      <c r="AD27" s="1194"/>
-      <c r="AE27" s="1195"/>
-      <c r="AF27" s="1190"/>
-      <c r="AG27" s="1191"/>
-      <c r="AH27" s="1191"/>
-      <c r="AI27" s="1192"/>
-    </row>
-    <row r="28" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="1183"/>
-      <c r="B28" s="1184"/>
-      <c r="C28" s="1185"/>
-      <c r="D28" s="1186"/>
-      <c r="E28" s="1187"/>
-      <c r="F28" s="1188"/>
-      <c r="G28" s="1184"/>
-      <c r="H28" s="1189"/>
-      <c r="I28" s="1185"/>
-      <c r="J28" s="1190"/>
-      <c r="K28" s="1191"/>
-      <c r="L28" s="1191"/>
-      <c r="M28" s="1191"/>
-      <c r="N28" s="1191"/>
-      <c r="O28" s="1191"/>
-      <c r="P28" s="1192"/>
-      <c r="Q28" s="1193"/>
-      <c r="R28" s="1194"/>
-      <c r="S28" s="1194"/>
-      <c r="T28" s="1194"/>
-      <c r="U28" s="1194"/>
-      <c r="V28" s="1194"/>
-      <c r="W28" s="1194"/>
-      <c r="X28" s="1194"/>
-      <c r="Y28" s="1194"/>
-      <c r="Z28" s="1194"/>
-      <c r="AA28" s="1194"/>
-      <c r="AB28" s="1194"/>
-      <c r="AC28" s="1194"/>
-      <c r="AD28" s="1194"/>
-      <c r="AE28" s="1195"/>
-      <c r="AF28" s="1190"/>
-      <c r="AG28" s="1191"/>
-      <c r="AH28" s="1191"/>
-      <c r="AI28" s="1192"/>
-    </row>
-    <row r="29" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="1183"/>
-      <c r="B29" s="1184"/>
-      <c r="C29" s="1185"/>
-      <c r="D29" s="1186"/>
-      <c r="E29" s="1187"/>
-      <c r="F29" s="1188"/>
-      <c r="G29" s="1184"/>
-      <c r="H29" s="1189"/>
-      <c r="I29" s="1185"/>
-      <c r="J29" s="1190"/>
-      <c r="K29" s="1191"/>
-      <c r="L29" s="1191"/>
-      <c r="M29" s="1191"/>
-      <c r="N29" s="1191"/>
-      <c r="O29" s="1191"/>
-      <c r="P29" s="1192"/>
-      <c r="Q29" s="1193"/>
-      <c r="R29" s="1194"/>
-      <c r="S29" s="1194"/>
-      <c r="T29" s="1194"/>
-      <c r="U29" s="1194"/>
-      <c r="V29" s="1194"/>
-      <c r="W29" s="1194"/>
-      <c r="X29" s="1194"/>
-      <c r="Y29" s="1194"/>
-      <c r="Z29" s="1194"/>
-      <c r="AA29" s="1194"/>
-      <c r="AB29" s="1194"/>
-      <c r="AC29" s="1194"/>
-      <c r="AD29" s="1194"/>
-      <c r="AE29" s="1195"/>
-      <c r="AF29" s="1190"/>
-      <c r="AG29" s="1191"/>
-      <c r="AH29" s="1191"/>
-      <c r="AI29" s="1192"/>
-    </row>
-    <row r="30" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="1183"/>
-      <c r="B30" s="1184"/>
-      <c r="C30" s="1185"/>
-      <c r="D30" s="1186"/>
-      <c r="E30" s="1187"/>
-      <c r="F30" s="1188"/>
-      <c r="G30" s="1184"/>
-      <c r="H30" s="1189"/>
-      <c r="I30" s="1185"/>
-      <c r="J30" s="1190"/>
-      <c r="K30" s="1191"/>
-      <c r="L30" s="1191"/>
-      <c r="M30" s="1191"/>
-      <c r="N30" s="1191"/>
-      <c r="O30" s="1191"/>
-      <c r="P30" s="1192"/>
-      <c r="Q30" s="1193"/>
-      <c r="R30" s="1194"/>
-      <c r="S30" s="1194"/>
-      <c r="T30" s="1194"/>
-      <c r="U30" s="1194"/>
-      <c r="V30" s="1194"/>
-      <c r="W30" s="1194"/>
-      <c r="X30" s="1194"/>
-      <c r="Y30" s="1194"/>
-      <c r="Z30" s="1194"/>
-      <c r="AA30" s="1194"/>
-      <c r="AB30" s="1194"/>
-      <c r="AC30" s="1194"/>
-      <c r="AD30" s="1194"/>
-      <c r="AE30" s="1195"/>
-      <c r="AF30" s="1190"/>
-      <c r="AG30" s="1191"/>
-      <c r="AH30" s="1191"/>
-      <c r="AI30" s="1192"/>
-    </row>
-    <row r="31" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="1183"/>
-      <c r="B31" s="1184"/>
-      <c r="C31" s="1185"/>
-      <c r="D31" s="1186"/>
-      <c r="E31" s="1187"/>
-      <c r="F31" s="1188"/>
-      <c r="G31" s="1184"/>
-      <c r="H31" s="1189"/>
-      <c r="I31" s="1185"/>
-      <c r="J31" s="1190"/>
-      <c r="K31" s="1191"/>
-      <c r="L31" s="1191"/>
-      <c r="M31" s="1191"/>
-      <c r="N31" s="1191"/>
-      <c r="O31" s="1191"/>
-      <c r="P31" s="1192"/>
-      <c r="Q31" s="1193"/>
-      <c r="R31" s="1194"/>
-      <c r="S31" s="1194"/>
-      <c r="T31" s="1194"/>
-      <c r="U31" s="1194"/>
-      <c r="V31" s="1194"/>
-      <c r="W31" s="1194"/>
-      <c r="X31" s="1194"/>
-      <c r="Y31" s="1194"/>
-      <c r="Z31" s="1194"/>
-      <c r="AA31" s="1194"/>
-      <c r="AB31" s="1194"/>
-      <c r="AC31" s="1194"/>
-      <c r="AD31" s="1194"/>
-      <c r="AE31" s="1195"/>
-      <c r="AF31" s="1190"/>
-      <c r="AG31" s="1191"/>
-      <c r="AH31" s="1191"/>
-      <c r="AI31" s="1192"/>
-    </row>
-    <row r="32" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="1183"/>
-      <c r="B32" s="1184"/>
-      <c r="C32" s="1185"/>
-      <c r="D32" s="1186"/>
-      <c r="E32" s="1187"/>
-      <c r="F32" s="1188"/>
-      <c r="G32" s="1184"/>
-      <c r="H32" s="1189"/>
-      <c r="I32" s="1185"/>
-      <c r="J32" s="1190"/>
+      <c r="AG8" s="1191"/>
+      <c r="AH8" s="1191"/>
+      <c r="AI8" s="1192"/>
+    </row>
+    <row r="9" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="1128"/>
+      <c r="B9" s="1170"/>
+      <c r="C9" s="1171"/>
+      <c r="D9" s="1172"/>
+      <c r="E9" s="1173"/>
+      <c r="F9" s="1174"/>
+      <c r="G9" s="1172"/>
+      <c r="H9" s="1175"/>
+      <c r="I9" s="1171"/>
+      <c r="J9" s="1176"/>
+      <c r="K9" s="1177"/>
+      <c r="L9" s="1177"/>
+      <c r="M9" s="1177"/>
+      <c r="N9" s="1177"/>
+      <c r="O9" s="1177"/>
+      <c r="P9" s="1178"/>
+      <c r="Q9" s="1179"/>
+      <c r="R9" s="1180"/>
+      <c r="S9" s="1180"/>
+      <c r="T9" s="1180"/>
+      <c r="U9" s="1180"/>
+      <c r="V9" s="1180"/>
+      <c r="W9" s="1180"/>
+      <c r="X9" s="1180"/>
+      <c r="Y9" s="1180"/>
+      <c r="Z9" s="1180"/>
+      <c r="AA9" s="1180"/>
+      <c r="AB9" s="1180"/>
+      <c r="AC9" s="1180"/>
+      <c r="AD9" s="1180"/>
+      <c r="AE9" s="1181"/>
+      <c r="AF9" s="1176"/>
+      <c r="AG9" s="1177"/>
+      <c r="AH9" s="1177"/>
+      <c r="AI9" s="1178"/>
+    </row>
+    <row r="10" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="1128"/>
+      <c r="B10" s="1170"/>
+      <c r="C10" s="1171"/>
+      <c r="D10" s="1172"/>
+      <c r="E10" s="1173"/>
+      <c r="F10" s="1174"/>
+      <c r="G10" s="1170"/>
+      <c r="H10" s="1175"/>
+      <c r="I10" s="1171"/>
+      <c r="J10" s="1176"/>
+      <c r="K10" s="1177"/>
+      <c r="L10" s="1177"/>
+      <c r="M10" s="1177"/>
+      <c r="N10" s="1177"/>
+      <c r="O10" s="1177"/>
+      <c r="P10" s="1178"/>
+      <c r="Q10" s="1179"/>
+      <c r="R10" s="1180"/>
+      <c r="S10" s="1180"/>
+      <c r="T10" s="1180"/>
+      <c r="U10" s="1180"/>
+      <c r="V10" s="1180"/>
+      <c r="W10" s="1180"/>
+      <c r="X10" s="1180"/>
+      <c r="Y10" s="1180"/>
+      <c r="Z10" s="1180"/>
+      <c r="AA10" s="1180"/>
+      <c r="AB10" s="1180"/>
+      <c r="AC10" s="1180"/>
+      <c r="AD10" s="1180"/>
+      <c r="AE10" s="1181"/>
+      <c r="AF10" s="1176"/>
+      <c r="AG10" s="1177"/>
+      <c r="AH10" s="1177"/>
+      <c r="AI10" s="1178"/>
+    </row>
+    <row r="11" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="1128"/>
+      <c r="B11" s="1170"/>
+      <c r="C11" s="1171"/>
+      <c r="D11" s="1172"/>
+      <c r="E11" s="1173"/>
+      <c r="F11" s="1174"/>
+      <c r="G11" s="1170"/>
+      <c r="H11" s="1175"/>
+      <c r="I11" s="1171"/>
+      <c r="J11" s="1176"/>
+      <c r="K11" s="1177"/>
+      <c r="L11" s="1177"/>
+      <c r="M11" s="1177"/>
+      <c r="N11" s="1177"/>
+      <c r="O11" s="1177"/>
+      <c r="P11" s="1178"/>
+      <c r="Q11" s="1179"/>
+      <c r="R11" s="1180"/>
+      <c r="S11" s="1180"/>
+      <c r="T11" s="1180"/>
+      <c r="U11" s="1180"/>
+      <c r="V11" s="1180"/>
+      <c r="W11" s="1180"/>
+      <c r="X11" s="1180"/>
+      <c r="Y11" s="1180"/>
+      <c r="Z11" s="1180"/>
+      <c r="AA11" s="1180"/>
+      <c r="AB11" s="1180"/>
+      <c r="AC11" s="1180"/>
+      <c r="AD11" s="1180"/>
+      <c r="AE11" s="1181"/>
+      <c r="AF11" s="1176"/>
+      <c r="AG11" s="1177"/>
+      <c r="AH11" s="1177"/>
+      <c r="AI11" s="1178"/>
+    </row>
+    <row r="12" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="1128"/>
+      <c r="B12" s="1170"/>
+      <c r="C12" s="1171"/>
+      <c r="D12" s="1172"/>
+      <c r="E12" s="1173"/>
+      <c r="F12" s="1174"/>
+      <c r="G12" s="1170"/>
+      <c r="H12" s="1175"/>
+      <c r="I12" s="1171"/>
+      <c r="J12" s="1176"/>
+      <c r="K12" s="1177"/>
+      <c r="L12" s="1177"/>
+      <c r="M12" s="1177"/>
+      <c r="N12" s="1177"/>
+      <c r="O12" s="1177"/>
+      <c r="P12" s="1178"/>
+      <c r="Q12" s="1179"/>
+      <c r="R12" s="1180"/>
+      <c r="S12" s="1180"/>
+      <c r="T12" s="1180"/>
+      <c r="U12" s="1180"/>
+      <c r="V12" s="1180"/>
+      <c r="W12" s="1180"/>
+      <c r="X12" s="1180"/>
+      <c r="Y12" s="1180"/>
+      <c r="Z12" s="1180"/>
+      <c r="AA12" s="1180"/>
+      <c r="AB12" s="1180"/>
+      <c r="AC12" s="1180"/>
+      <c r="AD12" s="1180"/>
+      <c r="AE12" s="1181"/>
+      <c r="AF12" s="1176"/>
+      <c r="AG12" s="1177"/>
+      <c r="AH12" s="1177"/>
+      <c r="AI12" s="1178"/>
+    </row>
+    <row r="13" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="1128"/>
+      <c r="B13" s="1170"/>
+      <c r="C13" s="1171"/>
+      <c r="D13" s="1172"/>
+      <c r="E13" s="1173"/>
+      <c r="F13" s="1174"/>
+      <c r="G13" s="1170"/>
+      <c r="H13" s="1175"/>
+      <c r="I13" s="1171"/>
+      <c r="J13" s="1176"/>
+      <c r="K13" s="1177"/>
+      <c r="L13" s="1177"/>
+      <c r="M13" s="1177"/>
+      <c r="N13" s="1177"/>
+      <c r="O13" s="1177"/>
+      <c r="P13" s="1178"/>
+      <c r="Q13" s="1179"/>
+      <c r="R13" s="1180"/>
+      <c r="S13" s="1180"/>
+      <c r="T13" s="1180"/>
+      <c r="U13" s="1180"/>
+      <c r="V13" s="1180"/>
+      <c r="W13" s="1180"/>
+      <c r="X13" s="1180"/>
+      <c r="Y13" s="1180"/>
+      <c r="Z13" s="1180"/>
+      <c r="AA13" s="1180"/>
+      <c r="AB13" s="1180"/>
+      <c r="AC13" s="1180"/>
+      <c r="AD13" s="1180"/>
+      <c r="AE13" s="1181"/>
+      <c r="AF13" s="1176"/>
+      <c r="AG13" s="1177"/>
+      <c r="AH13" s="1177"/>
+      <c r="AI13" s="1178"/>
+    </row>
+    <row r="14" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="1128"/>
+      <c r="B14" s="1170"/>
+      <c r="C14" s="1171"/>
+      <c r="D14" s="1172"/>
+      <c r="E14" s="1173"/>
+      <c r="F14" s="1174"/>
+      <c r="G14" s="1170"/>
+      <c r="H14" s="1175"/>
+      <c r="I14" s="1171"/>
+      <c r="J14" s="1176"/>
+      <c r="K14" s="1177"/>
+      <c r="L14" s="1177"/>
+      <c r="M14" s="1177"/>
+      <c r="N14" s="1177"/>
+      <c r="O14" s="1177"/>
+      <c r="P14" s="1178"/>
+      <c r="Q14" s="1179"/>
+      <c r="R14" s="1180"/>
+      <c r="S14" s="1180"/>
+      <c r="T14" s="1180"/>
+      <c r="U14" s="1180"/>
+      <c r="V14" s="1180"/>
+      <c r="W14" s="1180"/>
+      <c r="X14" s="1180"/>
+      <c r="Y14" s="1180"/>
+      <c r="Z14" s="1180"/>
+      <c r="AA14" s="1180"/>
+      <c r="AB14" s="1180"/>
+      <c r="AC14" s="1180"/>
+      <c r="AD14" s="1180"/>
+      <c r="AE14" s="1181"/>
+      <c r="AF14" s="1176"/>
+      <c r="AG14" s="1177"/>
+      <c r="AH14" s="1177"/>
+      <c r="AI14" s="1178"/>
+    </row>
+    <row r="15" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="1128"/>
+      <c r="B15" s="1170"/>
+      <c r="C15" s="1171"/>
+      <c r="D15" s="1172"/>
+      <c r="E15" s="1173"/>
+      <c r="F15" s="1174"/>
+      <c r="G15" s="1170"/>
+      <c r="H15" s="1175"/>
+      <c r="I15" s="1171"/>
+      <c r="J15" s="1176"/>
+      <c r="K15" s="1177"/>
+      <c r="L15" s="1177"/>
+      <c r="M15" s="1177"/>
+      <c r="N15" s="1177"/>
+      <c r="O15" s="1177"/>
+      <c r="P15" s="1178"/>
+      <c r="Q15" s="1179"/>
+      <c r="R15" s="1180"/>
+      <c r="S15" s="1180"/>
+      <c r="T15" s="1180"/>
+      <c r="U15" s="1180"/>
+      <c r="V15" s="1180"/>
+      <c r="W15" s="1180"/>
+      <c r="X15" s="1180"/>
+      <c r="Y15" s="1180"/>
+      <c r="Z15" s="1180"/>
+      <c r="AA15" s="1180"/>
+      <c r="AB15" s="1180"/>
+      <c r="AC15" s="1180"/>
+      <c r="AD15" s="1180"/>
+      <c r="AE15" s="1181"/>
+      <c r="AF15" s="1176"/>
+      <c r="AG15" s="1177"/>
+      <c r="AH15" s="1177"/>
+      <c r="AI15" s="1178"/>
+    </row>
+    <row r="16" spans="1:40" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="1128"/>
+      <c r="B16" s="1170"/>
+      <c r="C16" s="1171"/>
+      <c r="D16" s="1172"/>
+      <c r="E16" s="1173"/>
+      <c r="F16" s="1174"/>
+      <c r="G16" s="1170"/>
+      <c r="H16" s="1175"/>
+      <c r="I16" s="1171"/>
+      <c r="J16" s="1176"/>
+      <c r="K16" s="1177"/>
+      <c r="L16" s="1177"/>
+      <c r="M16" s="1177"/>
+      <c r="N16" s="1177"/>
+      <c r="O16" s="1177"/>
+      <c r="P16" s="1178"/>
+      <c r="Q16" s="1179"/>
+      <c r="R16" s="1180"/>
+      <c r="S16" s="1180"/>
+      <c r="T16" s="1180"/>
+      <c r="U16" s="1180"/>
+      <c r="V16" s="1180"/>
+      <c r="W16" s="1180"/>
+      <c r="X16" s="1180"/>
+      <c r="Y16" s="1180"/>
+      <c r="Z16" s="1180"/>
+      <c r="AA16" s="1180"/>
+      <c r="AB16" s="1180"/>
+      <c r="AC16" s="1180"/>
+      <c r="AD16" s="1180"/>
+      <c r="AE16" s="1181"/>
+      <c r="AF16" s="1176"/>
+      <c r="AG16" s="1177"/>
+      <c r="AH16" s="1177"/>
+      <c r="AI16" s="1178"/>
+    </row>
+    <row r="17" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="1128"/>
+      <c r="B17" s="1170"/>
+      <c r="C17" s="1171"/>
+      <c r="D17" s="1172"/>
+      <c r="E17" s="1173"/>
+      <c r="F17" s="1174"/>
+      <c r="G17" s="1170"/>
+      <c r="H17" s="1175"/>
+      <c r="I17" s="1171"/>
+      <c r="J17" s="1176"/>
+      <c r="K17" s="1177"/>
+      <c r="L17" s="1177"/>
+      <c r="M17" s="1177"/>
+      <c r="N17" s="1177"/>
+      <c r="O17" s="1177"/>
+      <c r="P17" s="1178"/>
+      <c r="Q17" s="1179"/>
+      <c r="R17" s="1180"/>
+      <c r="S17" s="1180"/>
+      <c r="T17" s="1180"/>
+      <c r="U17" s="1180"/>
+      <c r="V17" s="1180"/>
+      <c r="W17" s="1180"/>
+      <c r="X17" s="1180"/>
+      <c r="Y17" s="1180"/>
+      <c r="Z17" s="1180"/>
+      <c r="AA17" s="1180"/>
+      <c r="AB17" s="1180"/>
+      <c r="AC17" s="1180"/>
+      <c r="AD17" s="1180"/>
+      <c r="AE17" s="1181"/>
+      <c r="AF17" s="1176"/>
+      <c r="AG17" s="1177"/>
+      <c r="AH17" s="1177"/>
+      <c r="AI17" s="1178"/>
+    </row>
+    <row r="18" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="1128"/>
+      <c r="B18" s="1170"/>
+      <c r="C18" s="1171"/>
+      <c r="D18" s="1172"/>
+      <c r="E18" s="1173"/>
+      <c r="F18" s="1174"/>
+      <c r="G18" s="1170"/>
+      <c r="H18" s="1175"/>
+      <c r="I18" s="1171"/>
+      <c r="J18" s="1176"/>
+      <c r="K18" s="1177"/>
+      <c r="L18" s="1177"/>
+      <c r="M18" s="1177"/>
+      <c r="N18" s="1177"/>
+      <c r="O18" s="1177"/>
+      <c r="P18" s="1178"/>
+      <c r="Q18" s="1179"/>
+      <c r="R18" s="1180"/>
+      <c r="S18" s="1180"/>
+      <c r="T18" s="1180"/>
+      <c r="U18" s="1180"/>
+      <c r="V18" s="1180"/>
+      <c r="W18" s="1180"/>
+      <c r="X18" s="1180"/>
+      <c r="Y18" s="1180"/>
+      <c r="Z18" s="1180"/>
+      <c r="AA18" s="1180"/>
+      <c r="AB18" s="1180"/>
+      <c r="AC18" s="1180"/>
+      <c r="AD18" s="1180"/>
+      <c r="AE18" s="1181"/>
+      <c r="AF18" s="1176"/>
+      <c r="AG18" s="1177"/>
+      <c r="AH18" s="1177"/>
+      <c r="AI18" s="1178"/>
+    </row>
+    <row r="19" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="1128"/>
+      <c r="B19" s="1170"/>
+      <c r="C19" s="1171"/>
+      <c r="D19" s="1172"/>
+      <c r="E19" s="1173"/>
+      <c r="F19" s="1174"/>
+      <c r="G19" s="1170"/>
+      <c r="H19" s="1175"/>
+      <c r="I19" s="1171"/>
+      <c r="J19" s="1176"/>
+      <c r="K19" s="1177"/>
+      <c r="L19" s="1177"/>
+      <c r="M19" s="1177"/>
+      <c r="N19" s="1177"/>
+      <c r="O19" s="1177"/>
+      <c r="P19" s="1178"/>
+      <c r="Q19" s="1179"/>
+      <c r="R19" s="1180"/>
+      <c r="S19" s="1180"/>
+      <c r="T19" s="1180"/>
+      <c r="U19" s="1180"/>
+      <c r="V19" s="1180"/>
+      <c r="W19" s="1180"/>
+      <c r="X19" s="1180"/>
+      <c r="Y19" s="1180"/>
+      <c r="Z19" s="1180"/>
+      <c r="AA19" s="1180"/>
+      <c r="AB19" s="1180"/>
+      <c r="AC19" s="1180"/>
+      <c r="AD19" s="1180"/>
+      <c r="AE19" s="1181"/>
+      <c r="AF19" s="1176"/>
+      <c r="AG19" s="1177"/>
+      <c r="AH19" s="1177"/>
+      <c r="AI19" s="1178"/>
+    </row>
+    <row r="20" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="1128"/>
+      <c r="B20" s="1170"/>
+      <c r="C20" s="1171"/>
+      <c r="D20" s="1172"/>
+      <c r="E20" s="1173"/>
+      <c r="F20" s="1174"/>
+      <c r="G20" s="1170"/>
+      <c r="H20" s="1175"/>
+      <c r="I20" s="1171"/>
+      <c r="J20" s="1176"/>
+      <c r="K20" s="1177"/>
+      <c r="L20" s="1177"/>
+      <c r="M20" s="1177"/>
+      <c r="N20" s="1177"/>
+      <c r="O20" s="1177"/>
+      <c r="P20" s="1178"/>
+      <c r="Q20" s="1179"/>
+      <c r="R20" s="1180"/>
+      <c r="S20" s="1180"/>
+      <c r="T20" s="1180"/>
+      <c r="U20" s="1180"/>
+      <c r="V20" s="1180"/>
+      <c r="W20" s="1180"/>
+      <c r="X20" s="1180"/>
+      <c r="Y20" s="1180"/>
+      <c r="Z20" s="1180"/>
+      <c r="AA20" s="1180"/>
+      <c r="AB20" s="1180"/>
+      <c r="AC20" s="1180"/>
+      <c r="AD20" s="1180"/>
+      <c r="AE20" s="1181"/>
+      <c r="AF20" s="1176"/>
+      <c r="AG20" s="1177"/>
+      <c r="AH20" s="1177"/>
+      <c r="AI20" s="1178"/>
+    </row>
+    <row r="21" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="1128"/>
+      <c r="B21" s="1170"/>
+      <c r="C21" s="1171"/>
+      <c r="D21" s="1172"/>
+      <c r="E21" s="1173"/>
+      <c r="F21" s="1174"/>
+      <c r="G21" s="1170"/>
+      <c r="H21" s="1175"/>
+      <c r="I21" s="1171"/>
+      <c r="J21" s="1176"/>
+      <c r="K21" s="1177"/>
+      <c r="L21" s="1177"/>
+      <c r="M21" s="1177"/>
+      <c r="N21" s="1177"/>
+      <c r="O21" s="1177"/>
+      <c r="P21" s="1178"/>
+      <c r="Q21" s="1179"/>
+      <c r="R21" s="1180"/>
+      <c r="S21" s="1180"/>
+      <c r="T21" s="1180"/>
+      <c r="U21" s="1180"/>
+      <c r="V21" s="1180"/>
+      <c r="W21" s="1180"/>
+      <c r="X21" s="1180"/>
+      <c r="Y21" s="1180"/>
+      <c r="Z21" s="1180"/>
+      <c r="AA21" s="1180"/>
+      <c r="AB21" s="1180"/>
+      <c r="AC21" s="1180"/>
+      <c r="AD21" s="1180"/>
+      <c r="AE21" s="1181"/>
+      <c r="AF21" s="1176"/>
+      <c r="AG21" s="1177"/>
+      <c r="AH21" s="1177"/>
+      <c r="AI21" s="1178"/>
+    </row>
+    <row r="22" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="1128"/>
+      <c r="B22" s="1170"/>
+      <c r="C22" s="1171"/>
+      <c r="D22" s="1172"/>
+      <c r="E22" s="1173"/>
+      <c r="F22" s="1174"/>
+      <c r="G22" s="1170"/>
+      <c r="H22" s="1175"/>
+      <c r="I22" s="1171"/>
+      <c r="J22" s="1176"/>
+      <c r="K22" s="1177"/>
+      <c r="L22" s="1177"/>
+      <c r="M22" s="1177"/>
+      <c r="N22" s="1177"/>
+      <c r="O22" s="1177"/>
+      <c r="P22" s="1178"/>
+      <c r="Q22" s="1179"/>
+      <c r="R22" s="1180"/>
+      <c r="S22" s="1180"/>
+      <c r="T22" s="1180"/>
+      <c r="U22" s="1180"/>
+      <c r="V22" s="1180"/>
+      <c r="W22" s="1180"/>
+      <c r="X22" s="1180"/>
+      <c r="Y22" s="1180"/>
+      <c r="Z22" s="1180"/>
+      <c r="AA22" s="1180"/>
+      <c r="AB22" s="1180"/>
+      <c r="AC22" s="1180"/>
+      <c r="AD22" s="1180"/>
+      <c r="AE22" s="1181"/>
+      <c r="AF22" s="1176"/>
+      <c r="AG22" s="1177"/>
+      <c r="AH22" s="1177"/>
+      <c r="AI22" s="1178"/>
+    </row>
+    <row r="23" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="1128"/>
+      <c r="B23" s="1170"/>
+      <c r="C23" s="1171"/>
+      <c r="D23" s="1172"/>
+      <c r="E23" s="1173"/>
+      <c r="F23" s="1174"/>
+      <c r="G23" s="1170"/>
+      <c r="H23" s="1175"/>
+      <c r="I23" s="1171"/>
+      <c r="J23" s="1176"/>
+      <c r="K23" s="1177"/>
+      <c r="L23" s="1177"/>
+      <c r="M23" s="1177"/>
+      <c r="N23" s="1177"/>
+      <c r="O23" s="1177"/>
+      <c r="P23" s="1178"/>
+      <c r="Q23" s="1179"/>
+      <c r="R23" s="1180"/>
+      <c r="S23" s="1180"/>
+      <c r="T23" s="1180"/>
+      <c r="U23" s="1180"/>
+      <c r="V23" s="1180"/>
+      <c r="W23" s="1180"/>
+      <c r="X23" s="1180"/>
+      <c r="Y23" s="1180"/>
+      <c r="Z23" s="1180"/>
+      <c r="AA23" s="1180"/>
+      <c r="AB23" s="1180"/>
+      <c r="AC23" s="1180"/>
+      <c r="AD23" s="1180"/>
+      <c r="AE23" s="1181"/>
+      <c r="AF23" s="1176"/>
+      <c r="AG23" s="1177"/>
+      <c r="AH23" s="1177"/>
+      <c r="AI23" s="1178"/>
+    </row>
+    <row r="24" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="1128"/>
+      <c r="B24" s="1170"/>
+      <c r="C24" s="1171"/>
+      <c r="D24" s="1172"/>
+      <c r="E24" s="1173"/>
+      <c r="F24" s="1174"/>
+      <c r="G24" s="1170"/>
+      <c r="H24" s="1175"/>
+      <c r="I24" s="1171"/>
+      <c r="J24" s="1176"/>
+      <c r="K24" s="1177"/>
+      <c r="L24" s="1177"/>
+      <c r="M24" s="1177"/>
+      <c r="N24" s="1177"/>
+      <c r="O24" s="1177"/>
+      <c r="P24" s="1178"/>
+      <c r="Q24" s="1179"/>
+      <c r="R24" s="1180"/>
+      <c r="S24" s="1180"/>
+      <c r="T24" s="1180"/>
+      <c r="U24" s="1180"/>
+      <c r="V24" s="1180"/>
+      <c r="W24" s="1180"/>
+      <c r="X24" s="1180"/>
+      <c r="Y24" s="1180"/>
+      <c r="Z24" s="1180"/>
+      <c r="AA24" s="1180"/>
+      <c r="AB24" s="1180"/>
+      <c r="AC24" s="1180"/>
+      <c r="AD24" s="1180"/>
+      <c r="AE24" s="1181"/>
+      <c r="AF24" s="1176"/>
+      <c r="AG24" s="1177"/>
+      <c r="AH24" s="1177"/>
+      <c r="AI24" s="1178"/>
+    </row>
+    <row r="25" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="1128"/>
+      <c r="B25" s="1170"/>
+      <c r="C25" s="1171"/>
+      <c r="D25" s="1172"/>
+      <c r="E25" s="1173"/>
+      <c r="F25" s="1174"/>
+      <c r="G25" s="1170"/>
+      <c r="H25" s="1175"/>
+      <c r="I25" s="1171"/>
+      <c r="J25" s="1176"/>
+      <c r="K25" s="1177"/>
+      <c r="L25" s="1177"/>
+      <c r="M25" s="1177"/>
+      <c r="N25" s="1177"/>
+      <c r="O25" s="1177"/>
+      <c r="P25" s="1178"/>
+      <c r="Q25" s="1179"/>
+      <c r="R25" s="1180"/>
+      <c r="S25" s="1180"/>
+      <c r="T25" s="1180"/>
+      <c r="U25" s="1180"/>
+      <c r="V25" s="1180"/>
+      <c r="W25" s="1180"/>
+      <c r="X25" s="1180"/>
+      <c r="Y25" s="1180"/>
+      <c r="Z25" s="1180"/>
+      <c r="AA25" s="1180"/>
+      <c r="AB25" s="1180"/>
+      <c r="AC25" s="1180"/>
+      <c r="AD25" s="1180"/>
+      <c r="AE25" s="1181"/>
+      <c r="AF25" s="1176"/>
+      <c r="AG25" s="1177"/>
+      <c r="AH25" s="1177"/>
+      <c r="AI25" s="1178"/>
+    </row>
+    <row r="26" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="1128"/>
+      <c r="B26" s="1170"/>
+      <c r="C26" s="1171"/>
+      <c r="D26" s="1172"/>
+      <c r="E26" s="1173"/>
+      <c r="F26" s="1174"/>
+      <c r="G26" s="1170"/>
+      <c r="H26" s="1175"/>
+      <c r="I26" s="1171"/>
+      <c r="J26" s="1176"/>
+      <c r="K26" s="1177"/>
+      <c r="L26" s="1177"/>
+      <c r="M26" s="1177"/>
+      <c r="N26" s="1177"/>
+      <c r="O26" s="1177"/>
+      <c r="P26" s="1178"/>
+      <c r="Q26" s="1179"/>
+      <c r="R26" s="1180"/>
+      <c r="S26" s="1180"/>
+      <c r="T26" s="1180"/>
+      <c r="U26" s="1180"/>
+      <c r="V26" s="1180"/>
+      <c r="W26" s="1180"/>
+      <c r="X26" s="1180"/>
+      <c r="Y26" s="1180"/>
+      <c r="Z26" s="1180"/>
+      <c r="AA26" s="1180"/>
+      <c r="AB26" s="1180"/>
+      <c r="AC26" s="1180"/>
+      <c r="AD26" s="1180"/>
+      <c r="AE26" s="1181"/>
+      <c r="AF26" s="1176"/>
+      <c r="AG26" s="1177"/>
+      <c r="AH26" s="1177"/>
+      <c r="AI26" s="1178"/>
+    </row>
+    <row r="27" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="1128"/>
+      <c r="B27" s="1170"/>
+      <c r="C27" s="1171"/>
+      <c r="D27" s="1172"/>
+      <c r="E27" s="1173"/>
+      <c r="F27" s="1174"/>
+      <c r="G27" s="1170"/>
+      <c r="H27" s="1175"/>
+      <c r="I27" s="1171"/>
+      <c r="J27" s="1176"/>
+      <c r="K27" s="1177"/>
+      <c r="L27" s="1177"/>
+      <c r="M27" s="1177"/>
+      <c r="N27" s="1177"/>
+      <c r="O27" s="1177"/>
+      <c r="P27" s="1178"/>
+      <c r="Q27" s="1179"/>
+      <c r="R27" s="1180"/>
+      <c r="S27" s="1180"/>
+      <c r="T27" s="1180"/>
+      <c r="U27" s="1180"/>
+      <c r="V27" s="1180"/>
+      <c r="W27" s="1180"/>
+      <c r="X27" s="1180"/>
+      <c r="Y27" s="1180"/>
+      <c r="Z27" s="1180"/>
+      <c r="AA27" s="1180"/>
+      <c r="AB27" s="1180"/>
+      <c r="AC27" s="1180"/>
+      <c r="AD27" s="1180"/>
+      <c r="AE27" s="1181"/>
+      <c r="AF27" s="1176"/>
+      <c r="AG27" s="1177"/>
+      <c r="AH27" s="1177"/>
+      <c r="AI27" s="1178"/>
+    </row>
+    <row r="28" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="1128"/>
+      <c r="B28" s="1170"/>
+      <c r="C28" s="1171"/>
+      <c r="D28" s="1172"/>
+      <c r="E28" s="1173"/>
+      <c r="F28" s="1174"/>
+      <c r="G28" s="1170"/>
+      <c r="H28" s="1175"/>
+      <c r="I28" s="1171"/>
+      <c r="J28" s="1176"/>
+      <c r="K28" s="1177"/>
+      <c r="L28" s="1177"/>
+      <c r="M28" s="1177"/>
+      <c r="N28" s="1177"/>
+      <c r="O28" s="1177"/>
+      <c r="P28" s="1178"/>
+      <c r="Q28" s="1179"/>
+      <c r="R28" s="1180"/>
+      <c r="S28" s="1180"/>
+      <c r="T28" s="1180"/>
+      <c r="U28" s="1180"/>
+      <c r="V28" s="1180"/>
+      <c r="W28" s="1180"/>
+      <c r="X28" s="1180"/>
+      <c r="Y28" s="1180"/>
+      <c r="Z28" s="1180"/>
+      <c r="AA28" s="1180"/>
+      <c r="AB28" s="1180"/>
+      <c r="AC28" s="1180"/>
+      <c r="AD28" s="1180"/>
+      <c r="AE28" s="1181"/>
+      <c r="AF28" s="1176"/>
+      <c r="AG28" s="1177"/>
+      <c r="AH28" s="1177"/>
+      <c r="AI28" s="1178"/>
+    </row>
+    <row r="29" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="1128"/>
+      <c r="B29" s="1170"/>
+      <c r="C29" s="1171"/>
+      <c r="D29" s="1172"/>
+      <c r="E29" s="1173"/>
+      <c r="F29" s="1174"/>
+      <c r="G29" s="1170"/>
+      <c r="H29" s="1175"/>
+      <c r="I29" s="1171"/>
+      <c r="J29" s="1176"/>
+      <c r="K29" s="1177"/>
+      <c r="L29" s="1177"/>
+      <c r="M29" s="1177"/>
+      <c r="N29" s="1177"/>
+      <c r="O29" s="1177"/>
+      <c r="P29" s="1178"/>
+      <c r="Q29" s="1179"/>
+      <c r="R29" s="1180"/>
+      <c r="S29" s="1180"/>
+      <c r="T29" s="1180"/>
+      <c r="U29" s="1180"/>
+      <c r="V29" s="1180"/>
+      <c r="W29" s="1180"/>
+      <c r="X29" s="1180"/>
+      <c r="Y29" s="1180"/>
+      <c r="Z29" s="1180"/>
+      <c r="AA29" s="1180"/>
+      <c r="AB29" s="1180"/>
+      <c r="AC29" s="1180"/>
+      <c r="AD29" s="1180"/>
+      <c r="AE29" s="1181"/>
+      <c r="AF29" s="1176"/>
+      <c r="AG29" s="1177"/>
+      <c r="AH29" s="1177"/>
+      <c r="AI29" s="1178"/>
+    </row>
+    <row r="30" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="1128"/>
+      <c r="B30" s="1170"/>
+      <c r="C30" s="1171"/>
+      <c r="D30" s="1172"/>
+      <c r="E30" s="1173"/>
+      <c r="F30" s="1174"/>
+      <c r="G30" s="1170"/>
+      <c r="H30" s="1175"/>
+      <c r="I30" s="1171"/>
+      <c r="J30" s="1176"/>
+      <c r="K30" s="1177"/>
+      <c r="L30" s="1177"/>
+      <c r="M30" s="1177"/>
+      <c r="N30" s="1177"/>
+      <c r="O30" s="1177"/>
+      <c r="P30" s="1178"/>
+      <c r="Q30" s="1179"/>
+      <c r="R30" s="1180"/>
+      <c r="S30" s="1180"/>
+      <c r="T30" s="1180"/>
+      <c r="U30" s="1180"/>
+      <c r="V30" s="1180"/>
+      <c r="W30" s="1180"/>
+      <c r="X30" s="1180"/>
+      <c r="Y30" s="1180"/>
+      <c r="Z30" s="1180"/>
+      <c r="AA30" s="1180"/>
+      <c r="AB30" s="1180"/>
+      <c r="AC30" s="1180"/>
+      <c r="AD30" s="1180"/>
+      <c r="AE30" s="1181"/>
+      <c r="AF30" s="1176"/>
+      <c r="AG30" s="1177"/>
+      <c r="AH30" s="1177"/>
+      <c r="AI30" s="1178"/>
+    </row>
+    <row r="31" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="1128"/>
+      <c r="B31" s="1170"/>
+      <c r="C31" s="1171"/>
+      <c r="D31" s="1172"/>
+      <c r="E31" s="1173"/>
+      <c r="F31" s="1174"/>
+      <c r="G31" s="1170"/>
+      <c r="H31" s="1175"/>
+      <c r="I31" s="1171"/>
+      <c r="J31" s="1176"/>
+      <c r="K31" s="1177"/>
+      <c r="L31" s="1177"/>
+      <c r="M31" s="1177"/>
+      <c r="N31" s="1177"/>
+      <c r="O31" s="1177"/>
+      <c r="P31" s="1178"/>
+      <c r="Q31" s="1179"/>
+      <c r="R31" s="1180"/>
+      <c r="S31" s="1180"/>
+      <c r="T31" s="1180"/>
+      <c r="U31" s="1180"/>
+      <c r="V31" s="1180"/>
+      <c r="W31" s="1180"/>
+      <c r="X31" s="1180"/>
+      <c r="Y31" s="1180"/>
+      <c r="Z31" s="1180"/>
+      <c r="AA31" s="1180"/>
+      <c r="AB31" s="1180"/>
+      <c r="AC31" s="1180"/>
+      <c r="AD31" s="1180"/>
+      <c r="AE31" s="1181"/>
+      <c r="AF31" s="1176"/>
+      <c r="AG31" s="1177"/>
+      <c r="AH31" s="1177"/>
+      <c r="AI31" s="1178"/>
+    </row>
+    <row r="32" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="1128"/>
+      <c r="B32" s="1170"/>
+      <c r="C32" s="1171"/>
+      <c r="D32" s="1172"/>
+      <c r="E32" s="1173"/>
+      <c r="F32" s="1174"/>
+      <c r="G32" s="1170"/>
+      <c r="H32" s="1175"/>
+      <c r="I32" s="1171"/>
+      <c r="J32" s="1176"/>
       <c r="K32" s="1196"/>
-      <c r="L32" s="1191"/>
-      <c r="M32" s="1191"/>
-      <c r="N32" s="1191"/>
-      <c r="O32" s="1191"/>
-      <c r="P32" s="1192"/>
-      <c r="Q32" s="1193"/>
-      <c r="R32" s="1194"/>
-      <c r="S32" s="1194"/>
-      <c r="T32" s="1194"/>
-      <c r="U32" s="1194"/>
-      <c r="V32" s="1194"/>
-      <c r="W32" s="1194"/>
-      <c r="X32" s="1194"/>
-      <c r="Y32" s="1194"/>
-      <c r="Z32" s="1194"/>
-      <c r="AA32" s="1194"/>
-      <c r="AB32" s="1194"/>
-      <c r="AC32" s="1194"/>
-      <c r="AD32" s="1194"/>
-      <c r="AE32" s="1195"/>
-      <c r="AF32" s="1190"/>
-      <c r="AG32" s="1191"/>
-      <c r="AH32" s="1191"/>
-      <c r="AI32" s="1192"/>
-    </row>
-    <row r="33" spans="1:35" s="1178" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="1183"/>
-      <c r="B33" s="1184"/>
-      <c r="C33" s="1185"/>
-      <c r="D33" s="1186"/>
-      <c r="E33" s="1187"/>
-      <c r="F33" s="1188"/>
-      <c r="G33" s="1184"/>
-      <c r="H33" s="1189"/>
-      <c r="I33" s="1185"/>
-      <c r="J33" s="1190"/>
-      <c r="K33" s="1191"/>
-      <c r="L33" s="1191"/>
-      <c r="M33" s="1191"/>
-      <c r="N33" s="1191"/>
-      <c r="O33" s="1191"/>
-      <c r="P33" s="1192"/>
-      <c r="Q33" s="1193"/>
-      <c r="R33" s="1194"/>
-      <c r="S33" s="1194"/>
-      <c r="T33" s="1194"/>
-      <c r="U33" s="1194"/>
-      <c r="V33" s="1194"/>
-      <c r="W33" s="1194"/>
-      <c r="X33" s="1194"/>
-      <c r="Y33" s="1194"/>
-      <c r="Z33" s="1194"/>
-      <c r="AA33" s="1194"/>
-      <c r="AB33" s="1194"/>
-      <c r="AC33" s="1194"/>
-      <c r="AD33" s="1194"/>
-      <c r="AE33" s="1195"/>
-      <c r="AF33" s="1190"/>
-      <c r="AG33" s="1191"/>
-      <c r="AH33" s="1191"/>
-      <c r="AI33" s="1192"/>
+      <c r="L32" s="1177"/>
+      <c r="M32" s="1177"/>
+      <c r="N32" s="1177"/>
+      <c r="O32" s="1177"/>
+      <c r="P32" s="1178"/>
+      <c r="Q32" s="1179"/>
+      <c r="R32" s="1180"/>
+      <c r="S32" s="1180"/>
+      <c r="T32" s="1180"/>
+      <c r="U32" s="1180"/>
+      <c r="V32" s="1180"/>
+      <c r="W32" s="1180"/>
+      <c r="X32" s="1180"/>
+      <c r="Y32" s="1180"/>
+      <c r="Z32" s="1180"/>
+      <c r="AA32" s="1180"/>
+      <c r="AB32" s="1180"/>
+      <c r="AC32" s="1180"/>
+      <c r="AD32" s="1180"/>
+      <c r="AE32" s="1181"/>
+      <c r="AF32" s="1176"/>
+      <c r="AG32" s="1177"/>
+      <c r="AH32" s="1177"/>
+      <c r="AI32" s="1178"/>
+    </row>
+    <row r="33" spans="1:35" s="1126" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="1128"/>
+      <c r="B33" s="1170"/>
+      <c r="C33" s="1171"/>
+      <c r="D33" s="1172"/>
+      <c r="E33" s="1173"/>
+      <c r="F33" s="1174"/>
+      <c r="G33" s="1170"/>
+      <c r="H33" s="1175"/>
+      <c r="I33" s="1171"/>
+      <c r="J33" s="1176"/>
+      <c r="K33" s="1177"/>
+      <c r="L33" s="1177"/>
+      <c r="M33" s="1177"/>
+      <c r="N33" s="1177"/>
+      <c r="O33" s="1177"/>
+      <c r="P33" s="1178"/>
+      <c r="Q33" s="1179"/>
+      <c r="R33" s="1180"/>
+      <c r="S33" s="1180"/>
+      <c r="T33" s="1180"/>
+      <c r="U33" s="1180"/>
+      <c r="V33" s="1180"/>
+      <c r="W33" s="1180"/>
+      <c r="X33" s="1180"/>
+      <c r="Y33" s="1180"/>
+      <c r="Z33" s="1180"/>
+      <c r="AA33" s="1180"/>
+      <c r="AB33" s="1180"/>
+      <c r="AC33" s="1180"/>
+      <c r="AD33" s="1180"/>
+      <c r="AE33" s="1181"/>
+      <c r="AF33" s="1176"/>
+      <c r="AG33" s="1177"/>
+      <c r="AH33" s="1177"/>
+      <c r="AI33" s="1178"/>
     </row>
     <row r="34" spans="1:35" ht="15.75">
-      <c r="K34" s="1198"/>
+      <c r="K34" s="1130"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -24641,10 +24694,10 @@
       </c>
       <c r="B21" s="894"/>
       <c r="C21" s="894"/>
-      <c r="D21" s="1118" t="s">
+      <c r="D21" s="1197" t="s">
         <v>325</v>
       </c>
-      <c r="E21" s="1119"/>
+      <c r="E21" s="1198"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="907" t="s">
